--- a/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
+++ b/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2072CBD0-4B82-4814-920C-B1BB1D8CD099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A2166B-2DF6-49EA-978B-D56D7B537AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原燃料质量" sheetId="2" r:id="rId1"/>
@@ -1522,7 +1522,7 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2525,6 +2525,10 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10328,7 +10332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -12507,8 +12511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AK2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12522,22 +12526,22 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="271" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48">
+      <c r="G1" s="271"/>
+      <c r="H1" s="271">
         <v>31</v>
       </c>
+      <c r="I1" s="271"/>
       <c r="J1" s="48" t="s">
         <v>134</v>
       </c>
       <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48">
+      <c r="L1" s="271">
         <v>4117</v>
       </c>
+      <c r="M1" s="271"/>
       <c r="N1" s="65"/>
       <c r="O1" s="66"/>
       <c r="P1" s="67"/>
@@ -14613,9 +14617,12 @@
       <c r="AK41" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="46">
     <mergeCell ref="AL3:AL5"/>
     <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="AG3:AG5"/>
     <mergeCell ref="AH3:AH5"/>
     <mergeCell ref="AI3:AI5"/>
@@ -14660,6 +14667,7 @@
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
+++ b/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACFA123-63E6-4BB4-A2D6-DE2F3BE55D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185BE528-8237-4EF7-8A1A-A43EC1C86B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3467,6 +3467,47 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3492,47 +3533,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3580,15 +3580,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3604,47 +3622,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3662,13 +3654,62 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3688,52 +3729,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3788,6 +3788,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3816,32 +3832,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3852,6 +3842,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4188,7 +4188,7 @@
   <dimension ref="A1:AS41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4205,298 +4205,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="30" customHeight="1">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="233"/>
-      <c r="O1" s="233"/>
-      <c r="P1" s="233"/>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="233"/>
-      <c r="S1" s="233"/>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="233"/>
-      <c r="AA1" s="233"/>
-      <c r="AB1" s="233"/>
-      <c r="AC1" s="233"/>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="233"/>
-      <c r="AH1" s="233"/>
-      <c r="AI1" s="233"/>
-      <c r="AJ1" s="233"/>
-      <c r="AK1" s="233"/>
-      <c r="AL1" s="233"/>
-      <c r="AM1" s="233"/>
-      <c r="AN1" s="233"/>
-      <c r="AO1" s="233"/>
-      <c r="AP1" s="233"/>
-      <c r="AQ1" s="233"/>
-      <c r="AR1" s="233"/>
-      <c r="AS1" s="233"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="244"/>
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="244"/>
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="244"/>
+      <c r="AG1" s="244"/>
+      <c r="AH1" s="244"/>
+      <c r="AI1" s="244"/>
+      <c r="AJ1" s="244"/>
+      <c r="AK1" s="244"/>
+      <c r="AL1" s="244"/>
+      <c r="AM1" s="244"/>
+      <c r="AN1" s="244"/>
+      <c r="AO1" s="244"/>
+      <c r="AP1" s="244"/>
+      <c r="AQ1" s="244"/>
+      <c r="AR1" s="244"/>
+      <c r="AS1" s="244"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="234"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="234"/>
-      <c r="Q2" s="234" t="s">
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="234"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="234" t="s">
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="234"/>
-      <c r="AB2" s="234"/>
-      <c r="AC2" s="234"/>
-      <c r="AD2" s="234"/>
-      <c r="AE2" s="234" t="s">
+      <c r="AA2" s="245"/>
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="245"/>
+      <c r="AD2" s="245"/>
+      <c r="AE2" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="234"/>
-      <c r="AG2" s="234"/>
-      <c r="AH2" s="234"/>
-      <c r="AI2" s="234"/>
-      <c r="AJ2" s="234"/>
-      <c r="AK2" s="234"/>
-      <c r="AL2" s="234"/>
-      <c r="AM2" s="234"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="245"/>
+      <c r="AH2" s="245"/>
+      <c r="AI2" s="245"/>
+      <c r="AJ2" s="245"/>
+      <c r="AK2" s="245"/>
+      <c r="AL2" s="245"/>
+      <c r="AM2" s="245"/>
       <c r="AN2" s="173"/>
-      <c r="AO2" s="234" t="s">
+      <c r="AO2" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="234"/>
-      <c r="AQ2" s="234"/>
-      <c r="AR2" s="234"/>
-      <c r="AS2" s="235"/>
+      <c r="AP2" s="245"/>
+      <c r="AQ2" s="245"/>
+      <c r="AR2" s="245"/>
+      <c r="AS2" s="246"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1">
-      <c r="A3" s="237"/>
-      <c r="B3" s="239" t="s">
+      <c r="A3" s="248"/>
+      <c r="B3" s="238" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="242" t="s">
+      <c r="C3" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="243" t="s">
+      <c r="D3" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="243" t="s">
+      <c r="E3" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="243" t="s">
+      <c r="F3" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="243" t="s">
+      <c r="G3" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="243" t="s">
+      <c r="H3" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="243" t="s">
+      <c r="I3" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="242" t="s">
+      <c r="J3" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="242" t="s">
+      <c r="K3" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="243" t="s">
+      <c r="L3" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="243">
+      <c r="M3" s="237">
         <v>-5</v>
       </c>
-      <c r="N3" s="244" t="s">
+      <c r="N3" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="245" t="s">
+      <c r="O3" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="242" t="s">
+      <c r="P3" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="239" t="s">
+      <c r="Q3" s="238" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="242" t="s">
+      <c r="R3" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="243" t="s">
+      <c r="S3" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="243" t="s">
+      <c r="T3" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="243" t="s">
+      <c r="U3" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="243" t="s">
+      <c r="V3" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="243" t="s">
+      <c r="W3" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="243" t="s">
+      <c r="X3" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="243" t="s">
+      <c r="Y3" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="242" t="s">
+      <c r="Z3" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="242" t="s">
+      <c r="AA3" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="242" t="s">
+      <c r="AB3" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="242" t="s">
+      <c r="AC3" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="242" t="s">
+      <c r="AD3" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="242" t="s">
+      <c r="AE3" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="242" t="s">
+      <c r="AF3" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="242" t="s">
+      <c r="AG3" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="242" t="s">
+      <c r="AH3" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="AI3" s="242" t="s">
+      <c r="AI3" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="246" t="s">
+      <c r="AJ3" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="AK3" s="246" t="s">
+      <c r="AK3" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="AL3" s="246" t="s">
+      <c r="AL3" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="AM3" s="246" t="s">
+      <c r="AM3" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="AN3" s="247" t="s">
+      <c r="AN3" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="242" t="s">
+      <c r="AO3" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="AP3" s="242" t="s">
+      <c r="AP3" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="AQ3" s="242" t="s">
+      <c r="AQ3" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="AR3" s="242" t="s">
+      <c r="AR3" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="AS3" s="249" t="s">
+      <c r="AS3" s="233" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1">
-      <c r="A4" s="237"/>
-      <c r="B4" s="240"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="243"/>
-      <c r="N4" s="243"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="242"/>
-      <c r="S4" s="243"/>
-      <c r="T4" s="243"/>
-      <c r="U4" s="243"/>
-      <c r="V4" s="243"/>
-      <c r="W4" s="243"/>
-      <c r="X4" s="243"/>
-      <c r="Y4" s="243"/>
-      <c r="Z4" s="242"/>
-      <c r="AA4" s="242"/>
-      <c r="AB4" s="242"/>
-      <c r="AC4" s="242"/>
-      <c r="AD4" s="242"/>
-      <c r="AE4" s="242"/>
-      <c r="AF4" s="242"/>
-      <c r="AG4" s="242"/>
-      <c r="AH4" s="242"/>
-      <c r="AI4" s="242"/>
-      <c r="AJ4" s="246"/>
-      <c r="AK4" s="246"/>
-      <c r="AL4" s="246"/>
-      <c r="AM4" s="246"/>
-      <c r="AN4" s="248"/>
-      <c r="AO4" s="242"/>
-      <c r="AP4" s="242"/>
-      <c r="AQ4" s="242"/>
-      <c r="AR4" s="242"/>
-      <c r="AS4" s="249"/>
+      <c r="A4" s="248"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="232"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="232"/>
+      <c r="S4" s="237"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="237"/>
+      <c r="W4" s="237"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="237"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="232"/>
+      <c r="AD4" s="232"/>
+      <c r="AE4" s="232"/>
+      <c r="AF4" s="232"/>
+      <c r="AG4" s="232"/>
+      <c r="AH4" s="232"/>
+      <c r="AI4" s="232"/>
+      <c r="AJ4" s="234"/>
+      <c r="AK4" s="234"/>
+      <c r="AL4" s="234"/>
+      <c r="AM4" s="234"/>
+      <c r="AN4" s="236"/>
+      <c r="AO4" s="232"/>
+      <c r="AP4" s="232"/>
+      <c r="AQ4" s="232"/>
+      <c r="AR4" s="232"/>
+      <c r="AS4" s="233"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
-      <c r="A5" s="238"/>
-      <c r="B5" s="241"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="240"/>
       <c r="C5" s="176" t="s">
         <v>31</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>31</v>
       </c>
       <c r="P5" s="174"/>
-      <c r="Q5" s="241"/>
+      <c r="Q5" s="240"/>
       <c r="R5" s="176" t="s">
         <v>31</v>
       </c>
@@ -6957,41 +6957,6 @@
     <protectedRange sqref="C29:M29 P29:Y29" name="区域3_2_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="Q2:Y2"/>
@@ -7008,6 +6973,41 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7026,769 +7026,769 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="334" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
+      <c r="N1" s="281"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="335" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="331"/>
-      <c r="H2" s="331"/>
-      <c r="I2" s="331"/>
-      <c r="J2" s="331" t="s">
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335" t="s">
         <v>360</v>
       </c>
-      <c r="K2" s="331"/>
-      <c r="L2" s="331"/>
-      <c r="M2" s="331"/>
-      <c r="N2" s="331"/>
-      <c r="O2" s="331"/>
-      <c r="P2" s="331"/>
-      <c r="Q2" s="332"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="336"/>
     </row>
     <row r="3" spans="1:17" ht="60" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
-      <c r="L3" s="333"/>
-      <c r="M3" s="333"/>
-      <c r="N3" s="333"/>
-      <c r="O3" s="333"/>
-      <c r="P3" s="333"/>
-      <c r="Q3" s="334"/>
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
+      <c r="J3" s="330"/>
+      <c r="K3" s="330"/>
+      <c r="L3" s="330"/>
+      <c r="M3" s="330"/>
+      <c r="N3" s="330"/>
+      <c r="O3" s="330"/>
+      <c r="P3" s="330"/>
+      <c r="Q3" s="331"/>
     </row>
     <row r="4" spans="1:17" ht="60" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="333"/>
-      <c r="H4" s="333"/>
-      <c r="I4" s="333"/>
-      <c r="J4" s="333"/>
-      <c r="K4" s="333"/>
-      <c r="L4" s="333"/>
-      <c r="M4" s="333"/>
-      <c r="N4" s="333"/>
-      <c r="O4" s="333"/>
-      <c r="P4" s="333"/>
-      <c r="Q4" s="334"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="330"/>
+      <c r="K4" s="330"/>
+      <c r="L4" s="330"/>
+      <c r="M4" s="330"/>
+      <c r="N4" s="330"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="330"/>
+      <c r="Q4" s="331"/>
     </row>
     <row r="5" spans="1:17" ht="60" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="333"/>
-      <c r="C5" s="333"/>
-      <c r="D5" s="333"/>
-      <c r="E5" s="333"/>
-      <c r="F5" s="333"/>
-      <c r="G5" s="333"/>
-      <c r="H5" s="333"/>
-      <c r="I5" s="333"/>
-      <c r="J5" s="333"/>
-      <c r="K5" s="333"/>
-      <c r="L5" s="333"/>
-      <c r="M5" s="333"/>
-      <c r="N5" s="333"/>
-      <c r="O5" s="333"/>
-      <c r="P5" s="333"/>
-      <c r="Q5" s="334"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="330"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="330"/>
+      <c r="Q5" s="331"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="333"/>
-      <c r="C6" s="333"/>
-      <c r="D6" s="333"/>
-      <c r="E6" s="333"/>
-      <c r="F6" s="333"/>
-      <c r="G6" s="333"/>
-      <c r="H6" s="333"/>
-      <c r="I6" s="333"/>
-      <c r="J6" s="333"/>
-      <c r="K6" s="333"/>
-      <c r="L6" s="333"/>
-      <c r="M6" s="333"/>
-      <c r="N6" s="333"/>
-      <c r="O6" s="333"/>
-      <c r="P6" s="333"/>
-      <c r="Q6" s="334"/>
+      <c r="B6" s="330"/>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="330"/>
+      <c r="G6" s="330"/>
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="330"/>
+      <c r="L6" s="330"/>
+      <c r="M6" s="330"/>
+      <c r="N6" s="330"/>
+      <c r="O6" s="330"/>
+      <c r="P6" s="330"/>
+      <c r="Q6" s="331"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="333"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="333"/>
-      <c r="I7" s="333"/>
-      <c r="J7" s="333"/>
-      <c r="K7" s="333"/>
-      <c r="L7" s="333"/>
-      <c r="M7" s="333"/>
-      <c r="N7" s="333"/>
-      <c r="O7" s="333"/>
-      <c r="P7" s="333"/>
-      <c r="Q7" s="334"/>
+      <c r="B7" s="330"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
+      <c r="F7" s="330"/>
+      <c r="G7" s="330"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="330"/>
+      <c r="J7" s="330"/>
+      <c r="K7" s="330"/>
+      <c r="L7" s="330"/>
+      <c r="M7" s="330"/>
+      <c r="N7" s="330"/>
+      <c r="O7" s="330"/>
+      <c r="P7" s="330"/>
+      <c r="Q7" s="331"/>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="333"/>
-      <c r="C8" s="333"/>
-      <c r="D8" s="333"/>
-      <c r="E8" s="333"/>
-      <c r="F8" s="333"/>
-      <c r="G8" s="333"/>
-      <c r="H8" s="333"/>
-      <c r="I8" s="333"/>
-      <c r="J8" s="333"/>
-      <c r="K8" s="333"/>
-      <c r="L8" s="333"/>
-      <c r="M8" s="333"/>
-      <c r="N8" s="333"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="333"/>
-      <c r="Q8" s="334"/>
+      <c r="B8" s="330"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="330"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="330"/>
+      <c r="J8" s="330"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="330"/>
+      <c r="M8" s="330"/>
+      <c r="N8" s="330"/>
+      <c r="O8" s="330"/>
+      <c r="P8" s="330"/>
+      <c r="Q8" s="331"/>
     </row>
     <row r="9" spans="1:17" ht="60" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="333"/>
-      <c r="C9" s="333"/>
-      <c r="D9" s="333"/>
-      <c r="E9" s="333"/>
-      <c r="F9" s="333"/>
-      <c r="G9" s="333"/>
-      <c r="H9" s="333"/>
-      <c r="I9" s="333"/>
-      <c r="J9" s="333"/>
-      <c r="K9" s="333"/>
-      <c r="L9" s="333"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="334"/>
+      <c r="B9" s="330"/>
+      <c r="C9" s="330"/>
+      <c r="D9" s="330"/>
+      <c r="E9" s="330"/>
+      <c r="F9" s="330"/>
+      <c r="G9" s="330"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="330"/>
+      <c r="J9" s="330"/>
+      <c r="K9" s="330"/>
+      <c r="L9" s="330"/>
+      <c r="M9" s="330"/>
+      <c r="N9" s="330"/>
+      <c r="O9" s="330"/>
+      <c r="P9" s="330"/>
+      <c r="Q9" s="331"/>
     </row>
     <row r="10" spans="1:17" ht="60" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="333"/>
-      <c r="C10" s="333"/>
-      <c r="D10" s="333"/>
-      <c r="E10" s="333"/>
-      <c r="F10" s="333"/>
-      <c r="G10" s="333"/>
-      <c r="H10" s="333"/>
-      <c r="I10" s="333"/>
-      <c r="J10" s="333"/>
-      <c r="K10" s="333"/>
-      <c r="L10" s="333"/>
-      <c r="M10" s="333"/>
-      <c r="N10" s="333"/>
-      <c r="O10" s="333"/>
-      <c r="P10" s="333"/>
-      <c r="Q10" s="334"/>
+      <c r="B10" s="330"/>
+      <c r="C10" s="330"/>
+      <c r="D10" s="330"/>
+      <c r="E10" s="330"/>
+      <c r="F10" s="330"/>
+      <c r="G10" s="330"/>
+      <c r="H10" s="330"/>
+      <c r="I10" s="330"/>
+      <c r="J10" s="330"/>
+      <c r="K10" s="330"/>
+      <c r="L10" s="330"/>
+      <c r="M10" s="330"/>
+      <c r="N10" s="330"/>
+      <c r="O10" s="330"/>
+      <c r="P10" s="330"/>
+      <c r="Q10" s="331"/>
     </row>
     <row r="11" spans="1:17" ht="60" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="333"/>
-      <c r="C11" s="333"/>
-      <c r="D11" s="333"/>
-      <c r="E11" s="333"/>
-      <c r="F11" s="333"/>
-      <c r="G11" s="333"/>
-      <c r="H11" s="333"/>
-      <c r="I11" s="333"/>
-      <c r="J11" s="333"/>
-      <c r="K11" s="333"/>
-      <c r="L11" s="333"/>
-      <c r="M11" s="333"/>
-      <c r="N11" s="333"/>
-      <c r="O11" s="333"/>
-      <c r="P11" s="333"/>
-      <c r="Q11" s="334"/>
+      <c r="B11" s="330"/>
+      <c r="C11" s="330"/>
+      <c r="D11" s="330"/>
+      <c r="E11" s="330"/>
+      <c r="F11" s="330"/>
+      <c r="G11" s="330"/>
+      <c r="H11" s="330"/>
+      <c r="I11" s="330"/>
+      <c r="J11" s="330"/>
+      <c r="K11" s="330"/>
+      <c r="L11" s="330"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="330"/>
+      <c r="O11" s="330"/>
+      <c r="P11" s="330"/>
+      <c r="Q11" s="331"/>
     </row>
     <row r="12" spans="1:17" ht="60" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="333"/>
-      <c r="C12" s="333"/>
-      <c r="D12" s="333"/>
-      <c r="E12" s="333"/>
-      <c r="F12" s="333"/>
-      <c r="G12" s="333"/>
-      <c r="H12" s="333"/>
-      <c r="I12" s="333"/>
-      <c r="J12" s="333"/>
-      <c r="K12" s="333"/>
-      <c r="L12" s="333"/>
-      <c r="M12" s="333"/>
-      <c r="N12" s="333"/>
-      <c r="O12" s="333"/>
-      <c r="P12" s="333"/>
-      <c r="Q12" s="334"/>
+      <c r="B12" s="330"/>
+      <c r="C12" s="330"/>
+      <c r="D12" s="330"/>
+      <c r="E12" s="330"/>
+      <c r="F12" s="330"/>
+      <c r="G12" s="330"/>
+      <c r="H12" s="330"/>
+      <c r="I12" s="330"/>
+      <c r="J12" s="330"/>
+      <c r="K12" s="330"/>
+      <c r="L12" s="330"/>
+      <c r="M12" s="330"/>
+      <c r="N12" s="330"/>
+      <c r="O12" s="330"/>
+      <c r="P12" s="330"/>
+      <c r="Q12" s="331"/>
     </row>
     <row r="13" spans="1:17" ht="60" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="333"/>
-      <c r="C13" s="333"/>
-      <c r="D13" s="333"/>
-      <c r="E13" s="333"/>
-      <c r="F13" s="333"/>
-      <c r="G13" s="333"/>
-      <c r="H13" s="333"/>
-      <c r="I13" s="333"/>
-      <c r="J13" s="333"/>
-      <c r="K13" s="333"/>
-      <c r="L13" s="333"/>
-      <c r="M13" s="333"/>
-      <c r="N13" s="333"/>
-      <c r="O13" s="333"/>
-      <c r="P13" s="333"/>
-      <c r="Q13" s="334"/>
+      <c r="B13" s="330"/>
+      <c r="C13" s="330"/>
+      <c r="D13" s="330"/>
+      <c r="E13" s="330"/>
+      <c r="F13" s="330"/>
+      <c r="G13" s="330"/>
+      <c r="H13" s="330"/>
+      <c r="I13" s="330"/>
+      <c r="J13" s="330"/>
+      <c r="K13" s="330"/>
+      <c r="L13" s="330"/>
+      <c r="M13" s="330"/>
+      <c r="N13" s="330"/>
+      <c r="O13" s="330"/>
+      <c r="P13" s="330"/>
+      <c r="Q13" s="331"/>
     </row>
     <row r="14" spans="1:17" ht="60" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="333"/>
-      <c r="C14" s="333"/>
-      <c r="D14" s="333"/>
-      <c r="E14" s="333"/>
-      <c r="F14" s="333"/>
-      <c r="G14" s="333"/>
-      <c r="H14" s="333"/>
-      <c r="I14" s="333"/>
-      <c r="J14" s="333"/>
-      <c r="K14" s="333"/>
-      <c r="L14" s="333"/>
-      <c r="M14" s="333"/>
-      <c r="N14" s="333"/>
-      <c r="O14" s="333"/>
-      <c r="P14" s="333"/>
-      <c r="Q14" s="334"/>
+      <c r="B14" s="330"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="330"/>
+      <c r="E14" s="330"/>
+      <c r="F14" s="330"/>
+      <c r="G14" s="330"/>
+      <c r="H14" s="330"/>
+      <c r="I14" s="330"/>
+      <c r="J14" s="330"/>
+      <c r="K14" s="330"/>
+      <c r="L14" s="330"/>
+      <c r="M14" s="330"/>
+      <c r="N14" s="330"/>
+      <c r="O14" s="330"/>
+      <c r="P14" s="330"/>
+      <c r="Q14" s="331"/>
     </row>
     <row r="15" spans="1:17" ht="60" customHeight="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="333"/>
-      <c r="C15" s="333"/>
-      <c r="D15" s="333"/>
-      <c r="E15" s="333"/>
-      <c r="F15" s="333"/>
-      <c r="G15" s="333"/>
-      <c r="H15" s="333"/>
-      <c r="I15" s="333"/>
-      <c r="J15" s="333"/>
-      <c r="K15" s="333"/>
-      <c r="L15" s="333"/>
-      <c r="M15" s="333"/>
-      <c r="N15" s="333"/>
-      <c r="O15" s="333"/>
-      <c r="P15" s="333"/>
-      <c r="Q15" s="334"/>
+      <c r="B15" s="330"/>
+      <c r="C15" s="330"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
+      <c r="I15" s="330"/>
+      <c r="J15" s="330"/>
+      <c r="K15" s="330"/>
+      <c r="L15" s="330"/>
+      <c r="M15" s="330"/>
+      <c r="N15" s="330"/>
+      <c r="O15" s="330"/>
+      <c r="P15" s="330"/>
+      <c r="Q15" s="331"/>
     </row>
     <row r="16" spans="1:17" ht="60" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="333"/>
-      <c r="C16" s="333"/>
-      <c r="D16" s="333"/>
-      <c r="E16" s="333"/>
-      <c r="F16" s="333"/>
-      <c r="G16" s="333"/>
-      <c r="H16" s="333"/>
-      <c r="I16" s="333"/>
-      <c r="J16" s="333"/>
-      <c r="K16" s="333"/>
-      <c r="L16" s="333"/>
-      <c r="M16" s="333"/>
-      <c r="N16" s="333"/>
-      <c r="O16" s="333"/>
-      <c r="P16" s="333"/>
-      <c r="Q16" s="334"/>
+      <c r="B16" s="330"/>
+      <c r="C16" s="330"/>
+      <c r="D16" s="330"/>
+      <c r="E16" s="330"/>
+      <c r="F16" s="330"/>
+      <c r="G16" s="330"/>
+      <c r="H16" s="330"/>
+      <c r="I16" s="330"/>
+      <c r="J16" s="330"/>
+      <c r="K16" s="330"/>
+      <c r="L16" s="330"/>
+      <c r="M16" s="330"/>
+      <c r="N16" s="330"/>
+      <c r="O16" s="330"/>
+      <c r="P16" s="330"/>
+      <c r="Q16" s="331"/>
     </row>
     <row r="17" spans="1:17" ht="60" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="333"/>
-      <c r="C17" s="333"/>
-      <c r="D17" s="333"/>
-      <c r="E17" s="333"/>
-      <c r="F17" s="333"/>
-      <c r="G17" s="333"/>
-      <c r="H17" s="333"/>
-      <c r="I17" s="333"/>
-      <c r="J17" s="333"/>
-      <c r="K17" s="333"/>
-      <c r="L17" s="333"/>
-      <c r="M17" s="333"/>
-      <c r="N17" s="333"/>
-      <c r="O17" s="333"/>
-      <c r="P17" s="333"/>
-      <c r="Q17" s="334"/>
+      <c r="B17" s="330"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="330"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="330"/>
+      <c r="J17" s="330"/>
+      <c r="K17" s="330"/>
+      <c r="L17" s="330"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="330"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="331"/>
     </row>
     <row r="18" spans="1:17" ht="60" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="333"/>
-      <c r="C18" s="333"/>
-      <c r="D18" s="333"/>
-      <c r="E18" s="333"/>
-      <c r="F18" s="333"/>
-      <c r="G18" s="333"/>
-      <c r="H18" s="333"/>
-      <c r="I18" s="333"/>
-      <c r="J18" s="333"/>
-      <c r="K18" s="333"/>
-      <c r="L18" s="333"/>
-      <c r="M18" s="333"/>
-      <c r="N18" s="333"/>
-      <c r="O18" s="333"/>
-      <c r="P18" s="333"/>
-      <c r="Q18" s="334"/>
+      <c r="B18" s="330"/>
+      <c r="C18" s="330"/>
+      <c r="D18" s="330"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="330"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="330"/>
+      <c r="I18" s="330"/>
+      <c r="J18" s="330"/>
+      <c r="K18" s="330"/>
+      <c r="L18" s="330"/>
+      <c r="M18" s="330"/>
+      <c r="N18" s="330"/>
+      <c r="O18" s="330"/>
+      <c r="P18" s="330"/>
+      <c r="Q18" s="331"/>
     </row>
     <row r="19" spans="1:17" ht="60" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="333"/>
-      <c r="C19" s="333"/>
-      <c r="D19" s="333"/>
-      <c r="E19" s="333"/>
-      <c r="F19" s="333"/>
-      <c r="G19" s="333"/>
-      <c r="H19" s="333"/>
-      <c r="I19" s="333"/>
-      <c r="J19" s="333"/>
-      <c r="K19" s="333"/>
-      <c r="L19" s="333"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="333"/>
-      <c r="O19" s="333"/>
-      <c r="P19" s="333"/>
-      <c r="Q19" s="334"/>
+      <c r="B19" s="330"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="330"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="330"/>
+      <c r="I19" s="330"/>
+      <c r="J19" s="330"/>
+      <c r="K19" s="330"/>
+      <c r="L19" s="330"/>
+      <c r="M19" s="330"/>
+      <c r="N19" s="330"/>
+      <c r="O19" s="330"/>
+      <c r="P19" s="330"/>
+      <c r="Q19" s="331"/>
     </row>
     <row r="20" spans="1:17" ht="60" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="333"/>
-      <c r="C20" s="333"/>
-      <c r="D20" s="333"/>
-      <c r="E20" s="333"/>
-      <c r="F20" s="333"/>
-      <c r="G20" s="333"/>
-      <c r="H20" s="333"/>
-      <c r="I20" s="333"/>
-      <c r="J20" s="333"/>
-      <c r="K20" s="333"/>
-      <c r="L20" s="333"/>
-      <c r="M20" s="333"/>
-      <c r="N20" s="333"/>
-      <c r="O20" s="333"/>
-      <c r="P20" s="333"/>
-      <c r="Q20" s="334"/>
+      <c r="B20" s="330"/>
+      <c r="C20" s="330"/>
+      <c r="D20" s="330"/>
+      <c r="E20" s="330"/>
+      <c r="F20" s="330"/>
+      <c r="G20" s="330"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="330"/>
+      <c r="J20" s="330"/>
+      <c r="K20" s="330"/>
+      <c r="L20" s="330"/>
+      <c r="M20" s="330"/>
+      <c r="N20" s="330"/>
+      <c r="O20" s="330"/>
+      <c r="P20" s="330"/>
+      <c r="Q20" s="331"/>
     </row>
     <row r="21" spans="1:17" ht="60" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="333"/>
-      <c r="C21" s="333"/>
-      <c r="D21" s="333"/>
-      <c r="E21" s="333"/>
-      <c r="F21" s="333"/>
-      <c r="G21" s="333"/>
-      <c r="H21" s="333"/>
-      <c r="I21" s="333"/>
-      <c r="J21" s="333"/>
-      <c r="K21" s="333"/>
-      <c r="L21" s="333"/>
-      <c r="M21" s="333"/>
-      <c r="N21" s="333"/>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
-      <c r="Q21" s="334"/>
+      <c r="B21" s="330"/>
+      <c r="C21" s="330"/>
+      <c r="D21" s="330"/>
+      <c r="E21" s="330"/>
+      <c r="F21" s="330"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="330"/>
+      <c r="J21" s="330"/>
+      <c r="K21" s="330"/>
+      <c r="L21" s="330"/>
+      <c r="M21" s="330"/>
+      <c r="N21" s="330"/>
+      <c r="O21" s="330"/>
+      <c r="P21" s="330"/>
+      <c r="Q21" s="331"/>
     </row>
     <row r="22" spans="1:17" ht="60" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="333"/>
-      <c r="C22" s="333"/>
-      <c r="D22" s="333"/>
-      <c r="E22" s="333"/>
-      <c r="F22" s="333"/>
-      <c r="G22" s="333"/>
-      <c r="H22" s="333"/>
-      <c r="I22" s="333"/>
-      <c r="J22" s="333"/>
-      <c r="K22" s="333"/>
-      <c r="L22" s="333"/>
-      <c r="M22" s="333"/>
-      <c r="N22" s="333"/>
-      <c r="O22" s="333"/>
-      <c r="P22" s="333"/>
-      <c r="Q22" s="334"/>
+      <c r="B22" s="330"/>
+      <c r="C22" s="330"/>
+      <c r="D22" s="330"/>
+      <c r="E22" s="330"/>
+      <c r="F22" s="330"/>
+      <c r="G22" s="330"/>
+      <c r="H22" s="330"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="330"/>
+      <c r="K22" s="330"/>
+      <c r="L22" s="330"/>
+      <c r="M22" s="330"/>
+      <c r="N22" s="330"/>
+      <c r="O22" s="330"/>
+      <c r="P22" s="330"/>
+      <c r="Q22" s="331"/>
     </row>
     <row r="23" spans="1:17" ht="60" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="333"/>
-      <c r="C23" s="333"/>
-      <c r="D23" s="333"/>
-      <c r="E23" s="333"/>
-      <c r="F23" s="333"/>
-      <c r="G23" s="333"/>
-      <c r="H23" s="333"/>
-      <c r="I23" s="333"/>
-      <c r="J23" s="333"/>
-      <c r="K23" s="333"/>
-      <c r="L23" s="333"/>
-      <c r="M23" s="333"/>
-      <c r="N23" s="333"/>
-      <c r="O23" s="333"/>
-      <c r="P23" s="333"/>
-      <c r="Q23" s="334"/>
+      <c r="B23" s="330"/>
+      <c r="C23" s="330"/>
+      <c r="D23" s="330"/>
+      <c r="E23" s="330"/>
+      <c r="F23" s="330"/>
+      <c r="G23" s="330"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="330"/>
+      <c r="J23" s="330"/>
+      <c r="K23" s="330"/>
+      <c r="L23" s="330"/>
+      <c r="M23" s="330"/>
+      <c r="N23" s="330"/>
+      <c r="O23" s="330"/>
+      <c r="P23" s="330"/>
+      <c r="Q23" s="331"/>
     </row>
     <row r="24" spans="1:17" ht="60" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="333"/>
-      <c r="C24" s="333"/>
-      <c r="D24" s="333"/>
-      <c r="E24" s="333"/>
-      <c r="F24" s="333"/>
-      <c r="G24" s="333"/>
-      <c r="H24" s="333"/>
-      <c r="I24" s="333"/>
-      <c r="J24" s="333"/>
-      <c r="K24" s="333"/>
-      <c r="L24" s="333"/>
-      <c r="M24" s="333"/>
-      <c r="N24" s="333"/>
-      <c r="O24" s="333"/>
-      <c r="P24" s="333"/>
-      <c r="Q24" s="334"/>
+      <c r="B24" s="330"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="330"/>
+      <c r="F24" s="330"/>
+      <c r="G24" s="330"/>
+      <c r="H24" s="330"/>
+      <c r="I24" s="330"/>
+      <c r="J24" s="330"/>
+      <c r="K24" s="330"/>
+      <c r="L24" s="330"/>
+      <c r="M24" s="330"/>
+      <c r="N24" s="330"/>
+      <c r="O24" s="330"/>
+      <c r="P24" s="330"/>
+      <c r="Q24" s="331"/>
     </row>
     <row r="25" spans="1:17" ht="60" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="333"/>
-      <c r="C25" s="333"/>
-      <c r="D25" s="333"/>
-      <c r="E25" s="333"/>
-      <c r="F25" s="333"/>
-      <c r="G25" s="333"/>
-      <c r="H25" s="333"/>
-      <c r="I25" s="333"/>
-      <c r="J25" s="333"/>
-      <c r="K25" s="333"/>
-      <c r="L25" s="333"/>
-      <c r="M25" s="333"/>
-      <c r="N25" s="333"/>
-      <c r="O25" s="333"/>
-      <c r="P25" s="333"/>
-      <c r="Q25" s="334"/>
+      <c r="B25" s="330"/>
+      <c r="C25" s="330"/>
+      <c r="D25" s="330"/>
+      <c r="E25" s="330"/>
+      <c r="F25" s="330"/>
+      <c r="G25" s="330"/>
+      <c r="H25" s="330"/>
+      <c r="I25" s="330"/>
+      <c r="J25" s="330"/>
+      <c r="K25" s="330"/>
+      <c r="L25" s="330"/>
+      <c r="M25" s="330"/>
+      <c r="N25" s="330"/>
+      <c r="O25" s="330"/>
+      <c r="P25" s="330"/>
+      <c r="Q25" s="331"/>
     </row>
     <row r="26" spans="1:17" ht="60" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="333"/>
-      <c r="C26" s="333"/>
-      <c r="D26" s="333"/>
-      <c r="E26" s="333"/>
-      <c r="F26" s="333"/>
-      <c r="G26" s="333"/>
-      <c r="H26" s="333"/>
-      <c r="I26" s="333"/>
-      <c r="J26" s="333"/>
-      <c r="K26" s="333"/>
-      <c r="L26" s="333"/>
-      <c r="M26" s="333"/>
-      <c r="N26" s="333"/>
-      <c r="O26" s="333"/>
-      <c r="P26" s="333"/>
-      <c r="Q26" s="334"/>
+      <c r="B26" s="330"/>
+      <c r="C26" s="330"/>
+      <c r="D26" s="330"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="330"/>
+      <c r="J26" s="330"/>
+      <c r="K26" s="330"/>
+      <c r="L26" s="330"/>
+      <c r="M26" s="330"/>
+      <c r="N26" s="330"/>
+      <c r="O26" s="330"/>
+      <c r="P26" s="330"/>
+      <c r="Q26" s="331"/>
     </row>
     <row r="27" spans="1:17" ht="60" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="333"/>
-      <c r="C27" s="333"/>
-      <c r="D27" s="333"/>
-      <c r="E27" s="333"/>
-      <c r="F27" s="333"/>
-      <c r="G27" s="333"/>
-      <c r="H27" s="333"/>
-      <c r="I27" s="333"/>
-      <c r="J27" s="333"/>
-      <c r="K27" s="333"/>
-      <c r="L27" s="333"/>
-      <c r="M27" s="333"/>
-      <c r="N27" s="333"/>
-      <c r="O27" s="333"/>
-      <c r="P27" s="333"/>
-      <c r="Q27" s="334"/>
+      <c r="B27" s="330"/>
+      <c r="C27" s="330"/>
+      <c r="D27" s="330"/>
+      <c r="E27" s="330"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="330"/>
+      <c r="H27" s="330"/>
+      <c r="I27" s="330"/>
+      <c r="J27" s="330"/>
+      <c r="K27" s="330"/>
+      <c r="L27" s="330"/>
+      <c r="M27" s="330"/>
+      <c r="N27" s="330"/>
+      <c r="O27" s="330"/>
+      <c r="P27" s="330"/>
+      <c r="Q27" s="331"/>
     </row>
     <row r="28" spans="1:17" ht="60" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="333"/>
-      <c r="C28" s="333"/>
-      <c r="D28" s="333"/>
-      <c r="E28" s="333"/>
-      <c r="F28" s="333"/>
-      <c r="G28" s="333"/>
-      <c r="H28" s="333"/>
-      <c r="I28" s="333"/>
-      <c r="J28" s="333"/>
-      <c r="K28" s="333"/>
-      <c r="L28" s="333"/>
-      <c r="M28" s="333"/>
-      <c r="N28" s="333"/>
-      <c r="O28" s="333"/>
-      <c r="P28" s="333"/>
-      <c r="Q28" s="334"/>
+      <c r="B28" s="330"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="330"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="330"/>
+      <c r="H28" s="330"/>
+      <c r="I28" s="330"/>
+      <c r="J28" s="330"/>
+      <c r="K28" s="330"/>
+      <c r="L28" s="330"/>
+      <c r="M28" s="330"/>
+      <c r="N28" s="330"/>
+      <c r="O28" s="330"/>
+      <c r="P28" s="330"/>
+      <c r="Q28" s="331"/>
     </row>
     <row r="29" spans="1:17" ht="60" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="333"/>
-      <c r="C29" s="333"/>
-      <c r="D29" s="333"/>
-      <c r="E29" s="333"/>
-      <c r="F29" s="333"/>
-      <c r="G29" s="333"/>
-      <c r="H29" s="333"/>
-      <c r="I29" s="333"/>
-      <c r="J29" s="333"/>
-      <c r="K29" s="333"/>
-      <c r="L29" s="333"/>
-      <c r="M29" s="333"/>
-      <c r="N29" s="333"/>
-      <c r="O29" s="333"/>
-      <c r="P29" s="333"/>
-      <c r="Q29" s="334"/>
+      <c r="B29" s="330"/>
+      <c r="C29" s="330"/>
+      <c r="D29" s="330"/>
+      <c r="E29" s="330"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="330"/>
+      <c r="J29" s="330"/>
+      <c r="K29" s="330"/>
+      <c r="L29" s="330"/>
+      <c r="M29" s="330"/>
+      <c r="N29" s="330"/>
+      <c r="O29" s="330"/>
+      <c r="P29" s="330"/>
+      <c r="Q29" s="331"/>
     </row>
     <row r="30" spans="1:17" ht="60" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="333"/>
-      <c r="C30" s="333"/>
-      <c r="D30" s="333"/>
-      <c r="E30" s="333"/>
-      <c r="F30" s="333"/>
-      <c r="G30" s="333"/>
-      <c r="H30" s="333"/>
-      <c r="I30" s="333"/>
-      <c r="J30" s="333"/>
-      <c r="K30" s="333"/>
-      <c r="L30" s="333"/>
-      <c r="M30" s="333"/>
-      <c r="N30" s="333"/>
-      <c r="O30" s="333"/>
-      <c r="P30" s="333"/>
-      <c r="Q30" s="334"/>
+      <c r="B30" s="330"/>
+      <c r="C30" s="330"/>
+      <c r="D30" s="330"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="330"/>
+      <c r="G30" s="330"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="330"/>
+      <c r="J30" s="330"/>
+      <c r="K30" s="330"/>
+      <c r="L30" s="330"/>
+      <c r="M30" s="330"/>
+      <c r="N30" s="330"/>
+      <c r="O30" s="330"/>
+      <c r="P30" s="330"/>
+      <c r="Q30" s="331"/>
     </row>
     <row r="31" spans="1:17" ht="60" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="333"/>
-      <c r="C31" s="333"/>
-      <c r="D31" s="333"/>
-      <c r="E31" s="333"/>
-      <c r="F31" s="333"/>
-      <c r="G31" s="333"/>
-      <c r="H31" s="333"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
-      <c r="K31" s="333"/>
-      <c r="L31" s="333"/>
-      <c r="M31" s="333"/>
-      <c r="N31" s="333"/>
-      <c r="O31" s="333"/>
-      <c r="P31" s="333"/>
-      <c r="Q31" s="334"/>
+      <c r="B31" s="330"/>
+      <c r="C31" s="330"/>
+      <c r="D31" s="330"/>
+      <c r="E31" s="330"/>
+      <c r="F31" s="330"/>
+      <c r="G31" s="330"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
+      <c r="K31" s="330"/>
+      <c r="L31" s="330"/>
+      <c r="M31" s="330"/>
+      <c r="N31" s="330"/>
+      <c r="O31" s="330"/>
+      <c r="P31" s="330"/>
+      <c r="Q31" s="331"/>
     </row>
     <row r="32" spans="1:17" ht="60" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="333"/>
-      <c r="C32" s="333"/>
-      <c r="D32" s="333"/>
-      <c r="E32" s="333"/>
-      <c r="F32" s="333"/>
-      <c r="G32" s="333"/>
-      <c r="H32" s="333"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
-      <c r="K32" s="333"/>
-      <c r="L32" s="333"/>
-      <c r="M32" s="333"/>
-      <c r="N32" s="333"/>
-      <c r="O32" s="333"/>
-      <c r="P32" s="333"/>
-      <c r="Q32" s="334"/>
+      <c r="B32" s="330"/>
+      <c r="C32" s="330"/>
+      <c r="D32" s="330"/>
+      <c r="E32" s="330"/>
+      <c r="F32" s="330"/>
+      <c r="G32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
+      <c r="K32" s="330"/>
+      <c r="L32" s="330"/>
+      <c r="M32" s="330"/>
+      <c r="N32" s="330"/>
+      <c r="O32" s="330"/>
+      <c r="P32" s="330"/>
+      <c r="Q32" s="331"/>
     </row>
     <row r="33" spans="1:17" ht="60" customHeight="1">
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="335"/>
-      <c r="C33" s="335"/>
-      <c r="D33" s="335"/>
-      <c r="E33" s="335"/>
-      <c r="F33" s="335"/>
-      <c r="G33" s="335"/>
-      <c r="H33" s="335"/>
-      <c r="I33" s="335"/>
-      <c r="J33" s="335"/>
-      <c r="K33" s="335"/>
-      <c r="L33" s="335"/>
-      <c r="M33" s="335"/>
-      <c r="N33" s="335"/>
-      <c r="O33" s="335"/>
-      <c r="P33" s="335"/>
-      <c r="Q33" s="336"/>
+      <c r="B33" s="332"/>
+      <c r="C33" s="332"/>
+      <c r="D33" s="332"/>
+      <c r="E33" s="332"/>
+      <c r="F33" s="332"/>
+      <c r="G33" s="332"/>
+      <c r="H33" s="332"/>
+      <c r="I33" s="332"/>
+      <c r="J33" s="332"/>
+      <c r="K33" s="332"/>
+      <c r="L33" s="332"/>
+      <c r="M33" s="332"/>
+      <c r="N33" s="332"/>
+      <c r="O33" s="332"/>
+      <c r="P33" s="332"/>
+      <c r="Q33" s="333"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:Q30"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="J31:Q31"/>
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="J32:Q32"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8435,12 +8435,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="AT1:AV1"/>
@@ -8451,9 +8445,16 @@
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8524,7 +8525,7 @@
       <c r="AI1" s="166"/>
     </row>
     <row r="2" spans="1:50" ht="15" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="247" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="251" t="s">
@@ -8593,7 +8594,7 @@
       <c r="AI2" s="167"/>
     </row>
     <row r="3" spans="1:50" ht="30.95" customHeight="1">
-      <c r="A3" s="237"/>
+      <c r="A3" s="248"/>
       <c r="B3" s="152" t="s">
         <v>92</v>
       </c>
@@ -8670,7 +8671,7 @@
       <c r="AI3" s="167"/>
     </row>
     <row r="4" spans="1:50" ht="15" customHeight="1">
-      <c r="A4" s="238"/>
+      <c r="A4" s="249"/>
       <c r="B4" s="154" t="s">
         <v>111</v>
       </c>
@@ -11325,167 +11326,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="262"/>
-      <c r="S1" s="262"/>
-      <c r="T1" s="262"/>
-      <c r="U1" s="262"/>
-      <c r="V1" s="262"/>
-      <c r="W1" s="262"/>
-      <c r="X1" s="262"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="268"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="271" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="269" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="264" t="s">
+      <c r="C2" s="269" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="263" t="s">
+      <c r="D2" s="264" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="263" t="s">
+      <c r="E2" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="263" t="s">
+      <c r="F2" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="263" t="s">
+      <c r="G2" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="263" t="s">
+      <c r="H2" s="264" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="264" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="263" t="s">
+      <c r="J2" s="264" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263" t="s">
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264" t="s">
         <v>136</v>
       </c>
-      <c r="P2" s="270" t="s">
+      <c r="P2" s="265" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="270" t="s">
+      <c r="Q2" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="264" t="s">
+      <c r="R2" s="269" t="s">
         <v>139</v>
       </c>
-      <c r="S2" s="264"/>
-      <c r="T2" s="264"/>
-      <c r="U2" s="264" t="s">
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269" t="s">
         <v>140</v>
       </c>
-      <c r="V2" s="264"/>
-      <c r="W2" s="264"/>
-      <c r="X2" s="265"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="270"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1">
-      <c r="A3" s="267"/>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269" t="s">
+      <c r="A3" s="272"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="269" t="s">
+      <c r="K3" s="263" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="269" t="s">
+      <c r="L3" s="263" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="269" t="s">
+      <c r="M3" s="263" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="269" t="s">
+      <c r="N3" s="263" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="269"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="268" t="s">
+      <c r="O3" s="263"/>
+      <c r="P3" s="266"/>
+      <c r="Q3" s="266"/>
+      <c r="R3" s="261" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="268" t="s">
+      <c r="S3" s="261" t="s">
         <v>146</v>
       </c>
-      <c r="T3" s="268" t="s">
+      <c r="T3" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="U3" s="268" t="s">
+      <c r="U3" s="261" t="s">
         <v>146</v>
       </c>
-      <c r="V3" s="268" t="s">
+      <c r="V3" s="261" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="268" t="s">
+      <c r="W3" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="X3" s="272" t="s">
+      <c r="X3" s="262" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1">
-      <c r="A4" s="267"/>
-      <c r="B4" s="268"/>
-      <c r="C4" s="268"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
-      <c r="M4" s="269"/>
-      <c r="N4" s="269"/>
-      <c r="O4" s="269"/>
-      <c r="P4" s="271"/>
-      <c r="Q4" s="271"/>
-      <c r="R4" s="268"/>
-      <c r="S4" s="268"/>
-      <c r="T4" s="268"/>
-      <c r="U4" s="268"/>
-      <c r="V4" s="268"/>
-      <c r="W4" s="268"/>
-      <c r="X4" s="272"/>
+      <c r="A4" s="272"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="266"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="261"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="262"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1">
-      <c r="A5" s="267"/>
+      <c r="A5" s="272"/>
       <c r="B5" s="105" t="s">
         <v>148</v>
       </c>
@@ -11534,9 +11535,9 @@
       <c r="Q5" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="R5" s="268"/>
-      <c r="S5" s="268"/>
-      <c r="T5" s="268"/>
+      <c r="R5" s="261"/>
+      <c r="S5" s="261"/>
+      <c r="T5" s="261"/>
       <c r="U5" s="105" t="s">
         <v>152</v>
       </c>
@@ -11546,7 +11547,7 @@
       <c r="W5" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="X5" s="272"/>
+      <c r="X5" s="262"/>
     </row>
     <row r="6" spans="1:24" s="102" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="107"/>
@@ -12640,18 +12641,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="R2:T2"/>
@@ -12668,6 +12657,18 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12680,7 +12681,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView topLeftCell="O2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12689,55 +12690,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="30" customHeight="1">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="281" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="273"/>
-      <c r="T1" s="273"/>
-      <c r="U1" s="273"/>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
-      <c r="X1" s="273"/>
-      <c r="Y1" s="273"/>
-      <c r="Z1" s="273"/>
-      <c r="AA1" s="273"/>
-      <c r="AB1" s="273"/>
-      <c r="AC1" s="273"/>
-      <c r="AD1" s="273"/>
-      <c r="AE1" s="273"/>
-      <c r="AF1" s="273"/>
-      <c r="AG1" s="273"/>
-      <c r="AH1" s="273"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
+      <c r="N1" s="281"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="281"/>
+      <c r="T1" s="281"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="281"/>
+      <c r="W1" s="281"/>
+      <c r="X1" s="281"/>
+      <c r="Y1" s="281"/>
+      <c r="Z1" s="281"/>
+      <c r="AA1" s="281"/>
+      <c r="AB1" s="281"/>
+      <c r="AC1" s="281"/>
+      <c r="AD1" s="281"/>
+      <c r="AE1" s="281"/>
+      <c r="AF1" s="281"/>
+      <c r="AG1" s="281"/>
+      <c r="AH1" s="281"/>
       <c r="AI1" s="88"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="279" t="s">
+      <c r="B2" s="277" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="279" t="s">
+      <c r="C2" s="277" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="279" t="s">
+      <c r="D2" s="277" t="s">
         <v>173</v>
       </c>
       <c r="E2" s="274" t="s">
@@ -12777,7 +12778,7 @@
       <c r="AA2" s="274" t="s">
         <v>180</v>
       </c>
-      <c r="AB2" s="279" t="s">
+      <c r="AB2" s="277" t="s">
         <v>181</v>
       </c>
       <c r="AC2" s="274" t="s">
@@ -12789,89 +12790,89 @@
       <c r="AG2" s="274" t="s">
         <v>183</v>
       </c>
-      <c r="AH2" s="283" t="s">
+      <c r="AH2" s="275" t="s">
         <v>184</v>
       </c>
       <c r="AI2" s="89"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="277"/>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="275" t="s">
+      <c r="A3" s="283"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="273" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
-      <c r="H3" s="275" t="s">
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="275"/>
-      <c r="J3" s="275"/>
-      <c r="K3" s="275" t="s">
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273" t="s">
         <v>187</v>
       </c>
-      <c r="L3" s="275" t="s">
+      <c r="L3" s="273" t="s">
         <v>188</v>
       </c>
-      <c r="M3" s="275" t="s">
+      <c r="M3" s="273" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="275"/>
-      <c r="O3" s="275"/>
-      <c r="P3" s="282" t="s">
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="280" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="282" t="s">
+      <c r="Q3" s="280" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="282" t="s">
+      <c r="R3" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="282" t="s">
+      <c r="S3" s="280" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="282" t="s">
+      <c r="T3" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="282" t="s">
+      <c r="U3" s="280" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="282" t="s">
+      <c r="V3" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="282" t="s">
+      <c r="W3" s="280" t="s">
         <v>192</v>
       </c>
-      <c r="X3" s="282" t="s">
+      <c r="X3" s="280" t="s">
         <v>193</v>
       </c>
-      <c r="Y3" s="275"/>
-      <c r="Z3" s="275"/>
-      <c r="AA3" s="275"/>
-      <c r="AB3" s="280"/>
-      <c r="AC3" s="275" t="s">
+      <c r="Y3" s="273"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="273"/>
+      <c r="AB3" s="278"/>
+      <c r="AC3" s="273" t="s">
         <v>194</v>
       </c>
-      <c r="AD3" s="275" t="s">
+      <c r="AD3" s="273" t="s">
         <v>195</v>
       </c>
-      <c r="AE3" s="275" t="s">
+      <c r="AE3" s="273" t="s">
         <v>196</v>
       </c>
-      <c r="AF3" s="275" t="s">
+      <c r="AF3" s="273" t="s">
         <v>197</v>
       </c>
-      <c r="AG3" s="275"/>
-      <c r="AH3" s="284"/>
+      <c r="AG3" s="273"/>
+      <c r="AH3" s="276"/>
       <c r="AI3" s="89"/>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1">
-      <c r="A4" s="277"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281"/>
-      <c r="D4" s="281"/>
+      <c r="A4" s="283"/>
+      <c r="B4" s="279"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="68" t="s">
         <v>198</v>
       </c>
@@ -12890,34 +12891,34 @@
       <c r="J4" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="275"/>
-      <c r="L4" s="275"/>
-      <c r="M4" s="275"/>
-      <c r="N4" s="275"/>
-      <c r="O4" s="275"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="282"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="282"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="275"/>
-      <c r="Z4" s="275"/>
-      <c r="AA4" s="275"/>
-      <c r="AB4" s="281"/>
-      <c r="AC4" s="275"/>
-      <c r="AD4" s="275"/>
-      <c r="AE4" s="275"/>
-      <c r="AF4" s="275"/>
-      <c r="AG4" s="275"/>
-      <c r="AH4" s="284"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="280"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="280"/>
+      <c r="S4" s="280"/>
+      <c r="T4" s="280"/>
+      <c r="U4" s="280"/>
+      <c r="V4" s="280"/>
+      <c r="W4" s="280"/>
+      <c r="X4" s="280"/>
+      <c r="Y4" s="273"/>
+      <c r="Z4" s="273"/>
+      <c r="AA4" s="273"/>
+      <c r="AB4" s="279"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="273"/>
+      <c r="AE4" s="273"/>
+      <c r="AF4" s="273"/>
+      <c r="AG4" s="273"/>
+      <c r="AH4" s="276"/>
       <c r="AI4" s="89"/>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1">
-      <c r="A5" s="278"/>
+      <c r="A5" s="284"/>
       <c r="B5" s="69" t="s">
         <v>149</v>
       </c>
@@ -13153,7 +13154,10 @@
         <v/>
       </c>
       <c r="AG7" s="94"/>
-      <c r="AH7" s="95"/>
+      <c r="AH7" s="95" t="str">
+        <f>IF(ISERROR(1000*AG7/(技术经济指标及操作参数!C9)),"",1000*AG7/(技术经济指标及操作参数!C9))</f>
+        <v/>
+      </c>
       <c r="AI7" s="96"/>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1">
@@ -13195,7 +13199,10 @@
         <v/>
       </c>
       <c r="AG8" s="94"/>
-      <c r="AH8" s="95"/>
+      <c r="AH8" s="95" t="str">
+        <f>IF(ISERROR(1000*AG8/(技术经济指标及操作参数!C10)),"",1000*AG8/(技术经济指标及操作参数!C10))</f>
+        <v/>
+      </c>
       <c r="AI8" s="96"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1">
@@ -13237,7 +13244,10 @@
         <v/>
       </c>
       <c r="AG9" s="94"/>
-      <c r="AH9" s="95"/>
+      <c r="AH9" s="95" t="str">
+        <f>IF(ISERROR(1000*AG9/(技术经济指标及操作参数!C11)),"",1000*AG9/(技术经济指标及操作参数!C11))</f>
+        <v/>
+      </c>
       <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1">
@@ -13279,7 +13289,10 @@
         <v/>
       </c>
       <c r="AG10" s="94"/>
-      <c r="AH10" s="95"/>
+      <c r="AH10" s="95" t="str">
+        <f>IF(ISERROR(1000*AG10/(技术经济指标及操作参数!C12)),"",1000*AG10/(技术经济指标及操作参数!C12))</f>
+        <v/>
+      </c>
       <c r="AI10" s="96"/>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1">
@@ -13321,7 +13334,10 @@
         <v/>
       </c>
       <c r="AG11" s="94"/>
-      <c r="AH11" s="95"/>
+      <c r="AH11" s="95" t="str">
+        <f>IF(ISERROR(1000*AG11/(技术经济指标及操作参数!C13)),"",1000*AG11/(技术经济指标及操作参数!C13))</f>
+        <v/>
+      </c>
       <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1">
@@ -13363,7 +13379,10 @@
         <v/>
       </c>
       <c r="AG12" s="94"/>
-      <c r="AH12" s="95"/>
+      <c r="AH12" s="95" t="str">
+        <f>IF(ISERROR(1000*AG12/(技术经济指标及操作参数!C14)),"",1000*AG12/(技术经济指标及操作参数!C14))</f>
+        <v/>
+      </c>
       <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1">
@@ -13405,7 +13424,10 @@
         <v/>
       </c>
       <c r="AG13" s="94"/>
-      <c r="AH13" s="95"/>
+      <c r="AH13" s="95" t="str">
+        <f>IF(ISERROR(1000*AG13/(技术经济指标及操作参数!C15)),"",1000*AG13/(技术经济指标及操作参数!C15))</f>
+        <v/>
+      </c>
       <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:35" ht="15" customHeight="1">
@@ -13447,7 +13469,10 @@
         <v/>
       </c>
       <c r="AG14" s="94"/>
-      <c r="AH14" s="95"/>
+      <c r="AH14" s="95" t="str">
+        <f>IF(ISERROR(1000*AG14/(技术经济指标及操作参数!C16)),"",1000*AG14/(技术经济指标及操作参数!C16))</f>
+        <v/>
+      </c>
       <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:35" ht="15" customHeight="1">
@@ -13489,7 +13514,10 @@
         <v/>
       </c>
       <c r="AG15" s="94"/>
-      <c r="AH15" s="95"/>
+      <c r="AH15" s="95" t="str">
+        <f>IF(ISERROR(1000*AG15/(技术经济指标及操作参数!C17)),"",1000*AG15/(技术经济指标及操作参数!C17))</f>
+        <v/>
+      </c>
       <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1">
@@ -13531,7 +13559,10 @@
         <v/>
       </c>
       <c r="AG16" s="94"/>
-      <c r="AH16" s="95"/>
+      <c r="AH16" s="95" t="str">
+        <f>IF(ISERROR(1000*AG16/(技术经济指标及操作参数!C18)),"",1000*AG16/(技术经济指标及操作参数!C18))</f>
+        <v/>
+      </c>
       <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
@@ -13659,7 +13690,7 @@
         <v/>
       </c>
       <c r="AF17" s="85" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISERROR(AVERAGE(AF7:AF16)),"",AVERAGE(AF7:AF16))</f>
         <v/>
       </c>
       <c r="AG17" s="97" t="str">
@@ -13711,7 +13742,10 @@
         <v/>
       </c>
       <c r="AG18" s="94"/>
-      <c r="AH18" s="95"/>
+      <c r="AH18" s="95" t="str">
+        <f>IF(ISERROR(1000*AG18/(技术经济指标及操作参数!C20)),"",1000*AG18/(技术经济指标及操作参数!C20))</f>
+        <v/>
+      </c>
       <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1">
@@ -13753,7 +13787,10 @@
         <v/>
       </c>
       <c r="AG19" s="94"/>
-      <c r="AH19" s="95"/>
+      <c r="AH19" s="95" t="str">
+        <f>IF(ISERROR(1000*AG19/(技术经济指标及操作参数!C21)),"",1000*AG19/(技术经济指标及操作参数!C21))</f>
+        <v/>
+      </c>
       <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
@@ -13795,7 +13832,10 @@
         <v/>
       </c>
       <c r="AG20" s="94"/>
-      <c r="AH20" s="95"/>
+      <c r="AH20" s="95" t="str">
+        <f>IF(ISERROR(1000*AG20/(技术经济指标及操作参数!C22)),"",1000*AG20/(技术经济指标及操作参数!C22))</f>
+        <v/>
+      </c>
       <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1">
@@ -13837,7 +13877,10 @@
         <v/>
       </c>
       <c r="AG21" s="94"/>
-      <c r="AH21" s="95"/>
+      <c r="AH21" s="95" t="str">
+        <f>IF(ISERROR(1000*AG21/(技术经济指标及操作参数!C23)),"",1000*AG21/(技术经济指标及操作参数!C23))</f>
+        <v/>
+      </c>
       <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1">
@@ -13879,7 +13922,10 @@
         <v/>
       </c>
       <c r="AG22" s="94"/>
-      <c r="AH22" s="95"/>
+      <c r="AH22" s="95" t="str">
+        <f>IF(ISERROR(1000*AG22/(技术经济指标及操作参数!C24)),"",1000*AG22/(技术经济指标及操作参数!C24))</f>
+        <v/>
+      </c>
       <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1">
@@ -13921,7 +13967,10 @@
         <v/>
       </c>
       <c r="AG23" s="94"/>
-      <c r="AH23" s="95"/>
+      <c r="AH23" s="95" t="str">
+        <f>IF(ISERROR(1000*AG23/(技术经济指标及操作参数!C25)),"",1000*AG23/(技术经济指标及操作参数!C25))</f>
+        <v/>
+      </c>
       <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
@@ -13963,7 +14012,10 @@
         <v/>
       </c>
       <c r="AG24" s="94"/>
-      <c r="AH24" s="95"/>
+      <c r="AH24" s="95" t="str">
+        <f>IF(ISERROR(1000*AG24/(技术经济指标及操作参数!C26)),"",1000*AG24/(技术经济指标及操作参数!C26))</f>
+        <v/>
+      </c>
       <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1">
@@ -14005,7 +14057,10 @@
         <v/>
       </c>
       <c r="AG25" s="94"/>
-      <c r="AH25" s="95"/>
+      <c r="AH25" s="95" t="str">
+        <f>IF(ISERROR(1000*AG25/(技术经济指标及操作参数!C27)),"",1000*AG25/(技术经济指标及操作参数!C27))</f>
+        <v/>
+      </c>
       <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1">
@@ -14047,7 +14102,10 @@
         <v/>
       </c>
       <c r="AG26" s="94"/>
-      <c r="AH26" s="95"/>
+      <c r="AH26" s="95" t="str">
+        <f>IF(ISERROR(1000*AG26/(技术经济指标及操作参数!C28)),"",1000*AG26/(技术经济指标及操作参数!C28))</f>
+        <v/>
+      </c>
       <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
@@ -14089,7 +14147,10 @@
         <v/>
       </c>
       <c r="AG27" s="94"/>
-      <c r="AH27" s="95"/>
+      <c r="AH27" s="95" t="str">
+        <f>IF(ISERROR(1000*AG27/(技术经济指标及操作参数!C29)),"",1000*AG27/(技术经济指标及操作参数!C29))</f>
+        <v/>
+      </c>
       <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1">
@@ -14269,7 +14330,10 @@
         <v/>
       </c>
       <c r="AG29" s="94"/>
-      <c r="AH29" s="95"/>
+      <c r="AH29" s="95" t="str">
+        <f>IF(ISERROR(1000*AG29/(技术经济指标及操作参数!C31)),"",1000*AG29/(技术经济指标及操作参数!C31))</f>
+        <v/>
+      </c>
       <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1">
@@ -14311,7 +14375,10 @@
         <v/>
       </c>
       <c r="AG30" s="94"/>
-      <c r="AH30" s="95"/>
+      <c r="AH30" s="95" t="str">
+        <f>IF(ISERROR(1000*AG30/(技术经济指标及操作参数!C32)),"",1000*AG30/(技术经济指标及操作参数!C32))</f>
+        <v/>
+      </c>
       <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
@@ -14353,7 +14420,10 @@
         <v/>
       </c>
       <c r="AG31" s="94"/>
-      <c r="AH31" s="95"/>
+      <c r="AH31" s="95" t="str">
+        <f>IF(ISERROR(1000*AG31/(技术经济指标及操作参数!C33)),"",1000*AG31/(技术经济指标及操作参数!C33))</f>
+        <v/>
+      </c>
       <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
@@ -14395,7 +14465,10 @@
         <v/>
       </c>
       <c r="AG32" s="94"/>
-      <c r="AH32" s="95"/>
+      <c r="AH32" s="95" t="str">
+        <f>IF(ISERROR(1000*AG32/(技术经济指标及操作参数!C34)),"",1000*AG32/(技术经济指标及操作参数!C34))</f>
+        <v/>
+      </c>
       <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1">
@@ -14437,7 +14510,10 @@
         <v/>
       </c>
       <c r="AG33" s="94"/>
-      <c r="AH33" s="95"/>
+      <c r="AH33" s="95" t="str">
+        <f>IF(ISERROR(1000*AG33/(技术经济指标及操作参数!C35)),"",1000*AG33/(技术经济指标及操作参数!C35))</f>
+        <v/>
+      </c>
       <c r="AI33" s="96"/>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1">
@@ -14479,7 +14555,10 @@
         <v/>
       </c>
       <c r="AG34" s="94"/>
-      <c r="AH34" s="95"/>
+      <c r="AH34" s="95" t="str">
+        <f>IF(ISERROR(1000*AG34/(技术经济指标及操作参数!C36)),"",1000*AG34/(技术经济指标及操作参数!C36))</f>
+        <v/>
+      </c>
       <c r="AI34" s="96"/>
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1">
@@ -14521,7 +14600,10 @@
         <v/>
       </c>
       <c r="AG35" s="94"/>
-      <c r="AH35" s="95"/>
+      <c r="AH35" s="95" t="str">
+        <f>IF(ISERROR(1000*AG35/(技术经济指标及操作参数!C37)),"",1000*AG35/(技术经济指标及操作参数!C37))</f>
+        <v/>
+      </c>
       <c r="AI35" s="96"/>
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1">
@@ -14563,7 +14645,10 @@
         <v/>
       </c>
       <c r="AG36" s="94"/>
-      <c r="AH36" s="95"/>
+      <c r="AH36" s="95" t="str">
+        <f>IF(ISERROR(1000*AG36/(技术经济指标及操作参数!C38)),"",1000*AG36/(技术经济指标及操作参数!C38))</f>
+        <v/>
+      </c>
       <c r="AI36" s="96"/>
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1">
@@ -14605,7 +14690,10 @@
         <v/>
       </c>
       <c r="AG37" s="94"/>
-      <c r="AH37" s="95"/>
+      <c r="AH37" s="95" t="str">
+        <f>IF(ISERROR(1000*AG37/(技术经济指标及操作参数!C39)),"",1000*AG37/(技术经济指标及操作参数!C39))</f>
+        <v/>
+      </c>
       <c r="AI37" s="96"/>
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1">
@@ -14647,7 +14735,10 @@
         <v/>
       </c>
       <c r="AG38" s="94"/>
-      <c r="AH38" s="95"/>
+      <c r="AH38" s="95" t="str">
+        <f>IF(ISERROR(1000*AG38/(技术经济指标及操作参数!C40)),"",1000*AG38/(技术经济指标及操作参数!C40))</f>
+        <v/>
+      </c>
       <c r="AI38" s="96"/>
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1">
@@ -14689,7 +14780,10 @@
         <v/>
       </c>
       <c r="AG39" s="94"/>
-      <c r="AH39" s="95"/>
+      <c r="AH39" s="95" t="str">
+        <f>IF(ISERROR(1000*AG39/(技术经济指标及操作参数!C41)),"",1000*AG39/(技术经济指标及操作参数!C41))</f>
+        <v/>
+      </c>
       <c r="AI39" s="96"/>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1">
@@ -14970,24 +15064,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG2:AG4"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="P2:X2"/>
@@ -15004,6 +15080,24 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15014,8 +15108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15026,18 +15120,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="298" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="285"/>
+      <c r="B1" s="298"/>
       <c r="C1" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="285" t="s">
+      <c r="D1" s="298" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
       <c r="G1" s="9">
         <v>4117</v>
       </c>
@@ -15050,257 +15144,257 @@
       <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="30" customHeight="1">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="299" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="287"/>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="287"/>
-      <c r="Q2" s="287"/>
-      <c r="R2" s="287"/>
-      <c r="S2" s="287"/>
-      <c r="T2" s="287"/>
-      <c r="U2" s="287"/>
-      <c r="V2" s="287"/>
-      <c r="W2" s="287"/>
-      <c r="X2" s="287"/>
-      <c r="Y2" s="287"/>
-      <c r="Z2" s="287"/>
-      <c r="AA2" s="287"/>
-      <c r="AB2" s="287"/>
-      <c r="AC2" s="287"/>
-      <c r="AD2" s="287"/>
-      <c r="AE2" s="287"/>
-      <c r="AF2" s="287"/>
-      <c r="AG2" s="287"/>
-      <c r="AH2" s="287"/>
-      <c r="AI2" s="287"/>
-      <c r="AJ2" s="287"/>
-      <c r="AK2" s="287"/>
-      <c r="AL2" s="287"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="300"/>
+      <c r="Q2" s="300"/>
+      <c r="R2" s="300"/>
+      <c r="S2" s="300"/>
+      <c r="T2" s="300"/>
+      <c r="U2" s="300"/>
+      <c r="V2" s="300"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="300"/>
+      <c r="Y2" s="300"/>
+      <c r="Z2" s="300"/>
+      <c r="AA2" s="300"/>
+      <c r="AB2" s="300"/>
+      <c r="AC2" s="300"/>
+      <c r="AD2" s="300"/>
+      <c r="AE2" s="300"/>
+      <c r="AF2" s="300"/>
+      <c r="AG2" s="300"/>
+      <c r="AH2" s="300"/>
+      <c r="AI2" s="300"/>
+      <c r="AJ2" s="300"/>
+      <c r="AK2" s="300"/>
+      <c r="AL2" s="300"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="290" t="s">
+      <c r="B3" s="295" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="288" t="s">
+      <c r="C3" s="301" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="289"/>
-      <c r="E3" s="290" t="s">
+      <c r="D3" s="302"/>
+      <c r="E3" s="295" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290" t="s">
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="295" t="s">
         <v>242</v>
       </c>
-      <c r="I3" s="290" t="s">
+      <c r="I3" s="295" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="290" t="s">
+      <c r="J3" s="295" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="290" t="s">
+      <c r="K3" s="295" t="s">
         <v>245</v>
       </c>
-      <c r="L3" s="290" t="s">
+      <c r="L3" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="M3" s="294" t="s">
+      <c r="M3" s="296" t="s">
         <v>247</v>
       </c>
-      <c r="N3" s="290" t="s">
+      <c r="N3" s="295" t="s">
         <v>248</v>
       </c>
-      <c r="O3" s="290" t="s">
+      <c r="O3" s="295" t="s">
         <v>249</v>
       </c>
-      <c r="P3" s="290"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="290" t="s">
+      <c r="P3" s="295"/>
+      <c r="Q3" s="295"/>
+      <c r="R3" s="295" t="s">
         <v>250</v>
       </c>
-      <c r="S3" s="294" t="s">
+      <c r="S3" s="296" t="s">
         <v>251</v>
       </c>
-      <c r="T3" s="296" t="s">
+      <c r="T3" s="290" t="s">
         <v>252</v>
       </c>
-      <c r="U3" s="298" t="s">
+      <c r="U3" s="285" t="s">
         <v>253</v>
       </c>
-      <c r="V3" s="298" t="s">
+      <c r="V3" s="285" t="s">
         <v>254</v>
       </c>
-      <c r="W3" s="299" t="s">
+      <c r="W3" s="292" t="s">
         <v>255</v>
       </c>
-      <c r="X3" s="296" t="s">
+      <c r="X3" s="290" t="s">
         <v>256</v>
       </c>
-      <c r="Y3" s="296" t="s">
+      <c r="Y3" s="290" t="s">
         <v>257</v>
       </c>
-      <c r="Z3" s="296" t="s">
+      <c r="Z3" s="290" t="s">
         <v>258</v>
       </c>
-      <c r="AA3" s="296" t="s">
+      <c r="AA3" s="290" t="s">
         <v>259</v>
       </c>
-      <c r="AB3" s="296" t="s">
+      <c r="AB3" s="290" t="s">
         <v>260</v>
       </c>
-      <c r="AC3" s="296" t="s">
+      <c r="AC3" s="290" t="s">
         <v>261</v>
       </c>
-      <c r="AD3" s="296" t="s">
+      <c r="AD3" s="290" t="s">
         <v>262</v>
       </c>
-      <c r="AE3" s="296" t="s">
+      <c r="AE3" s="290" t="s">
         <v>263</v>
       </c>
-      <c r="AF3" s="301" t="s">
+      <c r="AF3" s="286" t="s">
         <v>264</v>
       </c>
-      <c r="AG3" s="301" t="s">
+      <c r="AG3" s="286" t="s">
         <v>265</v>
       </c>
-      <c r="AH3" s="298" t="s">
+      <c r="AH3" s="285" t="s">
         <v>266</v>
       </c>
-      <c r="AI3" s="298" t="s">
+      <c r="AI3" s="285" t="s">
         <v>267</v>
       </c>
-      <c r="AJ3" s="298" t="s">
+      <c r="AJ3" s="285" t="s">
         <v>268</v>
       </c>
-      <c r="AK3" s="301" t="s">
+      <c r="AK3" s="286" t="s">
         <v>269</v>
       </c>
-      <c r="AL3" s="302" t="s">
+      <c r="AL3" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="AM3" s="304"/>
-      <c r="AN3" s="304"/>
+      <c r="AM3" s="289"/>
+      <c r="AN3" s="289"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1">
-      <c r="A4" s="292"/>
-      <c r="B4" s="293"/>
-      <c r="C4" s="293" t="s">
+      <c r="A4" s="304"/>
+      <c r="B4" s="294"/>
+      <c r="C4" s="294" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="293" t="s">
+      <c r="D4" s="294" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="293" t="s">
+      <c r="E4" s="294" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="293" t="s">
+      <c r="F4" s="294" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="293" t="s">
+      <c r="G4" s="294" t="s">
         <v>275</v>
       </c>
-      <c r="H4" s="293"/>
-      <c r="I4" s="293"/>
-      <c r="J4" s="293"/>
-      <c r="K4" s="293"/>
-      <c r="L4" s="293"/>
-      <c r="M4" s="295"/>
-      <c r="N4" s="293"/>
-      <c r="O4" s="293" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="294"/>
+      <c r="J4" s="294"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="294"/>
+      <c r="O4" s="294" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="293" t="s">
+      <c r="P4" s="294" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="293" t="s">
+      <c r="Q4" s="294" t="s">
         <v>276</v>
       </c>
-      <c r="R4" s="293"/>
-      <c r="S4" s="295"/>
-      <c r="T4" s="297"/>
-      <c r="U4" s="246"/>
-      <c r="V4" s="246"/>
-      <c r="W4" s="300"/>
-      <c r="X4" s="297"/>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="297"/>
-      <c r="AC4" s="297"/>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="246"/>
-      <c r="AG4" s="246"/>
-      <c r="AH4" s="246"/>
-      <c r="AI4" s="246"/>
-      <c r="AJ4" s="246"/>
-      <c r="AK4" s="246"/>
-      <c r="AL4" s="303"/>
-      <c r="AM4" s="304"/>
-      <c r="AN4" s="304"/>
+      <c r="R4" s="294"/>
+      <c r="S4" s="297"/>
+      <c r="T4" s="291"/>
+      <c r="U4" s="234"/>
+      <c r="V4" s="234"/>
+      <c r="W4" s="293"/>
+      <c r="X4" s="291"/>
+      <c r="Y4" s="291"/>
+      <c r="Z4" s="291"/>
+      <c r="AA4" s="291"/>
+      <c r="AB4" s="291"/>
+      <c r="AC4" s="291"/>
+      <c r="AD4" s="291"/>
+      <c r="AE4" s="291"/>
+      <c r="AF4" s="234"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="234"/>
+      <c r="AI4" s="234"/>
+      <c r="AJ4" s="234"/>
+      <c r="AK4" s="234"/>
+      <c r="AL4" s="288"/>
+      <c r="AM4" s="289"/>
+      <c r="AN4" s="289"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="292"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
-      <c r="J5" s="293"/>
-      <c r="K5" s="293"/>
-      <c r="L5" s="293"/>
-      <c r="M5" s="295"/>
-      <c r="N5" s="293"/>
-      <c r="O5" s="293"/>
-      <c r="P5" s="293"/>
-      <c r="Q5" s="293"/>
-      <c r="R5" s="293"/>
-      <c r="S5" s="295"/>
-      <c r="T5" s="297"/>
-      <c r="U5" s="246"/>
-      <c r="V5" s="246"/>
-      <c r="W5" s="300"/>
-      <c r="X5" s="297"/>
-      <c r="Y5" s="297"/>
-      <c r="Z5" s="297"/>
-      <c r="AA5" s="297"/>
-      <c r="AB5" s="297"/>
-      <c r="AC5" s="297"/>
-      <c r="AD5" s="297"/>
-      <c r="AE5" s="297"/>
-      <c r="AF5" s="246"/>
-      <c r="AG5" s="246"/>
-      <c r="AH5" s="246"/>
-      <c r="AI5" s="246"/>
-      <c r="AJ5" s="246"/>
-      <c r="AK5" s="246"/>
-      <c r="AL5" s="303"/>
-      <c r="AM5" s="304"/>
-      <c r="AN5" s="304"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="294"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="294"/>
+      <c r="H5" s="294"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="294"/>
+      <c r="L5" s="294"/>
+      <c r="M5" s="297"/>
+      <c r="N5" s="294"/>
+      <c r="O5" s="294"/>
+      <c r="P5" s="294"/>
+      <c r="Q5" s="294"/>
+      <c r="R5" s="294"/>
+      <c r="S5" s="297"/>
+      <c r="T5" s="291"/>
+      <c r="U5" s="234"/>
+      <c r="V5" s="234"/>
+      <c r="W5" s="293"/>
+      <c r="X5" s="291"/>
+      <c r="Y5" s="291"/>
+      <c r="Z5" s="291"/>
+      <c r="AA5" s="291"/>
+      <c r="AB5" s="291"/>
+      <c r="AC5" s="291"/>
+      <c r="AD5" s="291"/>
+      <c r="AE5" s="291"/>
+      <c r="AF5" s="234"/>
+      <c r="AG5" s="234"/>
+      <c r="AH5" s="234"/>
+      <c r="AI5" s="234"/>
+      <c r="AJ5" s="234"/>
+      <c r="AK5" s="234"/>
+      <c r="AL5" s="288"/>
+      <c r="AM5" s="289"/>
+      <c r="AN5" s="289"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
-      <c r="A6" s="292"/>
+      <c r="A6" s="304"/>
       <c r="B6" s="11" t="s">
         <v>201</v>
       </c>
@@ -18183,36 +18277,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:AL2"/>
@@ -18229,6 +18293,36 @@
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AN3:AN5"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18291,60 +18385,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="27">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="281" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="273"/>
-      <c r="T1" s="273"/>
-      <c r="U1" s="273"/>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
-      <c r="X1" s="273"/>
-      <c r="Y1" s="273"/>
-      <c r="Z1" s="273"/>
-      <c r="AA1" s="273"/>
-      <c r="AB1" s="273"/>
-      <c r="AC1" s="273"/>
-      <c r="AD1" s="273"/>
-      <c r="AE1" s="273"/>
-      <c r="AF1" s="273"/>
-      <c r="AG1" s="273"/>
-      <c r="AH1" s="273"/>
-      <c r="AI1" s="273"/>
-      <c r="AJ1" s="273"/>
-      <c r="AK1" s="273"/>
-      <c r="AL1" s="273"/>
-      <c r="AM1" s="273"/>
-      <c r="AN1" s="273"/>
-      <c r="AO1" s="273"/>
-      <c r="AP1" s="273"/>
-      <c r="AQ1" s="273"/>
-      <c r="AR1" s="273"/>
-      <c r="AS1" s="273"/>
-      <c r="AT1" s="273"/>
-      <c r="AU1" s="273"/>
-      <c r="AV1" s="273"/>
-      <c r="AW1" s="273"/>
-      <c r="AX1" s="273"/>
-      <c r="AY1" s="273"/>
-      <c r="AZ1" s="273"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
+      <c r="N1" s="281"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="281"/>
+      <c r="T1" s="281"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="281"/>
+      <c r="W1" s="281"/>
+      <c r="X1" s="281"/>
+      <c r="Y1" s="281"/>
+      <c r="Z1" s="281"/>
+      <c r="AA1" s="281"/>
+      <c r="AB1" s="281"/>
+      <c r="AC1" s="281"/>
+      <c r="AD1" s="281"/>
+      <c r="AE1" s="281"/>
+      <c r="AF1" s="281"/>
+      <c r="AG1" s="281"/>
+      <c r="AH1" s="281"/>
+      <c r="AI1" s="281"/>
+      <c r="AJ1" s="281"/>
+      <c r="AK1" s="281"/>
+      <c r="AL1" s="281"/>
+      <c r="AM1" s="281"/>
+      <c r="AN1" s="281"/>
+      <c r="AO1" s="281"/>
+      <c r="AP1" s="281"/>
+      <c r="AQ1" s="281"/>
+      <c r="AR1" s="281"/>
+      <c r="AS1" s="281"/>
+      <c r="AT1" s="281"/>
+      <c r="AU1" s="281"/>
+      <c r="AV1" s="281"/>
+      <c r="AW1" s="281"/>
+      <c r="AX1" s="281"/>
+      <c r="AY1" s="281"/>
+      <c r="AZ1" s="281"/>
     </row>
     <row r="2" spans="1:52" ht="15" customHeight="1">
       <c r="A2" s="310" t="s">
@@ -26125,6 +26219,10 @@
     <protectedRange sqref="AL40:AW40" name="区域17_1_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AW3"/>
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="A2:A5"/>
@@ -26141,10 +26239,6 @@
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC3:AE3"/>
     <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26165,424 +26259,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="30" customHeight="1">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="281" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="319"/>
-      <c r="P1" s="319"/>
-      <c r="Q1" s="319"/>
-      <c r="R1" s="319"/>
-      <c r="S1" s="319"/>
-      <c r="T1" s="319"/>
-      <c r="U1" s="319"/>
-      <c r="V1" s="319"/>
-      <c r="W1" s="319"/>
-      <c r="X1" s="319"/>
-      <c r="Y1" s="319"/>
-      <c r="Z1" s="319"/>
-      <c r="AA1" s="319"/>
-      <c r="AB1" s="319"/>
-      <c r="AC1" s="319"/>
-      <c r="AD1" s="319"/>
-      <c r="AE1" s="319"/>
-      <c r="AF1" s="319"/>
-      <c r="AG1" s="319"/>
-      <c r="AH1" s="319"/>
-      <c r="AI1" s="319"/>
-      <c r="AJ1" s="319"/>
-      <c r="AK1" s="319"/>
-      <c r="AL1" s="319"/>
-      <c r="AM1" s="319"/>
-      <c r="AN1" s="319"/>
-      <c r="AO1" s="319"/>
-      <c r="AP1" s="319"/>
-      <c r="AQ1" s="319"/>
-      <c r="AR1" s="319"/>
-      <c r="AS1" s="319"/>
-      <c r="AT1" s="319"/>
-      <c r="AU1" s="319"/>
-      <c r="AV1" s="319"/>
-      <c r="AW1" s="319"/>
-      <c r="AX1" s="319"/>
-      <c r="AY1" s="319"/>
-      <c r="AZ1" s="319"/>
-      <c r="BA1" s="319"/>
-      <c r="BB1" s="319"/>
-      <c r="BC1" s="319"/>
-      <c r="BD1" s="319"/>
-      <c r="BE1" s="319"/>
-      <c r="BF1" s="319"/>
-      <c r="BG1" s="319"/>
-      <c r="BH1" s="319"/>
-      <c r="BI1" s="319"/>
-      <c r="BJ1" s="319"/>
-      <c r="BK1" s="319"/>
-      <c r="BL1" s="319"/>
-      <c r="BM1" s="319"/>
-      <c r="BN1" s="319"/>
-      <c r="BO1" s="319"/>
-      <c r="BP1" s="319"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
+      <c r="R1" s="323"/>
+      <c r="S1" s="323"/>
+      <c r="T1" s="323"/>
+      <c r="U1" s="323"/>
+      <c r="V1" s="323"/>
+      <c r="W1" s="323"/>
+      <c r="X1" s="323"/>
+      <c r="Y1" s="323"/>
+      <c r="Z1" s="323"/>
+      <c r="AA1" s="323"/>
+      <c r="AB1" s="323"/>
+      <c r="AC1" s="323"/>
+      <c r="AD1" s="323"/>
+      <c r="AE1" s="323"/>
+      <c r="AF1" s="323"/>
+      <c r="AG1" s="323"/>
+      <c r="AH1" s="323"/>
+      <c r="AI1" s="323"/>
+      <c r="AJ1" s="323"/>
+      <c r="AK1" s="323"/>
+      <c r="AL1" s="323"/>
+      <c r="AM1" s="323"/>
+      <c r="AN1" s="323"/>
+      <c r="AO1" s="323"/>
+      <c r="AP1" s="323"/>
+      <c r="AQ1" s="323"/>
+      <c r="AR1" s="323"/>
+      <c r="AS1" s="323"/>
+      <c r="AT1" s="323"/>
+      <c r="AU1" s="323"/>
+      <c r="AV1" s="323"/>
+      <c r="AW1" s="323"/>
+      <c r="AX1" s="323"/>
+      <c r="AY1" s="323"/>
+      <c r="AZ1" s="323"/>
+      <c r="BA1" s="323"/>
+      <c r="BB1" s="323"/>
+      <c r="BC1" s="323"/>
+      <c r="BD1" s="323"/>
+      <c r="BE1" s="323"/>
+      <c r="BF1" s="323"/>
+      <c r="BG1" s="323"/>
+      <c r="BH1" s="323"/>
+      <c r="BI1" s="323"/>
+      <c r="BJ1" s="323"/>
+      <c r="BK1" s="323"/>
+      <c r="BL1" s="323"/>
+      <c r="BM1" s="323"/>
+      <c r="BN1" s="323"/>
+      <c r="BO1" s="323"/>
+      <c r="BP1" s="323"/>
     </row>
     <row r="2" spans="1:68" ht="18.75" customHeight="1">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="320" t="s">
+      <c r="B2" s="324" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="320"/>
-      <c r="Q2" s="320"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="320"/>
-      <c r="T2" s="320"/>
-      <c r="U2" s="320"/>
-      <c r="V2" s="320"/>
-      <c r="W2" s="320"/>
-      <c r="X2" s="320"/>
-      <c r="Y2" s="320"/>
-      <c r="Z2" s="320"/>
-      <c r="AA2" s="320"/>
-      <c r="AB2" s="320"/>
-      <c r="AC2" s="320"/>
-      <c r="AD2" s="320"/>
-      <c r="AE2" s="320"/>
-      <c r="AF2" s="320"/>
-      <c r="AG2" s="320"/>
-      <c r="AH2" s="320"/>
-      <c r="AI2" s="320"/>
-      <c r="AJ2" s="320"/>
-      <c r="AK2" s="321"/>
-      <c r="AL2" s="321"/>
-      <c r="AM2" s="321"/>
-      <c r="AN2" s="321"/>
-      <c r="AO2" s="321"/>
-      <c r="AP2" s="321"/>
-      <c r="AQ2" s="321"/>
-      <c r="AR2" s="321"/>
-      <c r="AS2" s="321"/>
-      <c r="AT2" s="321"/>
-      <c r="AU2" s="321"/>
-      <c r="AV2" s="321"/>
-      <c r="AW2" s="321"/>
-      <c r="AX2" s="321"/>
-      <c r="AY2" s="321"/>
-      <c r="AZ2" s="321"/>
-      <c r="BA2" s="321"/>
-      <c r="BB2" s="321"/>
-      <c r="BC2" s="321"/>
-      <c r="BD2" s="321"/>
-      <c r="BE2" s="321"/>
-      <c r="BF2" s="321"/>
-      <c r="BG2" s="321"/>
-      <c r="BH2" s="321"/>
-      <c r="BI2" s="321"/>
-      <c r="BJ2" s="321"/>
-      <c r="BK2" s="321"/>
-      <c r="BL2" s="321"/>
-      <c r="BM2" s="321"/>
-      <c r="BN2" s="321"/>
-      <c r="BO2" s="321"/>
-      <c r="BP2" s="322"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="324"/>
+      <c r="S2" s="324"/>
+      <c r="T2" s="324"/>
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="324"/>
+      <c r="AA2" s="324"/>
+      <c r="AB2" s="324"/>
+      <c r="AC2" s="324"/>
+      <c r="AD2" s="324"/>
+      <c r="AE2" s="324"/>
+      <c r="AF2" s="324"/>
+      <c r="AG2" s="324"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="324"/>
+      <c r="AJ2" s="324"/>
+      <c r="AK2" s="325"/>
+      <c r="AL2" s="325"/>
+      <c r="AM2" s="325"/>
+      <c r="AN2" s="325"/>
+      <c r="AO2" s="325"/>
+      <c r="AP2" s="325"/>
+      <c r="AQ2" s="325"/>
+      <c r="AR2" s="325"/>
+      <c r="AS2" s="325"/>
+      <c r="AT2" s="325"/>
+      <c r="AU2" s="325"/>
+      <c r="AV2" s="325"/>
+      <c r="AW2" s="325"/>
+      <c r="AX2" s="325"/>
+      <c r="AY2" s="325"/>
+      <c r="AZ2" s="325"/>
+      <c r="BA2" s="325"/>
+      <c r="BB2" s="325"/>
+      <c r="BC2" s="325"/>
+      <c r="BD2" s="325"/>
+      <c r="BE2" s="325"/>
+      <c r="BF2" s="325"/>
+      <c r="BG2" s="325"/>
+      <c r="BH2" s="325"/>
+      <c r="BI2" s="325"/>
+      <c r="BJ2" s="325"/>
+      <c r="BK2" s="325"/>
+      <c r="BL2" s="325"/>
+      <c r="BM2" s="325"/>
+      <c r="BN2" s="325"/>
+      <c r="BO2" s="325"/>
+      <c r="BP2" s="326"/>
     </row>
     <row r="3" spans="1:68" ht="13.5" customHeight="1">
-      <c r="A3" s="324"/>
-      <c r="B3" s="326">
+      <c r="A3" s="328"/>
+      <c r="B3" s="321">
         <v>1</v>
       </c>
-      <c r="C3" s="326">
+      <c r="C3" s="321">
         <v>2</v>
       </c>
-      <c r="D3" s="326">
+      <c r="D3" s="321">
         <v>3</v>
       </c>
-      <c r="E3" s="326">
+      <c r="E3" s="321">
         <v>4</v>
       </c>
-      <c r="F3" s="326">
+      <c r="F3" s="321">
         <v>5</v>
       </c>
-      <c r="G3" s="326">
+      <c r="G3" s="321">
         <v>6</v>
       </c>
-      <c r="H3" s="326">
+      <c r="H3" s="321">
         <v>7</v>
       </c>
-      <c r="I3" s="326">
+      <c r="I3" s="321">
         <v>8</v>
       </c>
-      <c r="J3" s="326">
+      <c r="J3" s="321">
         <v>9</v>
       </c>
-      <c r="K3" s="326">
+      <c r="K3" s="321">
         <v>10</v>
       </c>
-      <c r="L3" s="326">
+      <c r="L3" s="321">
         <v>11</v>
       </c>
-      <c r="M3" s="326">
+      <c r="M3" s="321">
         <v>12</v>
       </c>
-      <c r="N3" s="326">
+      <c r="N3" s="321">
         <v>13</v>
       </c>
-      <c r="O3" s="326">
+      <c r="O3" s="321">
         <v>14</v>
       </c>
-      <c r="P3" s="326">
+      <c r="P3" s="321">
         <v>15</v>
       </c>
-      <c r="Q3" s="326">
+      <c r="Q3" s="321">
         <v>16</v>
       </c>
-      <c r="R3" s="326">
+      <c r="R3" s="321">
         <v>17</v>
       </c>
-      <c r="S3" s="326">
+      <c r="S3" s="321">
         <v>18</v>
       </c>
-      <c r="T3" s="326">
+      <c r="T3" s="321">
         <v>19</v>
       </c>
-      <c r="U3" s="326">
+      <c r="U3" s="321">
         <v>20</v>
       </c>
-      <c r="V3" s="326">
+      <c r="V3" s="321">
         <v>21</v>
       </c>
-      <c r="W3" s="326">
+      <c r="W3" s="321">
         <v>22</v>
       </c>
-      <c r="X3" s="326">
+      <c r="X3" s="321">
         <v>23</v>
       </c>
-      <c r="Y3" s="326">
+      <c r="Y3" s="321">
         <v>24</v>
       </c>
-      <c r="Z3" s="326">
+      <c r="Z3" s="321">
         <v>25</v>
       </c>
-      <c r="AA3" s="326">
+      <c r="AA3" s="321">
         <v>26</v>
       </c>
-      <c r="AB3" s="326">
+      <c r="AB3" s="321">
         <v>27</v>
       </c>
-      <c r="AC3" s="326">
+      <c r="AC3" s="321">
         <v>28</v>
       </c>
-      <c r="AD3" s="326">
+      <c r="AD3" s="321">
         <v>29</v>
       </c>
-      <c r="AE3" s="326">
+      <c r="AE3" s="321">
         <v>30</v>
       </c>
-      <c r="AF3" s="326">
+      <c r="AF3" s="321">
         <v>31</v>
       </c>
-      <c r="AG3" s="326">
+      <c r="AG3" s="321">
         <v>32</v>
       </c>
-      <c r="AH3" s="326">
+      <c r="AH3" s="321">
         <v>33</v>
       </c>
-      <c r="AI3" s="326">
+      <c r="AI3" s="321">
         <v>34</v>
       </c>
-      <c r="AJ3" s="326">
+      <c r="AJ3" s="321">
         <v>35</v>
       </c>
-      <c r="AK3" s="326">
+      <c r="AK3" s="321">
         <v>36</v>
       </c>
-      <c r="AL3" s="326">
+      <c r="AL3" s="321">
         <v>37</v>
       </c>
-      <c r="AM3" s="326">
+      <c r="AM3" s="321">
         <v>38</v>
       </c>
-      <c r="AN3" s="326">
+      <c r="AN3" s="321">
         <v>39</v>
       </c>
-      <c r="AO3" s="326">
+      <c r="AO3" s="321">
         <v>40</v>
       </c>
-      <c r="AP3" s="326">
+      <c r="AP3" s="321">
         <v>41</v>
       </c>
-      <c r="AQ3" s="326">
+      <c r="AQ3" s="321">
         <v>42</v>
       </c>
-      <c r="AR3" s="326">
+      <c r="AR3" s="321">
         <v>43</v>
       </c>
-      <c r="AS3" s="326">
+      <c r="AS3" s="321">
         <v>44</v>
       </c>
-      <c r="AT3" s="326">
+      <c r="AT3" s="321">
         <v>45</v>
       </c>
-      <c r="AU3" s="326">
+      <c r="AU3" s="321">
         <v>46</v>
       </c>
-      <c r="AV3" s="326">
+      <c r="AV3" s="321">
         <v>47</v>
       </c>
-      <c r="AW3" s="326">
+      <c r="AW3" s="321">
         <v>48</v>
       </c>
-      <c r="AX3" s="326">
+      <c r="AX3" s="321">
         <v>49</v>
       </c>
-      <c r="AY3" s="326">
+      <c r="AY3" s="321">
         <v>50</v>
       </c>
-      <c r="AZ3" s="326">
+      <c r="AZ3" s="321">
         <v>51</v>
       </c>
-      <c r="BA3" s="326">
+      <c r="BA3" s="321">
         <v>52</v>
       </c>
-      <c r="BB3" s="326">
+      <c r="BB3" s="321">
         <v>53</v>
       </c>
-      <c r="BC3" s="326">
+      <c r="BC3" s="321">
         <v>54</v>
       </c>
-      <c r="BD3" s="326">
+      <c r="BD3" s="321">
         <v>55</v>
       </c>
-      <c r="BE3" s="326">
+      <c r="BE3" s="321">
         <v>56</v>
       </c>
-      <c r="BF3" s="326">
+      <c r="BF3" s="321">
         <v>57</v>
       </c>
-      <c r="BG3" s="326">
+      <c r="BG3" s="321">
         <v>58</v>
       </c>
-      <c r="BH3" s="326">
+      <c r="BH3" s="321">
         <v>59</v>
       </c>
-      <c r="BI3" s="326">
+      <c r="BI3" s="321">
         <v>60</v>
       </c>
-      <c r="BJ3" s="326">
+      <c r="BJ3" s="321">
         <v>61</v>
       </c>
-      <c r="BK3" s="326">
+      <c r="BK3" s="321">
         <v>62</v>
       </c>
-      <c r="BL3" s="326">
+      <c r="BL3" s="321">
         <v>63</v>
       </c>
-      <c r="BM3" s="328">
+      <c r="BM3" s="319">
         <v>64</v>
       </c>
-      <c r="BN3" s="328">
+      <c r="BN3" s="319">
         <v>65</v>
       </c>
-      <c r="BO3" s="328">
+      <c r="BO3" s="319">
         <v>66</v>
       </c>
-      <c r="BP3" s="329" t="s">
+      <c r="BP3" s="320" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:68" ht="13.5" customHeight="1">
-      <c r="A4" s="325"/>
-      <c r="B4" s="327"/>
-      <c r="C4" s="327"/>
-      <c r="D4" s="327"/>
-      <c r="E4" s="327"/>
-      <c r="F4" s="327"/>
-      <c r="G4" s="327"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="327"/>
-      <c r="K4" s="327"/>
-      <c r="L4" s="327"/>
-      <c r="M4" s="327"/>
-      <c r="N4" s="327"/>
-      <c r="O4" s="327"/>
-      <c r="P4" s="327"/>
-      <c r="Q4" s="327"/>
-      <c r="R4" s="327"/>
-      <c r="S4" s="327"/>
-      <c r="T4" s="327"/>
-      <c r="U4" s="327"/>
-      <c r="V4" s="327"/>
-      <c r="W4" s="327"/>
-      <c r="X4" s="327"/>
-      <c r="Y4" s="327"/>
-      <c r="Z4" s="327"/>
-      <c r="AA4" s="327"/>
-      <c r="AB4" s="327"/>
-      <c r="AC4" s="327"/>
-      <c r="AD4" s="327"/>
-      <c r="AE4" s="327"/>
-      <c r="AF4" s="327"/>
-      <c r="AG4" s="327"/>
-      <c r="AH4" s="327"/>
-      <c r="AI4" s="327"/>
-      <c r="AJ4" s="327"/>
-      <c r="AK4" s="327"/>
-      <c r="AL4" s="327"/>
-      <c r="AM4" s="327"/>
-      <c r="AN4" s="327"/>
-      <c r="AO4" s="327"/>
-      <c r="AP4" s="327"/>
-      <c r="AQ4" s="327"/>
-      <c r="AR4" s="327"/>
-      <c r="AS4" s="327"/>
-      <c r="AT4" s="327"/>
-      <c r="AU4" s="327"/>
-      <c r="AV4" s="327"/>
-      <c r="AW4" s="327"/>
-      <c r="AX4" s="327"/>
-      <c r="AY4" s="327"/>
-      <c r="AZ4" s="327"/>
-      <c r="BA4" s="327"/>
-      <c r="BB4" s="327"/>
-      <c r="BC4" s="327"/>
-      <c r="BD4" s="327"/>
-      <c r="BE4" s="327"/>
-      <c r="BF4" s="327"/>
-      <c r="BG4" s="327"/>
-      <c r="BH4" s="327"/>
-      <c r="BI4" s="327"/>
-      <c r="BJ4" s="327"/>
-      <c r="BK4" s="327"/>
-      <c r="BL4" s="327"/>
-      <c r="BM4" s="328"/>
-      <c r="BN4" s="328"/>
-      <c r="BO4" s="328"/>
-      <c r="BP4" s="329"/>
+      <c r="A4" s="329"/>
+      <c r="B4" s="322"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="322"/>
+      <c r="K4" s="322"/>
+      <c r="L4" s="322"/>
+      <c r="M4" s="322"/>
+      <c r="N4" s="322"/>
+      <c r="O4" s="322"/>
+      <c r="P4" s="322"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="322"/>
+      <c r="S4" s="322"/>
+      <c r="T4" s="322"/>
+      <c r="U4" s="322"/>
+      <c r="V4" s="322"/>
+      <c r="W4" s="322"/>
+      <c r="X4" s="322"/>
+      <c r="Y4" s="322"/>
+      <c r="Z4" s="322"/>
+      <c r="AA4" s="322"/>
+      <c r="AB4" s="322"/>
+      <c r="AC4" s="322"/>
+      <c r="AD4" s="322"/>
+      <c r="AE4" s="322"/>
+      <c r="AF4" s="322"/>
+      <c r="AG4" s="322"/>
+      <c r="AH4" s="322"/>
+      <c r="AI4" s="322"/>
+      <c r="AJ4" s="322"/>
+      <c r="AK4" s="322"/>
+      <c r="AL4" s="322"/>
+      <c r="AM4" s="322"/>
+      <c r="AN4" s="322"/>
+      <c r="AO4" s="322"/>
+      <c r="AP4" s="322"/>
+      <c r="AQ4" s="322"/>
+      <c r="AR4" s="322"/>
+      <c r="AS4" s="322"/>
+      <c r="AT4" s="322"/>
+      <c r="AU4" s="322"/>
+      <c r="AV4" s="322"/>
+      <c r="AW4" s="322"/>
+      <c r="AX4" s="322"/>
+      <c r="AY4" s="322"/>
+      <c r="AZ4" s="322"/>
+      <c r="BA4" s="322"/>
+      <c r="BB4" s="322"/>
+      <c r="BC4" s="322"/>
+      <c r="BD4" s="322"/>
+      <c r="BE4" s="322"/>
+      <c r="BF4" s="322"/>
+      <c r="BG4" s="322"/>
+      <c r="BH4" s="322"/>
+      <c r="BI4" s="322"/>
+      <c r="BJ4" s="322"/>
+      <c r="BK4" s="322"/>
+      <c r="BL4" s="322"/>
+      <c r="BM4" s="319"/>
+      <c r="BN4" s="319"/>
+      <c r="BO4" s="319"/>
+      <c r="BP4" s="320"/>
     </row>
     <row r="5" spans="1:68">
       <c r="A5" s="224">
@@ -36145,60 +36239,6 @@
     <protectedRange sqref="B5:BP14" name="区域5_2_1_3_2_2_1_1_1"/>
   </protectedRanges>
   <mergeCells count="70">
-    <mergeCell ref="BM3:BM4"/>
-    <mergeCell ref="BN3:BN4"/>
-    <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BP3:BP4"/>
-    <mergeCell ref="BH3:BH4"/>
-    <mergeCell ref="BI3:BI4"/>
-    <mergeCell ref="BJ3:BJ4"/>
-    <mergeCell ref="BK3:BK4"/>
-    <mergeCell ref="BL3:BL4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BF4"/>
-    <mergeCell ref="BG3:BG4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:BP1"/>
     <mergeCell ref="B2:BP2"/>
     <mergeCell ref="A2:A4"/>
@@ -36215,6 +36255,60 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BF4"/>
+    <mergeCell ref="BG3:BG4"/>
+    <mergeCell ref="BM3:BM4"/>
+    <mergeCell ref="BN3:BN4"/>
+    <mergeCell ref="BO3:BO4"/>
+    <mergeCell ref="BP3:BP4"/>
+    <mergeCell ref="BH3:BH4"/>
+    <mergeCell ref="BI3:BI4"/>
+    <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="BK3:BK4"/>
+    <mergeCell ref="BL3:BL4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
+++ b/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="原燃料质量" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="487">
   <si>
     <t>八 高 炉 %当前月份% 原 燃 料 质 量</t>
   </si>
@@ -174,6 +174,9 @@
     <t>FCAD</t>
   </si>
   <si>
+    <t>H2O</t>
+  </si>
+  <si>
     <t>%</t>
   </si>
   <si>
@@ -303,7 +306,7 @@
     <t>PCM_Fcad</t>
   </si>
   <si>
-    <t>PCM_S</t>
+    <t>PCM_H2O</t>
   </si>
   <si>
     <t>上旬</t>
@@ -4616,8 +4619,8 @@
   <sheetPr/>
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4873,7 +4876,7 @@
         <v>30</v>
       </c>
       <c r="AS3" s="314" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:45">
@@ -4927,91 +4930,91 @@
       <c r="A5" s="258"/>
       <c r="B5" s="291"/>
       <c r="C5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="289"/>
       <c r="J5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" s="289"/>
       <c r="M5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" s="288"/>
       <c r="Q5" s="291"/>
       <c r="R5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z5" s="288"/>
       <c r="AA5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE5" s="288"/>
       <c r="AF5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AJ5" s="292"/>
       <c r="AK5" s="119"/>
@@ -5019,154 +5022,154 @@
       <c r="AM5" s="119"/>
       <c r="AN5" s="119"/>
       <c r="AO5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AP5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AQ5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AR5" s="292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AS5" s="315" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:45">
       <c r="A6" s="258"/>
       <c r="B6" s="292" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="292" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="292" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="292" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="292" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="292" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="292" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="292" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="292" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" s="292" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" s="292" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" s="292" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" s="292" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="292" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" s="292" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="292" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R6" s="292" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" s="292" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T6" s="292" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U6" s="292" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V6" s="292" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W6" s="292" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" s="292" t="s">
         <v>53</v>
       </c>
-      <c r="X6" s="292" t="s">
-        <v>52</v>
-      </c>
       <c r="Y6" s="292" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="292" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA6" s="292" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB6" s="292" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC6" s="292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD6" s="292" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE6" s="292" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF6" s="292" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG6" s="292" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH6" s="292" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI6" s="292" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ6" s="292" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK6" s="292" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL6" s="292" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM6" s="292" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN6" s="292" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO6" s="292" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AP6" s="292" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ6" s="292" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR6" s="292" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AS6" s="315" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:45">
@@ -5661,7 +5664,7 @@
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:45">
       <c r="A17" s="293" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="298"/>
       <c r="C17" s="299" t="str">
@@ -6317,7 +6320,7 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:45">
       <c r="A28" s="293" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="298"/>
       <c r="C28" s="299" t="str">
@@ -7022,7 +7025,7 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:45">
       <c r="A40" s="293" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="298"/>
       <c r="C40" s="299" t="str">
@@ -7188,7 +7191,7 @@
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:45">
       <c r="A41" s="300" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="301"/>
       <c r="C41" s="302" t="str">
@@ -7449,15 +7452,15 @@
   <sheetPr/>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Q33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:17">
       <c r="A1" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -7478,10 +7481,10 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:17">
       <c r="A2" s="17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -7491,7 +7494,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -8243,202 +8246,202 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:66">
       <c r="A1" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AC1" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AE1" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AH1" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ1" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL1" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN1" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO1" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP1" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AQ1" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AR1" s="15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AS1" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AT1" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AU1" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AV1" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AW1" s="15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AX1" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AY1" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AZ1" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BA1" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BB1" s="15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BC1" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BD1" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BE1" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="BF1" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="BG1" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BH1" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BI1" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BJ1" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BK1" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BL1" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BM1" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BN1" s="15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -8470,85 +8473,85 @@
   <sheetData>
     <row r="1" customFormat="1" ht="14.25" spans="1:52">
       <c r="A1" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
       <c r="AE1" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
       <c r="AN1" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
       <c r="AQ1" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
       <c r="AT1" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AU1" s="4"/>
       <c r="AV1" s="4"/>
       <c r="AW1" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AX1" s="11"/>
       <c r="AY1" s="12"/>
@@ -8556,313 +8559,313 @@
     </row>
     <row r="2" customFormat="1" ht="14.25" spans="1:52">
       <c r="A2" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="Q2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="T2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="W2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="Z2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="AC2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AD2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="AF2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AG2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="AI2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AJ2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="AL2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AM2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="AO2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AP2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="AR2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AS2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="AU2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="AV2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW2" s="13" t="s">
-        <v>361</v>
-      </c>
       <c r="AX2" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AY2" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:51">
       <c r="A3" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AQ3" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AR3" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AT3" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AU3" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8920,7 +8923,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:35">
       <c r="A1" s="250" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="250"/>
       <c r="C1" s="250"/>
@@ -8962,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="252" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="252"/>
       <c r="D2" s="252"/>
@@ -8984,110 +8987,110 @@
       <c r="P2" s="254"/>
       <c r="Q2" s="254"/>
       <c r="R2" s="252" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S2" s="252"/>
       <c r="T2" s="254" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U2" s="254"/>
       <c r="V2" s="254"/>
       <c r="W2" s="254"/>
       <c r="X2" s="267"/>
       <c r="Y2" s="254" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="252" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA2" s="252" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB2" s="252" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC2" s="252" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD2" s="252" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE2" s="252" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="271" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="252" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH2" s="276" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI2" s="277"/>
     </row>
     <row r="3" ht="30.95" customHeight="1" spans="1:35">
       <c r="A3" s="255"/>
       <c r="B3" s="256" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="256" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="256" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="256"/>
       <c r="F3" s="256" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" s="257" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" s="257" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" s="257"/>
       <c r="J3" s="257"/>
       <c r="K3" s="257"/>
       <c r="L3" s="256" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M3" s="257" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N3" s="257" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O3" s="257" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P3" s="257" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="257" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R3" s="257" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S3" s="257" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T3" s="268" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U3" s="268" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V3" s="268" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W3" s="269" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X3" s="269" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y3" s="272" t="s">
         <v>6</v>
@@ -9106,151 +9109,151 @@
     <row r="4" ht="15" customHeight="1" spans="1:35">
       <c r="A4" s="258"/>
       <c r="B4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" s="259"/>
       <c r="F4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I4" s="259"/>
       <c r="J4" s="259"/>
       <c r="K4" s="259"/>
       <c r="L4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC4" s="259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD4" s="259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE4" s="259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF4" s="259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG4" s="259" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH4" s="279" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI4" s="277"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:35">
       <c r="A5" s="258"/>
       <c r="B5" s="259" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="259" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" s="259" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5" s="259"/>
       <c r="F5" s="259"/>
       <c r="G5" s="259" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H5" s="259" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I5" s="259"/>
       <c r="J5" s="259"/>
       <c r="K5" s="259"/>
       <c r="L5" s="259" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M5" s="259" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N5" s="259" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O5" s="259" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P5" s="259" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="259"/>
       <c r="R5" s="259"/>
       <c r="S5" s="259"/>
       <c r="T5" s="259"/>
       <c r="U5" s="259" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V5" s="259"/>
       <c r="W5" s="259" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X5" s="259" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y5" s="259" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z5" s="259"/>
       <c r="AA5" s="259"/>
@@ -9895,7 +9898,7 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:50">
       <c r="A16" s="262" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="263" t="str">
         <f>IF(SUM(B6:B15)=0,"",SUM(B6:B15))</f>
@@ -10649,7 +10652,7 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:35">
       <c r="A27" s="262" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="263" t="str">
         <f>IF(SUM(B17:B26)=0,"",SUM(B17:B26))</f>
@@ -11465,7 +11468,7 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:35">
       <c r="A39" s="262" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="263" t="str">
         <f>IF(SUM(B28:B38)=0,"",SUM(B28:B38))</f>
@@ -11588,7 +11591,7 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:35">
       <c r="A40" s="265" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="266" t="str">
         <f>IF(SUM(B16,B27,B39)=0,"",SUM(B16,B27,B39))</f>
@@ -11753,7 +11756,7 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:24">
       <c r="A1" s="199" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="200"/>
       <c r="C1" s="200"/>
@@ -11784,52 +11787,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="202" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="202" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" s="203" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" s="203" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F2" s="203" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G2" s="203" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H2" s="203" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I2" s="203" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J2" s="203" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K2" s="203"/>
       <c r="L2" s="203"/>
       <c r="M2" s="203"/>
       <c r="N2" s="203"/>
       <c r="O2" s="203" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P2" s="222" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="222" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R2" s="202" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S2" s="202"/>
       <c r="T2" s="202"/>
       <c r="U2" s="202" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V2" s="202"/>
       <c r="W2" s="202"/>
@@ -11846,19 +11849,19 @@
       <c r="H3" s="206"/>
       <c r="I3" s="206"/>
       <c r="J3" s="206" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K3" s="206" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L3" s="206" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M3" s="206" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N3" s="206" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O3" s="206"/>
       <c r="P3" s="223"/>
@@ -11867,22 +11870,22 @@
         <v>5</v>
       </c>
       <c r="S3" s="205" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T3" s="205" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U3" s="205" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V3" s="205" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W3" s="205" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X3" s="234" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -11914,137 +11917,137 @@
     <row r="5" ht="14.25" spans="1:24">
       <c r="A5" s="204"/>
       <c r="B5" s="207" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" s="207" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" s="208" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E5" s="208" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F5" s="208" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G5" s="208" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H5" s="208" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I5" s="208" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J5" s="208" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K5" s="208" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L5" s="208" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M5" s="208" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N5" s="208" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O5" s="208" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P5" s="224" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="208" t="s">
         <v>152</v>
-      </c>
-      <c r="Q5" s="208" t="s">
-        <v>151</v>
       </c>
       <c r="R5" s="205"/>
       <c r="S5" s="205"/>
       <c r="T5" s="205"/>
       <c r="U5" s="207" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V5" s="207" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="W5" s="207" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X5" s="234"/>
     </row>
     <row r="6" ht="28.5" spans="1:24">
       <c r="A6" s="209"/>
       <c r="B6" s="210" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="210" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D6" s="211" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E6" s="211" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F6" s="211" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G6" s="211" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H6" s="211" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I6" s="211" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J6" s="225" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K6" s="226" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L6" s="227" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M6" s="227" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N6" s="225" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O6" s="228" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P6" s="229" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="235" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R6" s="236" t="s">
         <v>22</v>
       </c>
       <c r="S6" s="236" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T6" s="236" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="U6" s="237" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V6" s="238" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W6" s="237" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X6" s="239" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:24">
@@ -12329,7 +12332,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:24">
       <c r="A17" s="215" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="216" t="str">
         <f>IF(ISERROR(AVERAGE(B7:B16)),"",AVERAGE(B7:B16))</f>
@@ -12697,7 +12700,7 @@
     </row>
     <row r="28" ht="14.25" spans="1:24">
       <c r="A28" s="215" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="216" t="str">
         <f>IF(ISERROR(AVERAGE(B18:B27)),"",AVERAGE(B18:B27))</f>
@@ -13093,7 +13096,7 @@
     </row>
     <row r="40" ht="14.25" spans="1:24">
       <c r="A40" s="215" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="218" t="str">
         <f>IF(ISERROR(AVERAGE(B29:B39)),"",AVERAGE(B29:B39))</f>
@@ -13181,7 +13184,7 @@
     </row>
     <row r="41" ht="15" spans="1:24">
       <c r="A41" s="219" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="220" t="str">
         <f>IFERROR(AVERAGE(B17,B28,B40),"")</f>
@@ -13309,8 +13312,8 @@
   <sheetPr/>
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13320,7 +13323,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:35">
       <c r="A1" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -13362,16 +13365,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D2" s="156" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" s="157" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F2" s="157"/>
       <c r="G2" s="157"/>
@@ -13382,13 +13385,13 @@
       <c r="L2" s="157"/>
       <c r="M2" s="157"/>
       <c r="N2" s="157" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O2" s="157" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P2" s="157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q2" s="157"/>
       <c r="R2" s="157"/>
@@ -13399,28 +13402,28 @@
       <c r="W2" s="157"/>
       <c r="X2" s="157"/>
       <c r="Y2" s="157" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z2" s="157" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA2" s="157" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB2" s="156" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AC2" s="157" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AD2" s="157"/>
       <c r="AE2" s="157"/>
       <c r="AF2" s="157"/>
       <c r="AG2" s="157" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AH2" s="184" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AI2" s="185"/>
     </row>
@@ -13430,23 +13433,23 @@
       <c r="C3" s="159"/>
       <c r="D3" s="159"/>
       <c r="E3" s="160" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F3" s="160"/>
       <c r="G3" s="160"/>
       <c r="H3" s="160" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I3" s="160"/>
       <c r="J3" s="160"/>
       <c r="K3" s="160" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L3" s="160" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M3" s="160" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N3" s="160"/>
       <c r="O3" s="160"/>
@@ -13460,38 +13463,38 @@
         <v>13</v>
       </c>
       <c r="S3" s="177" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T3" s="177" t="s">
         <v>14</v>
       </c>
       <c r="U3" s="177" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V3" s="177" t="s">
         <v>9</v>
       </c>
       <c r="W3" s="177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X3" s="177" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y3" s="160"/>
       <c r="Z3" s="160"/>
       <c r="AA3" s="160"/>
       <c r="AB3" s="159"/>
       <c r="AC3" s="160" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD3" s="160" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AE3" s="160" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF3" s="160" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG3" s="160"/>
       <c r="AH3" s="186"/>
@@ -13503,22 +13506,22 @@
       <c r="C4" s="161"/>
       <c r="D4" s="161"/>
       <c r="E4" s="160" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F4" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="160" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="160" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="160" t="s">
+      <c r="I4" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="160" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="160" t="s">
-        <v>205</v>
-      </c>
       <c r="J4" s="160" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K4" s="160"/>
       <c r="L4" s="160"/>
@@ -13549,197 +13552,197 @@
     <row r="5" ht="15" customHeight="1" spans="1:35">
       <c r="A5" s="162"/>
       <c r="B5" s="163" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="163" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D5" s="163" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="164" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="164"/>
       <c r="U5" s="164"/>
       <c r="V5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y5" s="164" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF5" s="164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG5" s="164" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH5" s="187" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI5" s="188"/>
     </row>
     <row r="6" s="154" customFormat="1" ht="15" customHeight="1" spans="1:35">
       <c r="A6" s="165"/>
       <c r="B6" s="166" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C6" s="166" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="167" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E6" s="167" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F6" s="167" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G6" s="167" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6" s="167" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I6" s="167" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J6" s="167" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K6" s="167" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L6" s="167" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M6" s="167" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N6" s="167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O6" s="167" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P6" s="167" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q6" s="167" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R6" s="167" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S6" s="167" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T6" s="167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U6" s="167" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V6" s="167" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W6" s="167" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="X6" s="167" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y6" s="167" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z6" s="167" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA6" s="167" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB6" s="167" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC6" s="167" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AD6" s="167" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AE6" s="167" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF6" s="167"/>
       <c r="AG6" s="167" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AH6" s="189"/>
       <c r="AI6" s="190"/>
@@ -14196,7 +14199,7 @@
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:35">
       <c r="A17" s="171" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="172" t="str">
         <f>IF(ISERROR(AVERAGE(B7:B16)),"",AVERAGE(B7:B16))</f>
@@ -14784,7 +14787,7 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:35">
       <c r="A28" s="171" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="172" t="str">
         <f>IF(ISERROR(AVERAGE(B18:B27)),"",AVERAGE(B18:B27))</f>
@@ -15417,7 +15420,7 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:35">
       <c r="A40" s="171" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="172" t="str">
         <f>IF(ISERROR(AVERAGE(B29:B39)),"",AVERAGE(B29:B39))</f>
@@ -15555,7 +15558,7 @@
     </row>
     <row r="41" ht="16.5" spans="1:35">
       <c r="A41" s="174" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="175" t="str">
         <f>IF(ISERROR(AVERAGE(B7:B16,B18:B27,B29:B39)),"",AVERAGE(B7:B16,B18:B27,B29:B39))</f>
@@ -15751,14 +15754,14 @@
   <sheetData>
     <row r="1" ht="20.1" customHeight="1" spans="1:19">
       <c r="A1" s="79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E1" s="79"/>
       <c r="F1" s="79"/>
@@ -15775,7 +15778,7 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:38">
       <c r="A2" s="80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
@@ -15820,105 +15823,105 @@
         <v>1</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="85"/>
       <c r="E3" s="83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F3" s="83"/>
       <c r="G3" s="83"/>
       <c r="H3" s="83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I3" s="83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J3" s="83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K3" s="83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L3" s="83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M3" s="108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O3" s="83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P3" s="83"/>
       <c r="Q3" s="83"/>
       <c r="R3" s="83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S3" s="108" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T3" s="115" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="U3" s="116" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V3" s="116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W3" s="117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X3" s="115" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y3" s="115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z3" s="115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA3" s="115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB3" s="115" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC3" s="115" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD3" s="115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE3" s="115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF3" s="141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG3" s="141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AH3" s="116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AI3" s="116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AJ3" s="116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK3" s="141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL3" s="143" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM3" s="46"/>
       <c r="AN3" s="46"/>
@@ -15927,19 +15930,19 @@
       <c r="A4" s="86"/>
       <c r="B4" s="87"/>
       <c r="C4" s="87" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F4" s="87" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G4" s="87" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H4" s="87"/>
       <c r="I4" s="87"/>
@@ -15949,13 +15952,13 @@
       <c r="M4" s="109"/>
       <c r="N4" s="87"/>
       <c r="O4" s="87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P4" s="87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="87" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R4" s="87"/>
       <c r="S4" s="109"/>
@@ -16026,115 +16029,115 @@
     <row r="6" ht="15" customHeight="1" spans="1:40">
       <c r="A6" s="86"/>
       <c r="B6" s="88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H6" s="88" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I6" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J6" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K6" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L6" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M6" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N6" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O6" s="88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P6" s="88" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q6" s="88" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R6" s="88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S6" s="121" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T6" s="122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="U6" s="123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V6" s="123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W6" s="123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X6" s="122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y6" s="122" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z6" s="122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA6" s="122" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB6" s="122" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC6" s="122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AD6" s="122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AE6" s="122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF6" s="123" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG6" s="123" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH6" s="123" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI6" s="123" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ6" s="123" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK6" s="123" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL6" s="145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AM6" s="46"/>
       <c r="AN6" s="46"/>
@@ -16142,99 +16145,99 @@
     <row r="7" ht="15" customHeight="1" spans="1:40">
       <c r="A7" s="86"/>
       <c r="B7" s="89" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="89"/>
       <c r="F7" s="89"/>
       <c r="G7" s="90"/>
       <c r="H7" s="89" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K7" s="89" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L7" s="89" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M7" s="89" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N7" s="89" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O7" s="89" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P7" s="89"/>
       <c r="Q7" s="89" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R7" s="124"/>
       <c r="S7" s="89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T7" s="89"/>
       <c r="U7" s="125"/>
       <c r="V7" s="89" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W7" s="125" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X7" s="126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y7" s="125" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z7" s="142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA7" s="126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AB7" s="125" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC7" s="126" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AD7" s="126" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AE7" s="126" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF7" s="126" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG7" s="132" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AH7" s="125" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AI7" s="125" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ7" s="146" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK7" s="126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM7" s="148"/>
       <c r="AN7" s="148"/>
@@ -16242,113 +16245,113 @@
     <row r="8" ht="21.75" customHeight="1" spans="1:40">
       <c r="A8" s="86"/>
       <c r="B8" s="88" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H8" s="88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I8" s="88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J8" s="88" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K8" s="88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L8" s="88" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M8" s="88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N8" s="88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O8" s="88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P8" s="88"/>
       <c r="Q8" s="88" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R8" s="88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S8" s="88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T8" s="88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="U8" s="88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V8" s="88" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W8" s="88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X8" s="88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y8" s="88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z8" s="88" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA8" s="88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB8" s="88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC8" s="88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD8" s="88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE8" s="88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF8" s="88" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG8" s="88" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH8" s="88" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AI8" s="88" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ8" s="149" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK8" s="88" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL8" s="150" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM8" s="46"/>
       <c r="AN8" s="46"/>
@@ -16485,7 +16488,7 @@
       </c>
       <c r="E11" s="94"/>
       <c r="F11" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G11" s="93" t="str">
         <f t="shared" si="2"/>
@@ -16547,7 +16550,7 @@
       </c>
       <c r="E12" s="94"/>
       <c r="F12" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G12" s="93" t="str">
         <f t="shared" si="2"/>
@@ -16609,7 +16612,7 @@
       </c>
       <c r="E13" s="94"/>
       <c r="F13" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G13" s="93" t="str">
         <f t="shared" si="2"/>
@@ -16671,7 +16674,7 @@
       </c>
       <c r="E14" s="94"/>
       <c r="F14" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G14" s="93" t="str">
         <f t="shared" si="2"/>
@@ -16733,7 +16736,7 @@
       </c>
       <c r="E15" s="92"/>
       <c r="F15" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G15" s="93" t="str">
         <f t="shared" si="2"/>
@@ -16795,7 +16798,7 @@
       </c>
       <c r="E16" s="92"/>
       <c r="F16" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G16" s="93" t="str">
         <f t="shared" si="2"/>
@@ -16857,7 +16860,7 @@
       </c>
       <c r="E17" s="94"/>
       <c r="F17" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G17" s="93" t="str">
         <f t="shared" si="2"/>
@@ -16919,7 +16922,7 @@
       </c>
       <c r="E18" s="94"/>
       <c r="F18" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G18" s="93" t="str">
         <f t="shared" si="2"/>
@@ -16971,7 +16974,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:38">
       <c r="A19" s="91" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="98" t="str">
         <f t="shared" ref="B19:F19" si="4">IF(SUM(B9:B18)=0,"",SUM(B9:B18))</f>
@@ -17131,7 +17134,7 @@
       </c>
       <c r="E20" s="94"/>
       <c r="F20" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G20" s="93" t="str">
         <f>IF(F20="","",F20)</f>
@@ -17196,7 +17199,7 @@
       </c>
       <c r="E21" s="94"/>
       <c r="F21" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G21" s="93" t="str">
         <f t="shared" ref="G21:G29" si="9">IF(F21="","",SUM(G20,F21))</f>
@@ -17261,7 +17264,7 @@
       </c>
       <c r="E22" s="94"/>
       <c r="F22" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G22" s="93" t="str">
         <f t="shared" si="9"/>
@@ -17326,7 +17329,7 @@
       </c>
       <c r="E23" s="94"/>
       <c r="F23" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G23" s="93" t="str">
         <f t="shared" si="9"/>
@@ -17391,7 +17394,7 @@
       </c>
       <c r="E24" s="94"/>
       <c r="F24" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G24" s="93" t="str">
         <f t="shared" si="9"/>
@@ -17456,7 +17459,7 @@
       </c>
       <c r="E25" s="94"/>
       <c r="F25" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G25" s="93" t="str">
         <f t="shared" si="9"/>
@@ -17521,7 +17524,7 @@
       </c>
       <c r="E26" s="94"/>
       <c r="F26" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G26" s="93" t="str">
         <f t="shared" si="9"/>
@@ -17586,7 +17589,7 @@
       </c>
       <c r="E27" s="94"/>
       <c r="F27" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G27" s="93" t="str">
         <f t="shared" si="9"/>
@@ -17651,7 +17654,7 @@
       </c>
       <c r="E28" s="94"/>
       <c r="F28" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G28" s="93" t="str">
         <f t="shared" si="9"/>
@@ -17716,7 +17719,7 @@
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G29" s="93" t="str">
         <f t="shared" si="9"/>
@@ -17771,7 +17774,7 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:38">
       <c r="A30" s="91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="98" t="str">
         <f t="shared" ref="B30:F30" si="11">IF(SUM(B20:B29)=0,"",SUM(B20:B29))</f>
@@ -17931,7 +17934,7 @@
       </c>
       <c r="E31" s="94"/>
       <c r="F31" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G31" s="93" t="str">
         <f>IF(F31="","",F31)</f>
@@ -17993,7 +17996,7 @@
       </c>
       <c r="E32" s="94"/>
       <c r="F32" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G32" s="93" t="str">
         <f t="shared" ref="G32:G41" si="16">IF(F32="","",SUM(G31,F32))</f>
@@ -18055,7 +18058,7 @@
       </c>
       <c r="E33" s="94"/>
       <c r="F33" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G33" s="93" t="str">
         <f t="shared" si="16"/>
@@ -18117,7 +18120,7 @@
       </c>
       <c r="E34" s="94"/>
       <c r="F34" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G34" s="93" t="str">
         <f t="shared" si="16"/>
@@ -18179,7 +18182,7 @@
       </c>
       <c r="E35" s="94"/>
       <c r="F35" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G35" s="93" t="str">
         <f t="shared" si="16"/>
@@ -18241,7 +18244,7 @@
       </c>
       <c r="E36" s="94"/>
       <c r="F36" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G36" s="93" t="str">
         <f t="shared" si="16"/>
@@ -18303,7 +18306,7 @@
       </c>
       <c r="E37" s="94"/>
       <c r="F37" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G37" s="93" t="str">
         <f t="shared" si="16"/>
@@ -18365,7 +18368,7 @@
       </c>
       <c r="E38" s="94"/>
       <c r="F38" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G38" s="93" t="str">
         <f t="shared" si="16"/>
@@ -18427,7 +18430,7 @@
       </c>
       <c r="E39" s="94"/>
       <c r="F39" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G39" s="93" t="str">
         <f t="shared" si="16"/>
@@ -18489,7 +18492,7 @@
       </c>
       <c r="E40" s="94"/>
       <c r="F40" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G40" s="93" t="str">
         <f t="shared" si="16"/>
@@ -18551,7 +18554,7 @@
       </c>
       <c r="E41" s="94"/>
       <c r="F41" s="95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G41" s="93" t="str">
         <f t="shared" si="16"/>
@@ -18603,7 +18606,7 @@
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:38">
       <c r="A42" s="91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" s="98" t="str">
         <f t="shared" ref="B42:F42" si="17">IF(SUM(B31:B41)=0,"",SUM(B31:B41))</f>
@@ -18753,7 +18756,7 @@
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:38">
       <c r="A43" s="101" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B43" s="102" t="str">
         <f>IF(SUM(B9:B18,B20:B29,B31:B41)=0,"",SUM(B9:B18,B20:B29,B31:B41))</f>
@@ -18971,7 +18974,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="78" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2">
         <v>8</v>
@@ -19015,7 +19018,7 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:52">
       <c r="A1" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -19074,7 +19077,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -19088,7 +19091,7 @@
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
       <c r="N2" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O2" s="48"/>
       <c r="P2" s="48"/>
@@ -19132,85 +19135,85 @@
     <row r="3" ht="15" customHeight="1" spans="1:52">
       <c r="A3" s="50"/>
       <c r="B3" s="51" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
       <c r="F3" s="51" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
       <c r="M3" s="52"/>
       <c r="N3" s="51" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
       <c r="Q3" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R3" s="52"/>
       <c r="S3" s="52"/>
       <c r="T3" s="51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U3" s="52"/>
       <c r="V3" s="52"/>
       <c r="W3" s="51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X3" s="52"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA3" s="52"/>
       <c r="AB3" s="52"/>
       <c r="AC3" s="66" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AD3" s="67"/>
       <c r="AE3" s="67"/>
       <c r="AF3" s="51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG3" s="52"/>
       <c r="AH3" s="52"/>
       <c r="AI3" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AJ3" s="52"/>
       <c r="AK3" s="52"/>
       <c r="AL3" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM3" s="52"/>
       <c r="AN3" s="52"/>
       <c r="AO3" s="51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP3" s="52"/>
       <c r="AQ3" s="52"/>
       <c r="AR3" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AS3" s="52"/>
       <c r="AT3" s="52"/>
       <c r="AU3" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AV3" s="52"/>
       <c r="AW3" s="52"/>
       <c r="AX3" s="69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AY3" s="70"/>
       <c r="AZ3" s="71"/>
@@ -19218,313 +19221,313 @@
     <row r="4" ht="15" customHeight="1" spans="1:52">
       <c r="A4" s="50"/>
       <c r="B4" s="51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C4" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="G4" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="H4" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="G4" s="51" t="s">
+      <c r="I4" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J4" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="K4" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="L4" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="J4" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>359</v>
-      </c>
       <c r="M4" s="51" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="P4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="R4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="S4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="T4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="S4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="T4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="U4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="W4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="V4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="W4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="X4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="Y4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="AA4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="AB4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="AD4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="AE4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="AG4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AH4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="AH4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="AJ4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="AK4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="AM4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="AN4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="AP4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AQ4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="AQ4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="AS4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU4" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="AT4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="AU4" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="AV4" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW4" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX4" s="69" t="s">
         <v>362</v>
       </c>
-      <c r="AW4" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX4" s="69" t="s">
-        <v>361</v>
-      </c>
       <c r="AY4" s="69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AZ4" s="72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:52">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="X5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AE5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AI5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AJ5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AQ5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AR5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AS5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AT5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AU5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AV5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AW5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY5" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AZ5" s="73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:52">
@@ -21619,7 +21622,7 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:52">
       <c r="A16" s="55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="57" t="str">
         <f>IF(ISERROR(AVERAGE(B6:B15)),"",AVERAGE(B6:B15))</f>
@@ -23918,7 +23921,7 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:52">
       <c r="A27" s="55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="57" t="str">
         <f>IF(ISERROR(AVERAGE(B17:B26)),"",AVERAGE(B17:B26))</f>
@@ -26426,7 +26429,7 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:52">
       <c r="A39" s="55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="57" t="str">
         <f>IF(ISERROR(AVERAGE(B28:B38)),"",AVERAGE(B28:B38))</f>
@@ -26635,7 +26638,7 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:52">
       <c r="A40" s="61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="62" t="str">
         <f>IF(ISERROR(AVERAGE(B6:B15,B17:B26,B28:B38)),"",AVERAGE(B6:B15,B17:B26,B28:B38))</f>
@@ -26890,7 +26893,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:68">
       <c r="A1" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -26965,7 +26968,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -27235,7 +27238,7 @@
         <v>66</v>
       </c>
       <c r="BP3" s="42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:68">
@@ -30040,7 +30043,7 @@
     </row>
     <row r="15" spans="1:68">
       <c r="A15" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="37" t="str">
         <f>IF(ISERROR(AVERAGE(B5:B14)),"",AVERAGE(B5:B14))</f>
@@ -33043,7 +33046,7 @@
     </row>
     <row r="26" spans="1:68">
       <c r="A26" s="36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="37" t="str">
         <f>IF(ISERROR(AVERAGE(B16:B25)),"",AVERAGE(B16:B25))</f>
@@ -36319,7 +36322,7 @@
     </row>
     <row r="38" spans="1:68">
       <c r="A38" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="37" t="str">
         <f>IF(ISERROR(AVERAGE(B27:B37)),"",AVERAGE(B27:B37))</f>
@@ -36592,7 +36595,7 @@
     </row>
     <row r="39" ht="14.25" spans="1:68">
       <c r="A39" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="39" t="str">
         <f>IF(ISERROR(AVERAGE(B16:B25,B5:B14,B27:B37)),"",AVERAGE(B16:B25,B5:B14,B27:B37))</f>

--- a/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
+++ b/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
@@ -1846,22 +1846,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="17">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
     <numFmt numFmtId="182" formatCode="0.0_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
-    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="186" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="187" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="188" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="187" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="188" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -2135,36 +2135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2177,16 +2148,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2202,9 +2165,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2225,7 +2225,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2240,16 +2240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2263,6 +2255,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2272,7 +2272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2326,7 +2326,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2365,13 +2365,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.14981536301767"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,25 +2467,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2413,7 +2539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2425,139 +2551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2884,21 +2878,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2913,17 +2892,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2942,6 +2917,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2970,13 +2960,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2988,10 +2982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3000,19 +2994,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3021,16 +3015,16 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3039,94 +3033,94 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="31" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3169,19 +3163,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3253,7 +3247,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3261,7 +3255,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3269,7 +3263,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3285,15 +3279,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3336,10 +3330,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3347,7 +3341,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3358,7 +3352,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3386,44 +3380,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -3441,7 +3435,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3457,7 +3451,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3466,267 +3460,267 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="179" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="182" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3743,58 +3737,58 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3857,118 +3851,118 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="181" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="181" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3976,11 +3970,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3988,7 +3982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3996,28 +3990,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4064,93 +4058,89 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="fill" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="fill" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="50" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="22" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="22" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="18" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="188" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4158,53 +4148,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="16" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="16" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="fill" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="39" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="184" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="39" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="41" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="41" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="41" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="41" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4213,26 +4207,26 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="fill" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="23" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="23" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="41" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="41" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="41" fillId="3" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="41" fillId="3" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -4242,7 +4236,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4258,7 +4252,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4274,7 +4268,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4286,15 +4280,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4302,15 +4296,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4318,11 +4312,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4378,7 +4372,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4386,11 +4380,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4398,7 +4392,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4406,15 +4404,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4422,7 +4416,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4430,19 +4424,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4490,11 +4484,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4510,15 +4504,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4526,43 +4520,43 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -4575,27 +4569,27 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -12094,8 +12088,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="Z6:Z11 Z12:Z15 Z17:Z26 Z28:Z38" formulaRange="1"/>
-    <ignoredError sqref="AG27 AG16 AC16 AD16:AE16 Z16:AB16 Z27:AE27" formula="1"/>
+    <ignoredError sqref="Z28:Z38 Z17:Z26 Z12:Z15 Z6:Z11" formulaRange="1"/>
+    <ignoredError sqref="Z27:AE27 Z16:AB16 AD16:AE16 AC16 AG16 AG27" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12111,7 +12105,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="8.825" customWidth="1"/>
+    <col min="3" max="3" width="8.825" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="9.7" style="248" customWidth="1"/>
     <col min="21" max="21" width="26.3166666666667" customWidth="1"/>
@@ -19494,7 +19488,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="P30 P19 U42:U43 U30 U19 E43 R19 R30 R42:R43" formula="1"/>
+    <ignoredError sqref="R42:R43 R30 R19 E43 U19 U30 U42:U43 P19 P30" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
+++ b/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
@@ -1845,23 +1845,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="17">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
     <numFmt numFmtId="183" formatCode="0.000_ ;[Red]\-0.000\ "/>
     <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="186" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="187" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="188" formatCode="0.0000_ "/>
+    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="186" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="187" formatCode="0.0000_ "/>
+    <numFmt numFmtId="188" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -2134,8 +2134,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2149,7 +2195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2157,43 +2203,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2208,6 +2217,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2217,24 +2233,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,14 +2248,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2263,16 +2255,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2371,19 +2371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2395,13 +2401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2413,19 +2419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2437,19 +2437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2473,25 +2467,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,13 +2527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,13 +2539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2545,13 +2551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2878,6 +2878,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2888,35 +2903,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2936,26 +2922,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2974,6 +2945,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2982,10 +2982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2994,133 +2994,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="31" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3163,19 +3163,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3344,7 +3344,7 @@
     <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3356,7 +3356,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3380,16 +3380,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3411,16 +3411,16 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3435,7 +3435,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3451,7 +3451,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3460,13 +3460,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3476,300 +3476,300 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="178" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3778,17 +3778,17 @@
     <xf numFmtId="179" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3851,7 +3851,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3863,7 +3863,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3875,7 +3875,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3883,46 +3883,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3931,6 +3891,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="180" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="180" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -3943,6 +3907,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="188" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3955,14 +3923,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3970,11 +3970,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3982,7 +3982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3990,13 +3990,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4004,14 +4004,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4093,7 +4093,7 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4103,7 +4103,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4113,7 +4113,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4123,7 +4123,7 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="50" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4133,18 +4133,14 @@
     <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="18" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="187" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4152,18 +4148,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="16" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="16" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="16" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="16" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="fill" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="184" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4175,16 +4175,16 @@
     <xf numFmtId="0" fontId="37" fillId="6" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4194,7 +4194,7 @@
     <xf numFmtId="184" fontId="41" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4328,15 +4328,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4344,252 +4344,252 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="182" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="182" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8577,8 +8577,8 @@
   <sheetPr/>
   <dimension ref="A1:BN1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BN1" sqref="BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12088,8 +12088,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="Z28:Z38 Z17:Z26 Z12:Z15 Z6:Z11" formulaRange="1"/>
-    <ignoredError sqref="Z27:AE27 Z16:AB16 AD16:AE16 AC16 AG16 AG27" formula="1"/>
+    <ignoredError sqref="Z6:Z11 Z12:Z15 Z17:Z26 Z28:Z38" formulaRange="1"/>
+    <ignoredError sqref="AG27 AG16 AC16 AD16:AE16 Z16:AB16 Z27:AE27" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12100,7 +12100,7 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AA1"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16288,7 +16288,7 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AL2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19488,7 +19488,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="R42:R43 R30 R19 E43 U19 U30 U42:U43 P19 P30" formula="1"/>
+    <ignoredError sqref="P30 P19 U42:U43 U30 U19 E43 R19 R30 R42:R43" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -28112,7 +28112,7 @@
         <v/>
       </c>
       <c r="BP5" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO2="","",_ludiwendu_dayno_all!BO2)</f>
+        <f>IF(ISERROR(AVERAGE(B5:BO5)),"",AVERAGE(B5:BO5))</f>
         <v/>
       </c>
     </row>
@@ -28385,7 +28385,7 @@
         <v/>
       </c>
       <c r="BP6" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO3="","",_ludiwendu_dayno_all!BO3)</f>
+        <f t="shared" ref="BP6:BP14" si="0">IF(ISERROR(AVERAGE(B6:BO6)),"",AVERAGE(B6:BO6))</f>
         <v/>
       </c>
     </row>
@@ -28658,7 +28658,7 @@
         <v/>
       </c>
       <c r="BP7" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO4="","",_ludiwendu_dayno_all!BO4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -28931,7 +28931,7 @@
         <v/>
       </c>
       <c r="BP8" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO5="","",_ludiwendu_dayno_all!BO5)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -29204,7 +29204,7 @@
         <v/>
       </c>
       <c r="BP9" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO6="","",_ludiwendu_dayno_all!BO6)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -29477,7 +29477,7 @@
         <v/>
       </c>
       <c r="BP10" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO7="","",_ludiwendu_dayno_all!BO7)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -29750,7 +29750,7 @@
         <v/>
       </c>
       <c r="BP11" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO8="","",_ludiwendu_dayno_all!BO8)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -30023,7 +30023,7 @@
         <v/>
       </c>
       <c r="BP12" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO9="","",_ludiwendu_dayno_all!BO9)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -30296,7 +30296,7 @@
         <v/>
       </c>
       <c r="BP13" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO10="","",_ludiwendu_dayno_all!BO10)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -30569,7 +30569,7 @@
         <v/>
       </c>
       <c r="BP14" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO11="","",_ludiwendu_dayno_all!BO11)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -30582,267 +30582,267 @@
         <v/>
       </c>
       <c r="C15" s="37" t="str">
-        <f t="shared" ref="C15:BN15" si="0">IF(ISERROR(AVERAGE(C5:C14)),"",AVERAGE(C5:C14))</f>
+        <f t="shared" ref="C15:BN15" si="1">IF(ISERROR(AVERAGE(C5:C14)),"",AVERAGE(C5:C14))</f>
         <v/>
       </c>
       <c r="D15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="N15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="U15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="X15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Y15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AD15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AE15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AF15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AG15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AH15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AI15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AJ15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AL15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AM15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AN15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AO15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AQ15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AR15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AS15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AT15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AU15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AV15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AW15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AX15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AY15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AZ15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BA15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BB15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BC15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BD15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BE15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BF15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BG15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BH15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BI15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BJ15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BK15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BL15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BM15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BN15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BO15" s="37" t="str">
-        <f t="shared" ref="BO15:BP15" si="1">IF(ISERROR(AVERAGE(BO5:BO14)),"",AVERAGE(BO5:BO14))</f>
+        <f t="shared" ref="BO15:BP15" si="2">IF(ISERROR(AVERAGE(BO5:BO14)),"",AVERAGE(BO5:BO14))</f>
         <v/>
       </c>
       <c r="BP15" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -31115,7 +31115,7 @@
         <v/>
       </c>
       <c r="BP16" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO12="","",_ludiwendu_dayno_all!BO12)</f>
+        <f>IF(ISERROR(AVERAGE(B16:BO16)),"",AVERAGE(B16:BO16))</f>
         <v/>
       </c>
     </row>
@@ -31388,7 +31388,7 @@
         <v/>
       </c>
       <c r="BP17" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO13="","",_ludiwendu_dayno_all!BO13)</f>
+        <f t="shared" ref="BP17:BP25" si="3">IF(ISERROR(AVERAGE(B17:BO17)),"",AVERAGE(B17:BO17))</f>
         <v/>
       </c>
     </row>
@@ -31661,7 +31661,7 @@
         <v/>
       </c>
       <c r="BP18" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO14="","",_ludiwendu_dayno_all!BO14)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -31934,7 +31934,7 @@
         <v/>
       </c>
       <c r="BP19" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO15="","",_ludiwendu_dayno_all!BO15)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -32207,7 +32207,7 @@
         <v/>
       </c>
       <c r="BP20" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO16="","",_ludiwendu_dayno_all!BO16)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -32480,7 +32480,7 @@
         <v/>
       </c>
       <c r="BP21" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO17="","",_ludiwendu_dayno_all!BO17)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -32753,7 +32753,7 @@
         <v/>
       </c>
       <c r="BP22" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO18="","",_ludiwendu_dayno_all!BO18)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -33026,7 +33026,7 @@
         <v/>
       </c>
       <c r="BP23" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO19="","",_ludiwendu_dayno_all!BO19)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -33299,7 +33299,7 @@
         <v/>
       </c>
       <c r="BP24" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO20="","",_ludiwendu_dayno_all!BO20)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -33572,7 +33572,7 @@
         <v/>
       </c>
       <c r="BP25" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO21="","",_ludiwendu_dayno_all!BO21)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -33585,267 +33585,267 @@
         <v/>
       </c>
       <c r="C26" s="37" t="str">
-        <f t="shared" ref="C26:BN26" si="2">IF(ISERROR(AVERAGE(C16:C25)),"",AVERAGE(C16:C25))</f>
+        <f t="shared" ref="C26:BN26" si="4">IF(ISERROR(AVERAGE(C16:C25)),"",AVERAGE(C16:C25))</f>
         <v/>
       </c>
       <c r="D26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="X26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Y26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Z26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AA26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AE26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AF26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AG26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AH26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AI26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AJ26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AK26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AL26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AM26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AN26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AO26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AP26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AQ26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AR26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AT26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AU26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AV26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AW26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AX26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AY26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AZ26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BA26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BB26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BC26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BD26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BE26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BF26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BG26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BH26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BI26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BK26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BL26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BM26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BN26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BO26" s="37" t="str">
-        <f t="shared" ref="BO26:BP26" si="3">IF(ISERROR(AVERAGE(BO16:BO25)),"",AVERAGE(BO16:BO25))</f>
+        <f t="shared" ref="BO26:BP26" si="5">IF(ISERROR(AVERAGE(BO16:BO25)),"",AVERAGE(BO16:BO25))</f>
         <v/>
       </c>
       <c r="BP26" s="44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -34118,7 +34118,7 @@
         <v/>
       </c>
       <c r="BP27" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO22="","",_ludiwendu_dayno_all!BO22)</f>
+        <f>IF(ISERROR(AVERAGE(B27:BO27)),"",AVERAGE(B27:BO27))</f>
         <v/>
       </c>
     </row>
@@ -34391,7 +34391,7 @@
         <v/>
       </c>
       <c r="BP28" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO23="","",_ludiwendu_dayno_all!BO23)</f>
+        <f t="shared" ref="BP28:BP37" si="6">IF(ISERROR(AVERAGE(B28:BO28)),"",AVERAGE(B28:BO28))</f>
         <v/>
       </c>
     </row>
@@ -34664,7 +34664,7 @@
         <v/>
       </c>
       <c r="BP29" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO24="","",_ludiwendu_dayno_all!BO24)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -34937,7 +34937,7 @@
         <v/>
       </c>
       <c r="BP30" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO25="","",_ludiwendu_dayno_all!BO25)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -35210,7 +35210,7 @@
         <v/>
       </c>
       <c r="BP31" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO26="","",_ludiwendu_dayno_all!BO26)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -35483,7 +35483,7 @@
         <v/>
       </c>
       <c r="BP32" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO27="","",_ludiwendu_dayno_all!BO27)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -35756,7 +35756,7 @@
         <v/>
       </c>
       <c r="BP33" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO28="","",_ludiwendu_dayno_all!BO28)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36029,7 +36029,7 @@
         <v/>
       </c>
       <c r="BP34" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO29="","",_ludiwendu_dayno_all!BO29)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36302,7 +36302,7 @@
         <v/>
       </c>
       <c r="BP35" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO30="","",_ludiwendu_dayno_all!BO30)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36575,7 +36575,7 @@
         <v/>
       </c>
       <c r="BP36" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO31="","",_ludiwendu_dayno_all!BO31)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36848,7 +36848,7 @@
         <v/>
       </c>
       <c r="BP37" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO32="","",_ludiwendu_dayno_all!BO32)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36861,267 +36861,267 @@
         <v/>
       </c>
       <c r="C38" s="37" t="str">
-        <f t="shared" ref="C38:AM38" si="4">IF(ISERROR(AVERAGE(C27:C37)),"",AVERAGE(C27:C37))</f>
+        <f t="shared" ref="C38:AM38" si="7">IF(ISERROR(AVERAGE(C27:C37)),"",AVERAGE(C27:C37))</f>
         <v/>
       </c>
       <c r="D38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AJ38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AK38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AL38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AM38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AN38" s="37" t="str">
-        <f t="shared" ref="AN38:BP38" si="5">IF(ISERROR(AVERAGE(AN27:AN37)),"",AVERAGE(AN27:AN37))</f>
+        <f t="shared" ref="AN38:BP38" si="8">IF(ISERROR(AVERAGE(AN27:AN37)),"",AVERAGE(AN27:AN37))</f>
         <v/>
       </c>
       <c r="AO38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AR38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AS38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AT38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AU38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AV38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AX38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AY38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AZ38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BA38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BB38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BC38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BD38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BE38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BF38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BG38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BH38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BI38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BJ38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BK38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BL38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BM38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BN38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BO38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BP38" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -37146,255 +37146,255 @@
         <v/>
       </c>
       <c r="F39" s="39" t="str">
-        <f t="shared" ref="F39:BP39" si="6">IF(ISERROR(AVERAGE(F16:F25,F5:F14,F27:F37)),"",AVERAGE(F16:F25,F5:F14,F27:F37))</f>
+        <f t="shared" ref="F39:BP39" si="9">IF(ISERROR(AVERAGE(F16:F25,F5:F14,F27:F37)),"",AVERAGE(F16:F25,F5:F14,F27:F37))</f>
         <v/>
       </c>
       <c r="G39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Y39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AE39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AF39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AG39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AH39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AK39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AM39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AN39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AO39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AQ39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AR39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AS39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AT39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AU39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AV39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AW39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AX39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AY39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BA39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BB39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BC39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BD39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BE39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BF39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BG39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BH39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BI39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BJ39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BK39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BL39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BM39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BN39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BO39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BP39" s="45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>

--- a/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
+++ b/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
@@ -1845,23 +1845,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="17">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.000_ ;[Red]\-0.000\ "/>
-    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="186" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="187" formatCode="0.0000_ "/>
-    <numFmt numFmtId="188" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="186" formatCode="0.0000_ "/>
+    <numFmt numFmtId="187" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="188" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -2134,9 +2134,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2151,7 +2217,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2159,7 +2233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2173,24 +2247,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2203,76 +2272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2371,7 +2371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,31 +2389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2419,13 +2407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2437,13 +2425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2467,13 +2455,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2485,13 +2503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2503,7 +2515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2515,31 +2527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,7 +2545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2877,17 +2877,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2907,6 +2910,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2922,11 +2936,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2954,26 +2974,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2982,10 +2982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2994,133 +2994,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3344,7 +3344,7 @@
     <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3356,7 +3356,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3411,16 +3411,16 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3435,1155 +3435,1155 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="fill" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="fill" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="22" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="fill" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="fill" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="23" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="41" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="41" fillId="3" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="58" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="fill" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="fill" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="50" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="22" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="16" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="16" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="fill" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="41" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="41" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="fill" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="23" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="41" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="41" fillId="3" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="178" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -9235,7 +9235,7 @@
   <sheetPr/>
   <dimension ref="A1:AX40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
@@ -10342,15 +10342,15 @@
         <v/>
       </c>
       <c r="AC16" s="355" t="str">
-        <f>IF(ISERROR(AVERAGE(AC6:AC15)=0),"",AVERAGE(AC6:AC15))</f>
+        <f>IF(ISERROR(Z16*100/SUM(Z16+AA16+AB16)),"",Z16*100/SUM(Z16+AA16+AB16))</f>
         <v/>
       </c>
       <c r="AD16" s="355" t="str">
-        <f>IF(ISERROR(AVERAGE(AD6:AD15)=0),"",AVERAGE(AD6:AD15))</f>
+        <f>IF(ISERROR(AA16*100/SUM(Z16+AA16+AB16)),"",AA16*100/SUM(Z16+AA16+AB16))</f>
         <v/>
       </c>
       <c r="AE16" s="355" t="str">
-        <f>IF(ISERROR(AVERAGE(AE6:AE15)=0),"",AVERAGE(AE6:AE15))</f>
+        <f>IF(ISERROR(AB16*100/SUM(Z16+AA16+AB16)),"",AB16*100/SUM(Z16+AA16+AB16))</f>
         <v/>
       </c>
       <c r="AF16" s="329"/>
@@ -11096,15 +11096,15 @@
         <v/>
       </c>
       <c r="AC27" s="355" t="str">
-        <f>IF(ISERROR(AVERAGE(AC17:AC26)=0),"",AVERAGE(AC17:AC26))</f>
+        <f>IF(ISERROR(Z27*100/SUM(Z27+AA27+AB27)),"",Z27*100/SUM(Z27+AA27+AB27))</f>
         <v/>
       </c>
       <c r="AD27" s="355" t="str">
-        <f>IF(ISERROR(AVERAGE(AD17:AD26)=0),"",AVERAGE(AD17:AD26))</f>
+        <f>IF(ISERROR(AA27*100/SUM(Z27+AA27+AB27)),"",AA27*100/SUM(Z27+AA27+AB27))</f>
         <v/>
       </c>
       <c r="AE27" s="355" t="str">
-        <f>IF(ISERROR(AVERAGE(AE17:AE26)=0),"",AVERAGE(AE17:AE26))</f>
+        <f>IF(ISERROR(AB27*100/SUM(Z27+AA27+AB27)),"",AB27*100/SUM(Z27+AA27+AB27))</f>
         <v/>
       </c>
       <c r="AF27" s="329"/>
@@ -11912,15 +11912,15 @@
         <v/>
       </c>
       <c r="AC39" s="355" t="str">
-        <f>IF(ISERROR(AVERAGE(AC28:AC38)=0),"",AVERAGE(AC28:AC38))</f>
+        <f>IF(ISERROR(Z39*100/SUM(Z39+AA39+AB39)),"",Z39*100/SUM(Z39+AA39+AB39))</f>
         <v/>
       </c>
       <c r="AD39" s="355" t="str">
-        <f>IF(ISERROR(AVERAGE(AD28:AD38)=0),"",AVERAGE(AD28:AD38))</f>
+        <f>IF(ISERROR(AA39*100/SUM(Z39+AA39+AB39)),"",AA39*100/SUM(Z39+AA39+AB39))</f>
         <v/>
       </c>
       <c r="AE39" s="355" t="str">
-        <f>IF(ISERROR(AVERAGE(AE28:AE38)=0),"",AVERAGE(AE28:AE38))</f>
+        <f>IF(ISERROR(AB39*100/SUM(Z39+AA39+AB39)),"",AB39*100/SUM(Z39+AA39+AB39))</f>
         <v/>
       </c>
       <c r="AF39" s="329"/>
@@ -12035,15 +12035,15 @@
         <v/>
       </c>
       <c r="AC40" s="356" t="str">
-        <f>IF(ISERROR(AVERAGE(AC16,AC27,AC39)),"",AVERAGE(AC16,AC27,AC39))</f>
+        <f>IF(ISERROR(Z40*100/SUM(Z40+AA40+AB40)),"",Z40*100/SUM(Z40+AA40+AB40))</f>
         <v/>
       </c>
       <c r="AD40" s="356" t="str">
-        <f>IF(ISERROR(AVERAGE(AD16,AD27,AD39)),"",AVERAGE(AD16,AD27,AD39))</f>
+        <f>IF(ISERROR(AA40*100/SUM(Z40+AA40+AB40)),"",AA40*100/SUM(Z40+AA40+AB40))</f>
         <v/>
       </c>
       <c r="AE40" s="356" t="str">
-        <f>IF(ISERROR(AVERAGE(AE16,AE27,AE39)),"",AVERAGE(AE16,AE27,AE39))</f>
+        <f>IF(ISERROR(AB40*100/SUM(Z40+AA40+AB40)),"",AB40*100/SUM(Z40+AA40+AB40))</f>
         <v/>
       </c>
       <c r="AF40" s="333"/>
@@ -12082,8 +12082,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="Z6:Z11 Z12:Z15 Z17:Z26 Z28:Z38" formulaRange="1"/>
-    <ignoredError sqref="AG27 AG16 AC16 AD16:AE16 Z16:AB16 Z27:AE27" formula="1"/>
+    <ignoredError sqref="Z27:AB27 Z16:AB16 AG16 AG27" formula="1"/>
+    <ignoredError sqref="Z28:Z38 Z17:Z26 Z12:Z15 Z6:Z11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -19481,7 +19481,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="P30 P19 U42:U43 U30 U19 E43 R19 R30 R42:R43" formula="1"/>
+    <ignoredError sqref="R42:R43 R30 R19 E43 U19 U30 U42:U43 P19 P30" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
+++ b/excel/finished/wg8#高炉/8高炉月报汇总.xlsx
@@ -1844,24 +1844,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="17">
+  <numFmts count="16">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="186" formatCode="0.0000_ "/>
-    <numFmt numFmtId="187" formatCode="0.000_ ;[Red]\-0.000\ "/>
-    <numFmt numFmtId="188" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0.000_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="185" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="186" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="187" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -2135,7 +2134,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2143,6 +2165,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2163,30 +2199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2200,9 +2215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2225,31 +2248,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2270,9 +2270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2371,7 +2370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,7 +2382,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2401,139 +2514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2552,6 +2539,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2877,24 +2876,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2912,11 +2893,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2951,21 +2965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2982,10 +2981,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2997,13 +2996,13 @@
     <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3012,115 +3011,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3163,19 +3162,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3333,20 +3332,22 @@
     <xf numFmtId="179" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3356,11 +3357,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3380,16 +3377,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3411,16 +3408,16 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3435,341 +3432,340 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="181" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="181" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="181" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="181" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="182" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="179" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3778,18 +3774,18 @@
     <xf numFmtId="179" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3851,11 +3847,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3863,11 +3859,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3875,11 +3871,51 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3891,10 +3927,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="181" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -3907,10 +3939,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3923,43 +3951,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3967,11 +3963,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3979,7 +3975,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3987,25 +3983,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4087,7 +4083,7 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4097,7 +4093,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4107,7 +4103,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4117,7 +4113,7 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="50" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4127,37 +4123,37 @@
     <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="186" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="186" fontId="16" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="16" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="186" fontId="16" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="16" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="fill" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4169,30 +4165,30 @@
     <xf numFmtId="0" fontId="37" fillId="6" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4282,15 +4278,79 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4298,75 +4358,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="182" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4390,114 +4386,150 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="181" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4506,84 +4538,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="58" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="181" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -9235,7 +9231,7 @@
   <sheetPr/>
   <dimension ref="A1:AX40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
@@ -9715,15 +9711,15 @@
         <v/>
       </c>
       <c r="AC7" s="353" t="str">
-        <f t="shared" ref="AC7:AC15" si="3">IF(ISERROR(Z7*100/SUM(Z7+AA7+AB7)),"",Z7*100/SUM(Z7+AA7+AB7))</f>
+        <f t="shared" ref="AC7:AC17" si="3">IF(ISERROR(Z7*100/SUM(Z7+AA7+AB7)),"",Z7*100/SUM(Z7+AA7+AB7))</f>
         <v/>
       </c>
       <c r="AD7" s="353" t="str">
-        <f t="shared" ref="AD7:AD15" si="4">IF(ISERROR(AA7*100/SUM(Z7+AA7+AB7)),"",AA7*100/SUM(Z7+AA7+AB7))</f>
+        <f t="shared" ref="AD7:AD17" si="4">IF(ISERROR(AA7*100/SUM(Z7+AA7+AB7)),"",AA7*100/SUM(Z7+AA7+AB7))</f>
         <v/>
       </c>
       <c r="AE7" s="353" t="str">
-        <f t="shared" ref="AE7:AE15" si="5">IF(ISERROR(AB7*100/SUM(Z7+AA7+AB7)),"",AB7*100/SUM(Z7+AA7+AB7))</f>
+        <f t="shared" ref="AE7:AE17" si="5">IF(ISERROR(AB7*100/SUM(Z7+AA7+AB7)),"",AB7*100/SUM(Z7+AA7+AB7))</f>
         <v/>
       </c>
       <c r="AF7" s="354"/>
@@ -10342,15 +10338,15 @@
         <v/>
       </c>
       <c r="AC16" s="355" t="str">
-        <f>IF(ISERROR(Z16*100/SUM(Z16+AA16+AB16)),"",Z16*100/SUM(Z16+AA16+AB16))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AD16" s="355" t="str">
-        <f>IF(ISERROR(AA16*100/SUM(Z16+AA16+AB16)),"",AA16*100/SUM(Z16+AA16+AB16))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AE16" s="355" t="str">
-        <f>IF(ISERROR(AB16*100/SUM(Z16+AA16+AB16)),"",AB16*100/SUM(Z16+AA16+AB16))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF16" s="329"/>
@@ -10406,15 +10402,15 @@
         <v/>
       </c>
       <c r="AC17" s="353" t="str">
-        <f>IF(ISERROR(Z17*100/SUM(Z17+AA17+AB17)),"",Z17*100/SUM(Z17+AA17+AB17))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AD17" s="353" t="str">
-        <f>IF(ISERROR(AA17*100/SUM(Z17+AA17+AB17)),"",AA17*100/SUM(Z17+AA17+AB17))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AE17" s="353" t="str">
-        <f>IF(ISERROR(AB17*100/SUM(Z17+AA17+AB17)),"",AB17*100/SUM(Z17+AA17+AB17))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF17" s="354"/>
@@ -10469,15 +10465,15 @@
         <v/>
       </c>
       <c r="AC18" s="353" t="str">
-        <f t="shared" ref="AC18:AC26" si="14">IF(ISERROR(Z18*100/SUM(Z18+AA18+AB18)),"",Z18*100/SUM(Z18+AA18+AB18))</f>
+        <f t="shared" ref="AC18:AC28" si="14">IF(ISERROR(Z18*100/SUM(Z18+AA18+AB18)),"",Z18*100/SUM(Z18+AA18+AB18))</f>
         <v/>
       </c>
       <c r="AD18" s="353" t="str">
-        <f t="shared" ref="AD18:AD26" si="15">IF(ISERROR(AA18*100/SUM(Z18+AA18+AB18)),"",AA18*100/SUM(Z18+AA18+AB18))</f>
+        <f t="shared" ref="AD18:AD28" si="15">IF(ISERROR(AA18*100/SUM(Z18+AA18+AB18)),"",AA18*100/SUM(Z18+AA18+AB18))</f>
         <v/>
       </c>
       <c r="AE18" s="353" t="str">
-        <f t="shared" ref="AE18:AE26" si="16">IF(ISERROR(AB18*100/SUM(Z18+AA18+AB18)),"",AB18*100/SUM(Z18+AA18+AB18))</f>
+        <f t="shared" ref="AE18:AE28" si="16">IF(ISERROR(AB18*100/SUM(Z18+AA18+AB18)),"",AB18*100/SUM(Z18+AA18+AB18))</f>
         <v/>
       </c>
       <c r="AF18" s="354"/>
@@ -11096,15 +11092,15 @@
         <v/>
       </c>
       <c r="AC27" s="355" t="str">
-        <f>IF(ISERROR(Z27*100/SUM(Z27+AA27+AB27)),"",Z27*100/SUM(Z27+AA27+AB27))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AD27" s="355" t="str">
-        <f>IF(ISERROR(AA27*100/SUM(Z27+AA27+AB27)),"",AA27*100/SUM(Z27+AA27+AB27))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE27" s="355" t="str">
-        <f>IF(ISERROR(AB27*100/SUM(Z27+AA27+AB27)),"",AB27*100/SUM(Z27+AA27+AB27))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF27" s="329"/>
@@ -11159,15 +11155,15 @@
         <v/>
       </c>
       <c r="AC28" s="353" t="str">
-        <f>IF(ISERROR(Z28*100/SUM(Z28+AA28+AB28)),"",Z28*100/SUM(Z28+AA28+AB28))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AD28" s="353" t="str">
-        <f>IF(ISERROR(AA28*100/SUM(Z28+AA28+AB28)),"",AA28*100/SUM(Z28+AA28+AB28))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE28" s="353" t="str">
-        <f>IF(ISERROR(AB28*100/SUM(Z28+AA28+AB28)),"",AB28*100/SUM(Z28+AA28+AB28))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF28" s="354"/>
@@ -11222,15 +11218,15 @@
         <v/>
       </c>
       <c r="AC29" s="353" t="str">
-        <f t="shared" ref="AC29:AC38" si="22">IF(ISERROR(Z29*100/SUM(Z29+AA29+AB29)),"",Z29*100/SUM(Z29+AA29+AB29))</f>
+        <f t="shared" ref="AC29:AC40" si="22">IF(ISERROR(Z29*100/SUM(Z29+AA29+AB29)),"",Z29*100/SUM(Z29+AA29+AB29))</f>
         <v/>
       </c>
       <c r="AD29" s="353" t="str">
-        <f t="shared" ref="AD29:AD38" si="23">IF(ISERROR(AA29*100/SUM(Z29+AA29+AB29)),"",AA29*100/SUM(Z29+AA29+AB29))</f>
+        <f t="shared" ref="AD29:AD40" si="23">IF(ISERROR(AA29*100/SUM(Z29+AA29+AB29)),"",AA29*100/SUM(Z29+AA29+AB29))</f>
         <v/>
       </c>
       <c r="AE29" s="353" t="str">
-        <f t="shared" ref="AE29:AE38" si="24">IF(ISERROR(AB29*100/SUM(Z29+AA29+AB29)),"",AB29*100/SUM(Z29+AA29+AB29))</f>
+        <f t="shared" ref="AE29:AE40" si="24">IF(ISERROR(AB29*100/SUM(Z29+AA29+AB29)),"",AB29*100/SUM(Z29+AA29+AB29))</f>
         <v/>
       </c>
       <c r="AF29" s="354"/>
@@ -11912,15 +11908,15 @@
         <v/>
       </c>
       <c r="AC39" s="355" t="str">
-        <f>IF(ISERROR(Z39*100/SUM(Z39+AA39+AB39)),"",Z39*100/SUM(Z39+AA39+AB39))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD39" s="355" t="str">
-        <f>IF(ISERROR(AA39*100/SUM(Z39+AA39+AB39)),"",AA39*100/SUM(Z39+AA39+AB39))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AE39" s="355" t="str">
-        <f>IF(ISERROR(AB39*100/SUM(Z39+AA39+AB39)),"",AB39*100/SUM(Z39+AA39+AB39))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AF39" s="329"/>
@@ -12035,15 +12031,15 @@
         <v/>
       </c>
       <c r="AC40" s="356" t="str">
-        <f>IF(ISERROR(Z40*100/SUM(Z40+AA40+AB40)),"",Z40*100/SUM(Z40+AA40+AB40))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD40" s="356" t="str">
-        <f>IF(ISERROR(AA40*100/SUM(Z40+AA40+AB40)),"",AA40*100/SUM(Z40+AA40+AB40))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AE40" s="356" t="str">
-        <f>IF(ISERROR(AB40*100/SUM(Z40+AA40+AB40)),"",AB40*100/SUM(Z40+AA40+AB40))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AF40" s="333"/>
@@ -12851,9 +12847,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S18" s="297">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S18" s="297" t="str">
+        <f>IFERROR(AVERAGE(S8:S17),"")</f>
+        <v/>
       </c>
       <c r="T18" s="274">
         <f t="shared" si="0"/>
@@ -13252,9 +13248,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S29" s="297">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S29" s="297" t="str">
+        <f>IFERROR(AVERAGE(S19:S28),"")</f>
+        <v/>
       </c>
       <c r="T29" s="274">
         <f t="shared" si="2"/>
@@ -13684,9 +13680,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S41" s="297">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S41" s="297" t="str">
+        <f>IFERROR(AVERAGE(S30:S40),"")</f>
+        <v/>
       </c>
       <c r="T41" s="274">
         <f t="shared" si="4"/>
@@ -13775,9 +13771,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S42" s="300">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S42" s="300" t="str">
+        <f>IFERROR(AVERAGE(S8:S17,S19:S28,S30:S40),"")</f>
+        <v/>
       </c>
       <c r="T42" s="277">
         <f t="shared" si="6"/>
@@ -13839,6 +13835,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="S41:S42 S18 S29" formula="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -18762,6 +18761,7 @@
       <c r="A36" s="100">
         <v>26</v>
       </c>
+      <c r="B36" s="110"/>
       <c r="C36" s="102"/>
       <c r="D36" s="102" t="str">
         <f t="shared" si="14"/>
@@ -18798,7 +18798,7 @@
         <v/>
       </c>
       <c r="U36" s="147" t="str">
-        <f>IF(ISERROR(C36/B37),"",C36/B37)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V36" s="147"/>
@@ -18860,7 +18860,7 @@
         <v/>
       </c>
       <c r="U37" s="147" t="str">
-        <f>IF(ISERROR(C37/#REF!),"",C37/#REF!)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V37" s="147"/>
@@ -19280,30 +19280,30 @@
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:38">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="111" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="111" t="str">
+      <c r="B43" s="112" t="str">
         <f>IF(SUM(B9:B18,B20:B29,B31:B41)=0,"",SUM(B9:B18,B20:B29,B31:B41))</f>
         <v/>
       </c>
-      <c r="C43" s="112" t="str">
+      <c r="C43" s="113" t="str">
         <f>IF(SUM(C9:C18,C20:C29,C31:C41)=0,"",SUM(C9:C18,C20:C29,C31:C41))</f>
         <v/>
       </c>
-      <c r="D43" s="112" t="str">
+      <c r="D43" s="113" t="str">
         <f>IF(SUM(D19,D30,D42)=0,"",SUM(D19,D30,D42))</f>
         <v/>
       </c>
-      <c r="E43" s="113" t="str">
+      <c r="E43" s="114" t="str">
         <f>IF(ISERROR(AVERAGE(E19,E30,E42)),"",AVERAGE(E19,E30,E42))</f>
         <v/>
       </c>
-      <c r="F43" s="114" t="str">
+      <c r="F43" s="113" t="str">
         <f>IF(SUM(F19,F30,F42)=0,"",SUM(F19,F30,F42))</f>
         <v/>
       </c>
-      <c r="G43" s="114" t="str">
+      <c r="G43" s="113" t="str">
         <f>IF(SUM(G19,G30,G42)=0,"",SUM(G19,G30,G42))</f>
         <v/>
       </c>
@@ -19335,7 +19335,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="O43" s="113"/>
+      <c r="O43" s="114"/>
       <c r="P43" s="123" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -19368,11 +19368,11 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="X43" s="114" t="str">
+      <c r="X43" s="113" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="Y43" s="114" t="str">
+      <c r="Y43" s="113" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -19380,7 +19380,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AA43" s="114" t="str">
+      <c r="AA43" s="113" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -19400,27 +19400,27 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF43" s="113" t="str">
+      <c r="AF43" s="114" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AG43" s="114" t="str">
+      <c r="AG43" s="113" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AH43" s="113" t="str">
+      <c r="AH43" s="114" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AI43" s="113" t="str">
+      <c r="AI43" s="114" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AJ43" s="114" t="str">
+      <c r="AJ43" s="113" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AK43" s="114" t="str">
+      <c r="AK43" s="113" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -20063,15 +20063,15 @@
         <f>IF(_data!A4="","",_data!A4)</f>
         <v/>
       </c>
-      <c r="C6" s="56" t="str">
+      <c r="C6" s="57" t="str">
         <f>IF(_data!B4="","",_data!B4)</f>
         <v/>
       </c>
-      <c r="D6" s="56" t="str">
+      <c r="D6" s="57" t="str">
         <f>IF(_data!C4="","",_data!C4)</f>
         <v/>
       </c>
-      <c r="E6" s="56" t="str">
+      <c r="E6" s="57" t="str">
         <f>IF(_data!D4="","",_data!D4)</f>
         <v/>
       </c>
@@ -20079,15 +20079,15 @@
         <f>IF(_data!E4="","",_data!E4)</f>
         <v/>
       </c>
-      <c r="G6" s="56" t="str">
+      <c r="G6" s="57" t="str">
         <f>IF(_data!F4="","",_data!F4)</f>
         <v/>
       </c>
-      <c r="H6" s="56" t="str">
+      <c r="H6" s="57" t="str">
         <f>IF(_data!G4="","",_data!G4)</f>
         <v/>
       </c>
-      <c r="I6" s="56" t="str">
+      <c r="I6" s="57" t="str">
         <f>IF(_data!H4="","",_data!H4)</f>
         <v/>
       </c>
@@ -20095,15 +20095,15 @@
         <f>IF(_data!I4="","",_data!I4)</f>
         <v/>
       </c>
-      <c r="K6" s="56" t="str">
+      <c r="K6" s="57" t="str">
         <f>IF(_data!J4="","",_data!J4)</f>
         <v/>
       </c>
-      <c r="L6" s="56" t="str">
+      <c r="L6" s="57" t="str">
         <f>IF(_data!K4="","",_data!K4)</f>
         <v/>
       </c>
-      <c r="M6" s="56" t="str">
+      <c r="M6" s="57" t="str">
         <f>IF(_data!L4="","",_data!L4)</f>
         <v/>
       </c>
@@ -20272,15 +20272,15 @@
         <f>IF(_data!A5="","",_data!A5)</f>
         <v/>
       </c>
-      <c r="C7" s="56" t="str">
+      <c r="C7" s="57" t="str">
         <f>IF(_data!B5="","",_data!B5)</f>
         <v/>
       </c>
-      <c r="D7" s="56" t="str">
+      <c r="D7" s="57" t="str">
         <f>IF(_data!C5="","",_data!C5)</f>
         <v/>
       </c>
-      <c r="E7" s="56" t="str">
+      <c r="E7" s="57" t="str">
         <f>IF(_data!D5="","",_data!D5)</f>
         <v/>
       </c>
@@ -20288,15 +20288,15 @@
         <f>IF(_data!E5="","",_data!E5)</f>
         <v/>
       </c>
-      <c r="G7" s="56" t="str">
+      <c r="G7" s="57" t="str">
         <f>IF(_data!F5="","",_data!F5)</f>
         <v/>
       </c>
-      <c r="H7" s="56" t="str">
+      <c r="H7" s="57" t="str">
         <f>IF(_data!G5="","",_data!G5)</f>
         <v/>
       </c>
-      <c r="I7" s="56" t="str">
+      <c r="I7" s="57" t="str">
         <f>IF(_data!H5="","",_data!H5)</f>
         <v/>
       </c>
@@ -20304,15 +20304,15 @@
         <f>IF(_data!I5="","",_data!I5)</f>
         <v/>
       </c>
-      <c r="K7" s="56" t="str">
+      <c r="K7" s="57" t="str">
         <f>IF(_data!J5="","",_data!J5)</f>
         <v/>
       </c>
-      <c r="L7" s="56" t="str">
+      <c r="L7" s="57" t="str">
         <f>IF(_data!K5="","",_data!K5)</f>
         <v/>
       </c>
-      <c r="M7" s="56" t="str">
+      <c r="M7" s="57" t="str">
         <f>IF(_data!L5="","",_data!L5)</f>
         <v/>
       </c>
@@ -20481,15 +20481,15 @@
         <f>IF(_data!A6="","",_data!A6)</f>
         <v/>
       </c>
-      <c r="C8" s="56" t="str">
+      <c r="C8" s="57" t="str">
         <f>IF(_data!B6="","",_data!B6)</f>
         <v/>
       </c>
-      <c r="D8" s="56" t="str">
+      <c r="D8" s="57" t="str">
         <f>IF(_data!C6="","",_data!C6)</f>
         <v/>
       </c>
-      <c r="E8" s="56" t="str">
+      <c r="E8" s="57" t="str">
         <f>IF(_data!D6="","",_data!D6)</f>
         <v/>
       </c>
@@ -20497,15 +20497,15 @@
         <f>IF(_data!E6="","",_data!E6)</f>
         <v/>
       </c>
-      <c r="G8" s="56" t="str">
+      <c r="G8" s="57" t="str">
         <f>IF(_data!F6="","",_data!F6)</f>
         <v/>
       </c>
-      <c r="H8" s="56" t="str">
+      <c r="H8" s="57" t="str">
         <f>IF(_data!G6="","",_data!G6)</f>
         <v/>
       </c>
-      <c r="I8" s="56" t="str">
+      <c r="I8" s="57" t="str">
         <f>IF(_data!H6="","",_data!H6)</f>
         <v/>
       </c>
@@ -20513,15 +20513,15 @@
         <f>IF(_data!I6="","",_data!I6)</f>
         <v/>
       </c>
-      <c r="K8" s="56" t="str">
+      <c r="K8" s="57" t="str">
         <f>IF(_data!J6="","",_data!J6)</f>
         <v/>
       </c>
-      <c r="L8" s="56" t="str">
+      <c r="L8" s="57" t="str">
         <f>IF(_data!K6="","",_data!K6)</f>
         <v/>
       </c>
-      <c r="M8" s="56" t="str">
+      <c r="M8" s="57" t="str">
         <f>IF(_data!L6="","",_data!L6)</f>
         <v/>
       </c>
@@ -20690,15 +20690,15 @@
         <f>IF(_data!A7="","",_data!A7)</f>
         <v/>
       </c>
-      <c r="C9" s="56" t="str">
+      <c r="C9" s="57" t="str">
         <f>IF(_data!B7="","",_data!B7)</f>
         <v/>
       </c>
-      <c r="D9" s="56" t="str">
+      <c r="D9" s="57" t="str">
         <f>IF(_data!C7="","",_data!C7)</f>
         <v/>
       </c>
-      <c r="E9" s="56" t="str">
+      <c r="E9" s="57" t="str">
         <f>IF(_data!D7="","",_data!D7)</f>
         <v/>
       </c>
@@ -20706,15 +20706,15 @@
         <f>IF(_data!E7="","",_data!E7)</f>
         <v/>
       </c>
-      <c r="G9" s="56" t="str">
+      <c r="G9" s="57" t="str">
         <f>IF(_data!F7="","",_data!F7)</f>
         <v/>
       </c>
-      <c r="H9" s="56" t="str">
+      <c r="H9" s="57" t="str">
         <f>IF(_data!G7="","",_data!G7)</f>
         <v/>
       </c>
-      <c r="I9" s="56" t="str">
+      <c r="I9" s="57" t="str">
         <f>IF(_data!H7="","",_data!H7)</f>
         <v/>
       </c>
@@ -20722,15 +20722,15 @@
         <f>IF(_data!I7="","",_data!I7)</f>
         <v/>
       </c>
-      <c r="K9" s="56" t="str">
+      <c r="K9" s="57" t="str">
         <f>IF(_data!J7="","",_data!J7)</f>
         <v/>
       </c>
-      <c r="L9" s="56" t="str">
+      <c r="L9" s="57" t="str">
         <f>IF(_data!K7="","",_data!K7)</f>
         <v/>
       </c>
-      <c r="M9" s="56" t="str">
+      <c r="M9" s="57" t="str">
         <f>IF(_data!L7="","",_data!L7)</f>
         <v/>
       </c>
@@ -20899,15 +20899,15 @@
         <f>IF(_data!A8="","",_data!A8)</f>
         <v/>
       </c>
-      <c r="C10" s="56" t="str">
+      <c r="C10" s="57" t="str">
         <f>IF(_data!B8="","",_data!B8)</f>
         <v/>
       </c>
-      <c r="D10" s="56" t="str">
+      <c r="D10" s="57" t="str">
         <f>IF(_data!C8="","",_data!C8)</f>
         <v/>
       </c>
-      <c r="E10" s="56" t="str">
+      <c r="E10" s="57" t="str">
         <f>IF(_data!D8="","",_data!D8)</f>
         <v/>
       </c>
@@ -20915,15 +20915,15 @@
         <f>IF(_data!E8="","",_data!E8)</f>
         <v/>
       </c>
-      <c r="G10" s="56" t="str">
+      <c r="G10" s="57" t="str">
         <f>IF(_data!F8="","",_data!F8)</f>
         <v/>
       </c>
-      <c r="H10" s="56" t="str">
+      <c r="H10" s="57" t="str">
         <f>IF(_data!G8="","",_data!G8)</f>
         <v/>
       </c>
-      <c r="I10" s="56" t="str">
+      <c r="I10" s="57" t="str">
         <f>IF(_data!H8="","",_data!H8)</f>
         <v/>
       </c>
@@ -20931,15 +20931,15 @@
         <f>IF(_data!I8="","",_data!I8)</f>
         <v/>
       </c>
-      <c r="K10" s="56" t="str">
+      <c r="K10" s="57" t="str">
         <f>IF(_data!J8="","",_data!J8)</f>
         <v/>
       </c>
-      <c r="L10" s="56" t="str">
+      <c r="L10" s="57" t="str">
         <f>IF(_data!K8="","",_data!K8)</f>
         <v/>
       </c>
-      <c r="M10" s="56" t="str">
+      <c r="M10" s="57" t="str">
         <f>IF(_data!L8="","",_data!L8)</f>
         <v/>
       </c>
@@ -21108,15 +21108,15 @@
         <f>IF(_data!A9="","",_data!A9)</f>
         <v/>
       </c>
-      <c r="C11" s="56" t="str">
+      <c r="C11" s="57" t="str">
         <f>IF(_data!B9="","",_data!B9)</f>
         <v/>
       </c>
-      <c r="D11" s="56" t="str">
+      <c r="D11" s="57" t="str">
         <f>IF(_data!C9="","",_data!C9)</f>
         <v/>
       </c>
-      <c r="E11" s="56" t="str">
+      <c r="E11" s="57" t="str">
         <f>IF(_data!D9="","",_data!D9)</f>
         <v/>
       </c>
@@ -21124,15 +21124,15 @@
         <f>IF(_data!E9="","",_data!E9)</f>
         <v/>
       </c>
-      <c r="G11" s="56" t="str">
+      <c r="G11" s="57" t="str">
         <f>IF(_data!F9="","",_data!F9)</f>
         <v/>
       </c>
-      <c r="H11" s="56" t="str">
+      <c r="H11" s="57" t="str">
         <f>IF(_data!G9="","",_data!G9)</f>
         <v/>
       </c>
-      <c r="I11" s="56" t="str">
+      <c r="I11" s="57" t="str">
         <f>IF(_data!H9="","",_data!H9)</f>
         <v/>
       </c>
@@ -21140,15 +21140,15 @@
         <f>IF(_data!I9="","",_data!I9)</f>
         <v/>
       </c>
-      <c r="K11" s="56" t="str">
+      <c r="K11" s="57" t="str">
         <f>IF(_data!J9="","",_data!J9)</f>
         <v/>
       </c>
-      <c r="L11" s="56" t="str">
+      <c r="L11" s="57" t="str">
         <f>IF(_data!K9="","",_data!K9)</f>
         <v/>
       </c>
-      <c r="M11" s="56" t="str">
+      <c r="M11" s="57" t="str">
         <f>IF(_data!L9="","",_data!L9)</f>
         <v/>
       </c>
@@ -21317,15 +21317,15 @@
         <f>IF(_data!A10="","",_data!A10)</f>
         <v/>
       </c>
-      <c r="C12" s="56" t="str">
+      <c r="C12" s="57" t="str">
         <f>IF(_data!B10="","",_data!B10)</f>
         <v/>
       </c>
-      <c r="D12" s="56" t="str">
+      <c r="D12" s="57" t="str">
         <f>IF(_data!C10="","",_data!C10)</f>
         <v/>
       </c>
-      <c r="E12" s="56" t="str">
+      <c r="E12" s="57" t="str">
         <f>IF(_data!D10="","",_data!D10)</f>
         <v/>
       </c>
@@ -21333,15 +21333,15 @@
         <f>IF(_data!E10="","",_data!E10)</f>
         <v/>
       </c>
-      <c r="G12" s="56" t="str">
+      <c r="G12" s="57" t="str">
         <f>IF(_data!F10="","",_data!F10)</f>
         <v/>
       </c>
-      <c r="H12" s="56" t="str">
+      <c r="H12" s="57" t="str">
         <f>IF(_data!G10="","",_data!G10)</f>
         <v/>
       </c>
-      <c r="I12" s="56" t="str">
+      <c r="I12" s="57" t="str">
         <f>IF(_data!H10="","",_data!H10)</f>
         <v/>
       </c>
@@ -21349,15 +21349,15 @@
         <f>IF(_data!I10="","",_data!I10)</f>
         <v/>
       </c>
-      <c r="K12" s="56" t="str">
+      <c r="K12" s="57" t="str">
         <f>IF(_data!J10="","",_data!J10)</f>
         <v/>
       </c>
-      <c r="L12" s="56" t="str">
+      <c r="L12" s="57" t="str">
         <f>IF(_data!K10="","",_data!K10)</f>
         <v/>
       </c>
-      <c r="M12" s="56" t="str">
+      <c r="M12" s="57" t="str">
         <f>IF(_data!L10="","",_data!L10)</f>
         <v/>
       </c>
@@ -21526,15 +21526,15 @@
         <f>IF(_data!A11="","",_data!A11)</f>
         <v/>
       </c>
-      <c r="C13" s="56" t="str">
+      <c r="C13" s="57" t="str">
         <f>IF(_data!B11="","",_data!B11)</f>
         <v/>
       </c>
-      <c r="D13" s="56" t="str">
+      <c r="D13" s="57" t="str">
         <f>IF(_data!C11="","",_data!C11)</f>
         <v/>
       </c>
-      <c r="E13" s="56" t="str">
+      <c r="E13" s="57" t="str">
         <f>IF(_data!D11="","",_data!D11)</f>
         <v/>
       </c>
@@ -21542,15 +21542,15 @@
         <f>IF(_data!E11="","",_data!E11)</f>
         <v/>
       </c>
-      <c r="G13" s="56" t="str">
+      <c r="G13" s="57" t="str">
         <f>IF(_data!F11="","",_data!F11)</f>
         <v/>
       </c>
-      <c r="H13" s="56" t="str">
+      <c r="H13" s="57" t="str">
         <f>IF(_data!G11="","",_data!G11)</f>
         <v/>
       </c>
-      <c r="I13" s="56" t="str">
+      <c r="I13" s="57" t="str">
         <f>IF(_data!H11="","",_data!H11)</f>
         <v/>
       </c>
@@ -21558,15 +21558,15 @@
         <f>IF(_data!I11="","",_data!I11)</f>
         <v/>
       </c>
-      <c r="K13" s="56" t="str">
+      <c r="K13" s="57" t="str">
         <f>IF(_data!J11="","",_data!J11)</f>
         <v/>
       </c>
-      <c r="L13" s="56" t="str">
+      <c r="L13" s="57" t="str">
         <f>IF(_data!K11="","",_data!K11)</f>
         <v/>
       </c>
-      <c r="M13" s="56" t="str">
+      <c r="M13" s="57" t="str">
         <f>IF(_data!L11="","",_data!L11)</f>
         <v/>
       </c>
@@ -21735,15 +21735,15 @@
         <f>IF(_data!A12="","",_data!A12)</f>
         <v/>
       </c>
-      <c r="C14" s="56" t="str">
+      <c r="C14" s="57" t="str">
         <f>IF(_data!B12="","",_data!B12)</f>
         <v/>
       </c>
-      <c r="D14" s="56" t="str">
+      <c r="D14" s="57" t="str">
         <f>IF(_data!C12="","",_data!C12)</f>
         <v/>
       </c>
-      <c r="E14" s="56" t="str">
+      <c r="E14" s="57" t="str">
         <f>IF(_data!D12="","",_data!D12)</f>
         <v/>
       </c>
@@ -21751,15 +21751,15 @@
         <f>IF(_data!E12="","",_data!E12)</f>
         <v/>
       </c>
-      <c r="G14" s="56" t="str">
+      <c r="G14" s="57" t="str">
         <f>IF(_data!F12="","",_data!F12)</f>
         <v/>
       </c>
-      <c r="H14" s="56" t="str">
+      <c r="H14" s="57" t="str">
         <f>IF(_data!G12="","",_data!G12)</f>
         <v/>
       </c>
-      <c r="I14" s="56" t="str">
+      <c r="I14" s="57" t="str">
         <f>IF(_data!H12="","",_data!H12)</f>
         <v/>
       </c>
@@ -21767,15 +21767,15 @@
         <f>IF(_data!I12="","",_data!I12)</f>
         <v/>
       </c>
-      <c r="K14" s="56" t="str">
+      <c r="K14" s="57" t="str">
         <f>IF(_data!J12="","",_data!J12)</f>
         <v/>
       </c>
-      <c r="L14" s="56" t="str">
+      <c r="L14" s="57" t="str">
         <f>IF(_data!K12="","",_data!K12)</f>
         <v/>
       </c>
-      <c r="M14" s="56" t="str">
+      <c r="M14" s="57" t="str">
         <f>IF(_data!L12="","",_data!L12)</f>
         <v/>
       </c>
@@ -21944,15 +21944,15 @@
         <f>IF(_data!A13="","",_data!A13)</f>
         <v/>
       </c>
-      <c r="C15" s="56" t="str">
+      <c r="C15" s="57" t="str">
         <f>IF(_data!B13="","",_data!B13)</f>
         <v/>
       </c>
-      <c r="D15" s="56" t="str">
+      <c r="D15" s="57" t="str">
         <f>IF(_data!C13="","",_data!C13)</f>
         <v/>
       </c>
-      <c r="E15" s="56" t="str">
+      <c r="E15" s="57" t="str">
         <f>IF(_data!D13="","",_data!D13)</f>
         <v/>
       </c>
@@ -21960,15 +21960,15 @@
         <f>IF(_data!E13="","",_data!E13)</f>
         <v/>
       </c>
-      <c r="G15" s="56" t="str">
+      <c r="G15" s="57" t="str">
         <f>IF(_data!F13="","",_data!F13)</f>
         <v/>
       </c>
-      <c r="H15" s="56" t="str">
+      <c r="H15" s="57" t="str">
         <f>IF(_data!G13="","",_data!G13)</f>
         <v/>
       </c>
-      <c r="I15" s="56" t="str">
+      <c r="I15" s="57" t="str">
         <f>IF(_data!H13="","",_data!H13)</f>
         <v/>
       </c>
@@ -21976,15 +21976,15 @@
         <f>IF(_data!I13="","",_data!I13)</f>
         <v/>
       </c>
-      <c r="K15" s="56" t="str">
+      <c r="K15" s="57" t="str">
         <f>IF(_data!J13="","",_data!J13)</f>
         <v/>
       </c>
-      <c r="L15" s="56" t="str">
+      <c r="L15" s="57" t="str">
         <f>IF(_data!K13="","",_data!K13)</f>
         <v/>
       </c>
-      <c r="M15" s="56" t="str">
+      <c r="M15" s="57" t="str">
         <f>IF(_data!L13="","",_data!L13)</f>
         <v/>
       </c>
@@ -22149,203 +22149,203 @@
       <c r="A16" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="57" t="str">
+      <c r="B16" s="58" t="str">
         <f>IF(ISERROR(AVERAGE(B6:B15)),"",AVERAGE(B6:B15))</f>
         <v/>
       </c>
-      <c r="C16" s="57" t="str">
+      <c r="C16" s="59" t="str">
         <f t="shared" ref="C16:AZ16" si="0">IF(ISERROR(AVERAGE(C6:C15)),"",AVERAGE(C6:C15))</f>
         <v/>
       </c>
-      <c r="D16" s="57" t="str">
+      <c r="D16" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E16" s="58" t="str">
+      <c r="E16" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="57" t="str">
+      <c r="F16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G16" s="57" t="str">
+      <c r="G16" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="57" t="str">
+      <c r="H16" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="58" t="str">
+      <c r="I16" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="57" t="str">
+      <c r="J16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="57" t="str">
+      <c r="K16" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="57" t="str">
+      <c r="L16" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="58" t="str">
+      <c r="M16" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N16" s="57" t="str">
+      <c r="N16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O16" s="57" t="str">
+      <c r="O16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P16" s="57" t="str">
+      <c r="P16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q16" s="57" t="str">
+      <c r="Q16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R16" s="57" t="str">
+      <c r="R16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S16" s="57" t="str">
+      <c r="S16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T16" s="57" t="str">
+      <c r="T16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U16" s="57" t="str">
+      <c r="U16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V16" s="57" t="str">
+      <c r="V16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W16" s="57" t="str">
+      <c r="W16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X16" s="57" t="str">
+      <c r="X16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y16" s="57" t="str">
+      <c r="Y16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z16" s="57" t="str">
+      <c r="Z16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA16" s="57" t="str">
+      <c r="AA16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB16" s="57" t="str">
+      <c r="AB16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC16" s="57" t="str">
+      <c r="AC16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD16" s="57" t="str">
+      <c r="AD16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE16" s="57" t="str">
+      <c r="AE16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF16" s="57" t="str">
+      <c r="AF16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG16" s="57" t="str">
+      <c r="AG16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH16" s="57" t="str">
+      <c r="AH16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI16" s="57" t="str">
+      <c r="AI16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AJ16" s="57" t="str">
+      <c r="AJ16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AK16" s="57" t="str">
+      <c r="AK16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL16" s="57" t="str">
+      <c r="AL16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AM16" s="57" t="str">
+      <c r="AM16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN16" s="57" t="str">
+      <c r="AN16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AO16" s="57" t="str">
+      <c r="AO16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP16" s="57" t="str">
+      <c r="AP16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AQ16" s="57" t="str">
+      <c r="AQ16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AR16" s="57" t="str">
+      <c r="AR16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AS16" s="57" t="str">
+      <c r="AS16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AT16" s="57" t="str">
+      <c r="AT16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AU16" s="57" t="str">
+      <c r="AU16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV16" s="57" t="str">
+      <c r="AV16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AW16" s="57" t="str">
+      <c r="AW16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AX16" s="57" t="str">
+      <c r="AX16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AY16" s="57" t="str">
+      <c r="AY16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -22358,203 +22358,203 @@
       <c r="A17" s="55">
         <v>11</v>
       </c>
-      <c r="B17" s="59" t="str">
+      <c r="B17" s="60" t="str">
         <f>IF(_data!A15="","",_data!A15)</f>
         <v/>
       </c>
-      <c r="C17" s="59" t="str">
+      <c r="C17" s="61" t="str">
         <f>IF(_data!B15="","",_data!B15)</f>
         <v/>
       </c>
-      <c r="D17" s="59" t="str">
+      <c r="D17" s="61" t="str">
         <f>IF(_data!C15="","",_data!C15)</f>
         <v/>
       </c>
-      <c r="E17" s="59" t="str">
+      <c r="E17" s="61" t="str">
         <f>IF(_data!D15="","",_data!D15)</f>
         <v/>
       </c>
-      <c r="F17" s="59" t="str">
+      <c r="F17" s="60" t="str">
         <f>IF(_data!E15="","",_data!E15)</f>
         <v/>
       </c>
-      <c r="G17" s="59" t="str">
+      <c r="G17" s="61" t="str">
         <f>IF(_data!F15="","",_data!F15)</f>
         <v/>
       </c>
-      <c r="H17" s="59" t="str">
+      <c r="H17" s="61" t="str">
         <f>IF(_data!G15="","",_data!G15)</f>
         <v/>
       </c>
-      <c r="I17" s="59" t="str">
+      <c r="I17" s="61" t="str">
         <f>IF(_data!H15="","",_data!H15)</f>
         <v/>
       </c>
-      <c r="J17" s="59" t="str">
+      <c r="J17" s="60" t="str">
         <f>IF(_data!I15="","",_data!I15)</f>
         <v/>
       </c>
-      <c r="K17" s="59" t="str">
+      <c r="K17" s="61" t="str">
         <f>IF(_data!J15="","",_data!J15)</f>
         <v/>
       </c>
-      <c r="L17" s="59" t="str">
+      <c r="L17" s="61" t="str">
         <f>IF(_data!K15="","",_data!K15)</f>
         <v/>
       </c>
-      <c r="M17" s="59" t="str">
+      <c r="M17" s="61" t="str">
         <f>IF(_data!L15="","",_data!L15)</f>
         <v/>
       </c>
-      <c r="N17" s="59" t="str">
+      <c r="N17" s="60" t="str">
         <f>IF(_data!M15="","",_data!M15)</f>
         <v/>
       </c>
-      <c r="O17" s="59" t="str">
+      <c r="O17" s="60" t="str">
         <f>IF(_data!N15="","",_data!N15)</f>
         <v/>
       </c>
-      <c r="P17" s="59" t="str">
+      <c r="P17" s="60" t="str">
         <f>IF(_data!O15="","",_data!O15)</f>
         <v/>
       </c>
-      <c r="Q17" s="59" t="str">
+      <c r="Q17" s="60" t="str">
         <f>IF(_data!P15="","",_data!P15)</f>
         <v/>
       </c>
-      <c r="R17" s="59" t="str">
+      <c r="R17" s="60" t="str">
         <f>IF(_data!Q15="","",_data!Q15)</f>
         <v/>
       </c>
-      <c r="S17" s="59" t="str">
+      <c r="S17" s="60" t="str">
         <f>IF(_data!R15="","",_data!R15)</f>
         <v/>
       </c>
-      <c r="T17" s="59" t="str">
+      <c r="T17" s="60" t="str">
         <f>IF(_data!S15="","",_data!S15)</f>
         <v/>
       </c>
-      <c r="U17" s="59" t="str">
+      <c r="U17" s="60" t="str">
         <f>IF(_data!T15="","",_data!T15)</f>
         <v/>
       </c>
-      <c r="V17" s="59" t="str">
+      <c r="V17" s="60" t="str">
         <f>IF(_data!U15="","",_data!U15)</f>
         <v/>
       </c>
-      <c r="W17" s="59" t="str">
+      <c r="W17" s="60" t="str">
         <f>IF(_data!V15="","",_data!V15)</f>
         <v/>
       </c>
-      <c r="X17" s="59" t="str">
+      <c r="X17" s="60" t="str">
         <f>IF(_data!W15="","",_data!W15)</f>
         <v/>
       </c>
-      <c r="Y17" s="59" t="str">
+      <c r="Y17" s="60" t="str">
         <f>IF(_data!X15="","",_data!X15)</f>
         <v/>
       </c>
-      <c r="Z17" s="59" t="str">
+      <c r="Z17" s="60" t="str">
         <f>IF(_data!Y15="","",_data!Y15)</f>
         <v/>
       </c>
-      <c r="AA17" s="59" t="str">
+      <c r="AA17" s="60" t="str">
         <f>IF(_data!Z15="","",_data!Z15)</f>
         <v/>
       </c>
-      <c r="AB17" s="59" t="str">
+      <c r="AB17" s="60" t="str">
         <f>IF(_data!AA15="","",_data!AA15)</f>
         <v/>
       </c>
-      <c r="AC17" s="59" t="str">
+      <c r="AC17" s="60" t="str">
         <f>IF(_data!AB15="","",_data!AB15)</f>
         <v/>
       </c>
-      <c r="AD17" s="59" t="str">
+      <c r="AD17" s="60" t="str">
         <f>IF(_data!AC15="","",_data!AC15)</f>
         <v/>
       </c>
-      <c r="AE17" s="59" t="str">
+      <c r="AE17" s="60" t="str">
         <f>IF(_data!AD15="","",_data!AD15)</f>
         <v/>
       </c>
-      <c r="AF17" s="59" t="str">
+      <c r="AF17" s="60" t="str">
         <f>IF(_data!AE15="","",_data!AE15)</f>
         <v/>
       </c>
-      <c r="AG17" s="59" t="str">
+      <c r="AG17" s="60" t="str">
         <f>IF(_data!AF15="","",_data!AF15)</f>
         <v/>
       </c>
-      <c r="AH17" s="59" t="str">
+      <c r="AH17" s="60" t="str">
         <f>IF(_data!AG15="","",_data!AG15)</f>
         <v/>
       </c>
-      <c r="AI17" s="59" t="str">
+      <c r="AI17" s="60" t="str">
         <f>IF(_data!AH15="","",_data!AH15)</f>
         <v/>
       </c>
-      <c r="AJ17" s="59" t="str">
+      <c r="AJ17" s="60" t="str">
         <f>IF(_data!AI15="","",_data!AI15)</f>
         <v/>
       </c>
-      <c r="AK17" s="59" t="str">
+      <c r="AK17" s="60" t="str">
         <f>IF(_data!AJ15="","",_data!AJ15)</f>
         <v/>
       </c>
-      <c r="AL17" s="59" t="str">
+      <c r="AL17" s="60" t="str">
         <f>IF(_data!AK15="","",_data!AK15)</f>
         <v/>
       </c>
-      <c r="AM17" s="59" t="str">
+      <c r="AM17" s="60" t="str">
         <f>IF(_data!AL15="","",_data!AL15)</f>
         <v/>
       </c>
-      <c r="AN17" s="59" t="str">
+      <c r="AN17" s="60" t="str">
         <f>IF(_data!AM15="","",_data!AM15)</f>
         <v/>
       </c>
-      <c r="AO17" s="59" t="str">
+      <c r="AO17" s="60" t="str">
         <f>IF(_data!AN15="","",_data!AN15)</f>
         <v/>
       </c>
-      <c r="AP17" s="59" t="str">
+      <c r="AP17" s="60" t="str">
         <f>IF(_data!AO15="","",_data!AO15)</f>
         <v/>
       </c>
-      <c r="AQ17" s="59" t="str">
+      <c r="AQ17" s="60" t="str">
         <f>IF(_data!AP15="","",_data!AP15)</f>
         <v/>
       </c>
-      <c r="AR17" s="59" t="str">
+      <c r="AR17" s="60" t="str">
         <f>IF(_data!AQ15="","",_data!AQ15)</f>
         <v/>
       </c>
-      <c r="AS17" s="59" t="str">
+      <c r="AS17" s="60" t="str">
         <f>IF(_data!AR15="","",_data!AR15)</f>
         <v/>
       </c>
-      <c r="AT17" s="59" t="str">
+      <c r="AT17" s="60" t="str">
         <f>IF(_data!AS15="","",_data!AS15)</f>
         <v/>
       </c>
-      <c r="AU17" s="59" t="str">
+      <c r="AU17" s="60" t="str">
         <f>IF(_data!AT15="","",_data!AT15)</f>
         <v/>
       </c>
-      <c r="AV17" s="59" t="str">
+      <c r="AV17" s="60" t="str">
         <f>IF(_data!AU15="","",_data!AU15)</f>
         <v/>
       </c>
-      <c r="AW17" s="59" t="str">
+      <c r="AW17" s="60" t="str">
         <f>IF(_data!AV15="","",_data!AV15)</f>
         <v/>
       </c>
-      <c r="AX17" s="59" t="str">
+      <c r="AX17" s="60" t="str">
         <f>IF(_data!AW15="","",_data!AW15)</f>
         <v/>
       </c>
-      <c r="AY17" s="59" t="str">
+      <c r="AY17" s="60" t="str">
         <f>IF(_data!AX15="","",_data!AX15)</f>
         <v/>
       </c>
@@ -22567,203 +22567,203 @@
       <c r="A18" s="55">
         <v>12</v>
       </c>
-      <c r="B18" s="59" t="str">
+      <c r="B18" s="60" t="str">
         <f>IF(_data!A16="","",_data!A16)</f>
         <v/>
       </c>
-      <c r="C18" s="59" t="str">
+      <c r="C18" s="61" t="str">
         <f>IF(_data!B16="","",_data!B16)</f>
         <v/>
       </c>
-      <c r="D18" s="59" t="str">
+      <c r="D18" s="61" t="str">
         <f>IF(_data!C16="","",_data!C16)</f>
         <v/>
       </c>
-      <c r="E18" s="59" t="str">
+      <c r="E18" s="61" t="str">
         <f>IF(_data!D16="","",_data!D16)</f>
         <v/>
       </c>
-      <c r="F18" s="59" t="str">
+      <c r="F18" s="60" t="str">
         <f>IF(_data!E16="","",_data!E16)</f>
         <v/>
       </c>
-      <c r="G18" s="59" t="str">
+      <c r="G18" s="61" t="str">
         <f>IF(_data!F16="","",_data!F16)</f>
         <v/>
       </c>
-      <c r="H18" s="59" t="str">
+      <c r="H18" s="61" t="str">
         <f>IF(_data!G16="","",_data!G16)</f>
         <v/>
       </c>
-      <c r="I18" s="59" t="str">
+      <c r="I18" s="61" t="str">
         <f>IF(_data!H16="","",_data!H16)</f>
         <v/>
       </c>
-      <c r="J18" s="59" t="str">
+      <c r="J18" s="60" t="str">
         <f>IF(_data!I16="","",_data!I16)</f>
         <v/>
       </c>
-      <c r="K18" s="59" t="str">
+      <c r="K18" s="61" t="str">
         <f>IF(_data!J16="","",_data!J16)</f>
         <v/>
       </c>
-      <c r="L18" s="59" t="str">
+      <c r="L18" s="61" t="str">
         <f>IF(_data!K16="","",_data!K16)</f>
         <v/>
       </c>
-      <c r="M18" s="59" t="str">
+      <c r="M18" s="61" t="str">
         <f>IF(_data!L16="","",_data!L16)</f>
         <v/>
       </c>
-      <c r="N18" s="59" t="str">
+      <c r="N18" s="60" t="str">
         <f>IF(_data!M16="","",_data!M16)</f>
         <v/>
       </c>
-      <c r="O18" s="59" t="str">
+      <c r="O18" s="60" t="str">
         <f>IF(_data!N16="","",_data!N16)</f>
         <v/>
       </c>
-      <c r="P18" s="59" t="str">
+      <c r="P18" s="60" t="str">
         <f>IF(_data!O16="","",_data!O16)</f>
         <v/>
       </c>
-      <c r="Q18" s="59" t="str">
+      <c r="Q18" s="60" t="str">
         <f>IF(_data!P16="","",_data!P16)</f>
         <v/>
       </c>
-      <c r="R18" s="59" t="str">
+      <c r="R18" s="60" t="str">
         <f>IF(_data!Q16="","",_data!Q16)</f>
         <v/>
       </c>
-      <c r="S18" s="59" t="str">
+      <c r="S18" s="60" t="str">
         <f>IF(_data!R16="","",_data!R16)</f>
         <v/>
       </c>
-      <c r="T18" s="59" t="str">
+      <c r="T18" s="60" t="str">
         <f>IF(_data!S16="","",_data!S16)</f>
         <v/>
       </c>
-      <c r="U18" s="59" t="str">
+      <c r="U18" s="60" t="str">
         <f>IF(_data!T16="","",_data!T16)</f>
         <v/>
       </c>
-      <c r="V18" s="59" t="str">
+      <c r="V18" s="60" t="str">
         <f>IF(_data!U16="","",_data!U16)</f>
         <v/>
       </c>
-      <c r="W18" s="59" t="str">
+      <c r="W18" s="60" t="str">
         <f>IF(_data!V16="","",_data!V16)</f>
         <v/>
       </c>
-      <c r="X18" s="59" t="str">
+      <c r="X18" s="60" t="str">
         <f>IF(_data!W16="","",_data!W16)</f>
         <v/>
       </c>
-      <c r="Y18" s="59" t="str">
+      <c r="Y18" s="60" t="str">
         <f>IF(_data!X16="","",_data!X16)</f>
         <v/>
       </c>
-      <c r="Z18" s="59" t="str">
+      <c r="Z18" s="60" t="str">
         <f>IF(_data!Y16="","",_data!Y16)</f>
         <v/>
       </c>
-      <c r="AA18" s="59" t="str">
+      <c r="AA18" s="60" t="str">
         <f>IF(_data!Z16="","",_data!Z16)</f>
         <v/>
       </c>
-      <c r="AB18" s="59" t="str">
+      <c r="AB18" s="60" t="str">
         <f>IF(_data!AA16="","",_data!AA16)</f>
         <v/>
       </c>
-      <c r="AC18" s="59" t="str">
+      <c r="AC18" s="60" t="str">
         <f>IF(_data!AB16="","",_data!AB16)</f>
         <v/>
       </c>
-      <c r="AD18" s="59" t="str">
+      <c r="AD18" s="60" t="str">
         <f>IF(_data!AC16="","",_data!AC16)</f>
         <v/>
       </c>
-      <c r="AE18" s="59" t="str">
+      <c r="AE18" s="60" t="str">
         <f>IF(_data!AD16="","",_data!AD16)</f>
         <v/>
       </c>
-      <c r="AF18" s="59" t="str">
+      <c r="AF18" s="60" t="str">
         <f>IF(_data!AE16="","",_data!AE16)</f>
         <v/>
       </c>
-      <c r="AG18" s="59" t="str">
+      <c r="AG18" s="60" t="str">
         <f>IF(_data!AF16="","",_data!AF16)</f>
         <v/>
       </c>
-      <c r="AH18" s="59" t="str">
+      <c r="AH18" s="60" t="str">
         <f>IF(_data!AG16="","",_data!AG16)</f>
         <v/>
       </c>
-      <c r="AI18" s="59" t="str">
+      <c r="AI18" s="60" t="str">
         <f>IF(_data!AH16="","",_data!AH16)</f>
         <v/>
       </c>
-      <c r="AJ18" s="59" t="str">
+      <c r="AJ18" s="60" t="str">
         <f>IF(_data!AI16="","",_data!AI16)</f>
         <v/>
       </c>
-      <c r="AK18" s="59" t="str">
+      <c r="AK18" s="60" t="str">
         <f>IF(_data!AJ16="","",_data!AJ16)</f>
         <v/>
       </c>
-      <c r="AL18" s="59" t="str">
+      <c r="AL18" s="60" t="str">
         <f>IF(_data!AK16="","",_data!AK16)</f>
         <v/>
       </c>
-      <c r="AM18" s="59" t="str">
+      <c r="AM18" s="60" t="str">
         <f>IF(_data!AL16="","",_data!AL16)</f>
         <v/>
       </c>
-      <c r="AN18" s="59" t="str">
+      <c r="AN18" s="60" t="str">
         <f>IF(_data!AM16="","",_data!AM16)</f>
         <v/>
       </c>
-      <c r="AO18" s="59" t="str">
+      <c r="AO18" s="60" t="str">
         <f>IF(_data!AN16="","",_data!AN16)</f>
         <v/>
       </c>
-      <c r="AP18" s="59" t="str">
+      <c r="AP18" s="60" t="str">
         <f>IF(_data!AO16="","",_data!AO16)</f>
         <v/>
       </c>
-      <c r="AQ18" s="59" t="str">
+      <c r="AQ18" s="60" t="str">
         <f>IF(_data!AP16="","",_data!AP16)</f>
         <v/>
       </c>
-      <c r="AR18" s="59" t="str">
+      <c r="AR18" s="60" t="str">
         <f>IF(_data!AQ16="","",_data!AQ16)</f>
         <v/>
       </c>
-      <c r="AS18" s="59" t="str">
+      <c r="AS18" s="60" t="str">
         <f>IF(_data!AR16="","",_data!AR16)</f>
         <v/>
       </c>
-      <c r="AT18" s="59" t="str">
+      <c r="AT18" s="60" t="str">
         <f>IF(_data!AS16="","",_data!AS16)</f>
         <v/>
       </c>
-      <c r="AU18" s="59" t="str">
+      <c r="AU18" s="60" t="str">
         <f>IF(_data!AT16="","",_data!AT16)</f>
         <v/>
       </c>
-      <c r="AV18" s="59" t="str">
+      <c r="AV18" s="60" t="str">
         <f>IF(_data!AU16="","",_data!AU16)</f>
         <v/>
       </c>
-      <c r="AW18" s="59" t="str">
+      <c r="AW18" s="60" t="str">
         <f>IF(_data!AV16="","",_data!AV16)</f>
         <v/>
       </c>
-      <c r="AX18" s="59" t="str">
+      <c r="AX18" s="60" t="str">
         <f>IF(_data!AW16="","",_data!AW16)</f>
         <v/>
       </c>
-      <c r="AY18" s="59" t="str">
+      <c r="AY18" s="60" t="str">
         <f>IF(_data!AX16="","",_data!AX16)</f>
         <v/>
       </c>
@@ -22776,203 +22776,203 @@
       <c r="A19" s="55">
         <v>13</v>
       </c>
-      <c r="B19" s="59" t="str">
+      <c r="B19" s="60" t="str">
         <f>IF(_data!A17="","",_data!A17)</f>
         <v/>
       </c>
-      <c r="C19" s="59" t="str">
+      <c r="C19" s="61" t="str">
         <f>IF(_data!B17="","",_data!B17)</f>
         <v/>
       </c>
-      <c r="D19" s="59" t="str">
+      <c r="D19" s="61" t="str">
         <f>IF(_data!C17="","",_data!C17)</f>
         <v/>
       </c>
-      <c r="E19" s="59" t="str">
+      <c r="E19" s="61" t="str">
         <f>IF(_data!D17="","",_data!D17)</f>
         <v/>
       </c>
-      <c r="F19" s="59" t="str">
+      <c r="F19" s="60" t="str">
         <f>IF(_data!E17="","",_data!E17)</f>
         <v/>
       </c>
-      <c r="G19" s="59" t="str">
+      <c r="G19" s="61" t="str">
         <f>IF(_data!F17="","",_data!F17)</f>
         <v/>
       </c>
-      <c r="H19" s="59" t="str">
+      <c r="H19" s="61" t="str">
         <f>IF(_data!G17="","",_data!G17)</f>
         <v/>
       </c>
-      <c r="I19" s="59" t="str">
+      <c r="I19" s="61" t="str">
         <f>IF(_data!H17="","",_data!H17)</f>
         <v/>
       </c>
-      <c r="J19" s="59" t="str">
+      <c r="J19" s="60" t="str">
         <f>IF(_data!I17="","",_data!I17)</f>
         <v/>
       </c>
-      <c r="K19" s="59" t="str">
+      <c r="K19" s="61" t="str">
         <f>IF(_data!J17="","",_data!J17)</f>
         <v/>
       </c>
-      <c r="L19" s="59" t="str">
+      <c r="L19" s="61" t="str">
         <f>IF(_data!K17="","",_data!K17)</f>
         <v/>
       </c>
-      <c r="M19" s="59" t="str">
+      <c r="M19" s="61" t="str">
         <f>IF(_data!L17="","",_data!L17)</f>
         <v/>
       </c>
-      <c r="N19" s="59" t="str">
+      <c r="N19" s="60" t="str">
         <f>IF(_data!M17="","",_data!M17)</f>
         <v/>
       </c>
-      <c r="O19" s="59" t="str">
+      <c r="O19" s="60" t="str">
         <f>IF(_data!N17="","",_data!N17)</f>
         <v/>
       </c>
-      <c r="P19" s="59" t="str">
+      <c r="P19" s="60" t="str">
         <f>IF(_data!O17="","",_data!O17)</f>
         <v/>
       </c>
-      <c r="Q19" s="59" t="str">
+      <c r="Q19" s="60" t="str">
         <f>IF(_data!P17="","",_data!P17)</f>
         <v/>
       </c>
-      <c r="R19" s="59" t="str">
+      <c r="R19" s="60" t="str">
         <f>IF(_data!Q17="","",_data!Q17)</f>
         <v/>
       </c>
-      <c r="S19" s="59" t="str">
+      <c r="S19" s="60" t="str">
         <f>IF(_data!R17="","",_data!R17)</f>
         <v/>
       </c>
-      <c r="T19" s="59" t="str">
+      <c r="T19" s="60" t="str">
         <f>IF(_data!S17="","",_data!S17)</f>
         <v/>
       </c>
-      <c r="U19" s="59" t="str">
+      <c r="U19" s="60" t="str">
         <f>IF(_data!T17="","",_data!T17)</f>
         <v/>
       </c>
-      <c r="V19" s="59" t="str">
+      <c r="V19" s="60" t="str">
         <f>IF(_data!U17="","",_data!U17)</f>
         <v/>
       </c>
-      <c r="W19" s="59" t="str">
+      <c r="W19" s="60" t="str">
         <f>IF(_data!V17="","",_data!V17)</f>
         <v/>
       </c>
-      <c r="X19" s="59" t="str">
+      <c r="X19" s="60" t="str">
         <f>IF(_data!W17="","",_data!W17)</f>
         <v/>
       </c>
-      <c r="Y19" s="59" t="str">
+      <c r="Y19" s="60" t="str">
         <f>IF(_data!X17="","",_data!X17)</f>
         <v/>
       </c>
-      <c r="Z19" s="59" t="str">
+      <c r="Z19" s="60" t="str">
         <f>IF(_data!Y17="","",_data!Y17)</f>
         <v/>
       </c>
-      <c r="AA19" s="59" t="str">
+      <c r="AA19" s="60" t="str">
         <f>IF(_data!Z17="","",_data!Z17)</f>
         <v/>
       </c>
-      <c r="AB19" s="59" t="str">
+      <c r="AB19" s="60" t="str">
         <f>IF(_data!AA17="","",_data!AA17)</f>
         <v/>
       </c>
-      <c r="AC19" s="59" t="str">
+      <c r="AC19" s="60" t="str">
         <f>IF(_data!AB17="","",_data!AB17)</f>
         <v/>
       </c>
-      <c r="AD19" s="59" t="str">
+      <c r="AD19" s="60" t="str">
         <f>IF(_data!AC17="","",_data!AC17)</f>
         <v/>
       </c>
-      <c r="AE19" s="59" t="str">
+      <c r="AE19" s="60" t="str">
         <f>IF(_data!AD17="","",_data!AD17)</f>
         <v/>
       </c>
-      <c r="AF19" s="59" t="str">
+      <c r="AF19" s="60" t="str">
         <f>IF(_data!AE17="","",_data!AE17)</f>
         <v/>
       </c>
-      <c r="AG19" s="59" t="str">
+      <c r="AG19" s="60" t="str">
         <f>IF(_data!AF17="","",_data!AF17)</f>
         <v/>
       </c>
-      <c r="AH19" s="59" t="str">
+      <c r="AH19" s="60" t="str">
         <f>IF(_data!AG17="","",_data!AG17)</f>
         <v/>
       </c>
-      <c r="AI19" s="59" t="str">
+      <c r="AI19" s="60" t="str">
         <f>IF(_data!AH17="","",_data!AH17)</f>
         <v/>
       </c>
-      <c r="AJ19" s="59" t="str">
+      <c r="AJ19" s="60" t="str">
         <f>IF(_data!AI17="","",_data!AI17)</f>
         <v/>
       </c>
-      <c r="AK19" s="59" t="str">
+      <c r="AK19" s="60" t="str">
         <f>IF(_data!AJ17="","",_data!AJ17)</f>
         <v/>
       </c>
-      <c r="AL19" s="59" t="str">
+      <c r="AL19" s="60" t="str">
         <f>IF(_data!AK17="","",_data!AK17)</f>
         <v/>
       </c>
-      <c r="AM19" s="59" t="str">
+      <c r="AM19" s="60" t="str">
         <f>IF(_data!AL17="","",_data!AL17)</f>
         <v/>
       </c>
-      <c r="AN19" s="59" t="str">
+      <c r="AN19" s="60" t="str">
         <f>IF(_data!AM17="","",_data!AM17)</f>
         <v/>
       </c>
-      <c r="AO19" s="59" t="str">
+      <c r="AO19" s="60" t="str">
         <f>IF(_data!AN17="","",_data!AN17)</f>
         <v/>
       </c>
-      <c r="AP19" s="59" t="str">
+      <c r="AP19" s="60" t="str">
         <f>IF(_data!AO17="","",_data!AO17)</f>
         <v/>
       </c>
-      <c r="AQ19" s="59" t="str">
+      <c r="AQ19" s="60" t="str">
         <f>IF(_data!AP17="","",_data!AP17)</f>
         <v/>
       </c>
-      <c r="AR19" s="59" t="str">
+      <c r="AR19" s="60" t="str">
         <f>IF(_data!AQ17="","",_data!AQ17)</f>
         <v/>
       </c>
-      <c r="AS19" s="59" t="str">
+      <c r="AS19" s="60" t="str">
         <f>IF(_data!AR17="","",_data!AR17)</f>
         <v/>
       </c>
-      <c r="AT19" s="59" t="str">
+      <c r="AT19" s="60" t="str">
         <f>IF(_data!AS17="","",_data!AS17)</f>
         <v/>
       </c>
-      <c r="AU19" s="59" t="str">
+      <c r="AU19" s="60" t="str">
         <f>IF(_data!AT17="","",_data!AT17)</f>
         <v/>
       </c>
-      <c r="AV19" s="59" t="str">
+      <c r="AV19" s="60" t="str">
         <f>IF(_data!AU17="","",_data!AU17)</f>
         <v/>
       </c>
-      <c r="AW19" s="59" t="str">
+      <c r="AW19" s="60" t="str">
         <f>IF(_data!AV17="","",_data!AV17)</f>
         <v/>
       </c>
-      <c r="AX19" s="59" t="str">
+      <c r="AX19" s="60" t="str">
         <f>IF(_data!AW17="","",_data!AW17)</f>
         <v/>
       </c>
-      <c r="AY19" s="59" t="str">
+      <c r="AY19" s="60" t="str">
         <f>IF(_data!AX17="","",_data!AX17)</f>
         <v/>
       </c>
@@ -22985,203 +22985,203 @@
       <c r="A20" s="55">
         <v>14</v>
       </c>
-      <c r="B20" s="59" t="str">
+      <c r="B20" s="60" t="str">
         <f>IF(_data!A18="","",_data!A18)</f>
         <v/>
       </c>
-      <c r="C20" s="59" t="str">
+      <c r="C20" s="61" t="str">
         <f>IF(_data!B18="","",_data!B18)</f>
         <v/>
       </c>
-      <c r="D20" s="59" t="str">
+      <c r="D20" s="61" t="str">
         <f>IF(_data!C18="","",_data!C18)</f>
         <v/>
       </c>
-      <c r="E20" s="59" t="str">
+      <c r="E20" s="61" t="str">
         <f>IF(_data!D18="","",_data!D18)</f>
         <v/>
       </c>
-      <c r="F20" s="59" t="str">
+      <c r="F20" s="60" t="str">
         <f>IF(_data!E18="","",_data!E18)</f>
         <v/>
       </c>
-      <c r="G20" s="59" t="str">
+      <c r="G20" s="61" t="str">
         <f>IF(_data!F18="","",_data!F18)</f>
         <v/>
       </c>
-      <c r="H20" s="59" t="str">
+      <c r="H20" s="61" t="str">
         <f>IF(_data!G18="","",_data!G18)</f>
         <v/>
       </c>
-      <c r="I20" s="59" t="str">
+      <c r="I20" s="61" t="str">
         <f>IF(_data!H18="","",_data!H18)</f>
         <v/>
       </c>
-      <c r="J20" s="59" t="str">
+      <c r="J20" s="60" t="str">
         <f>IF(_data!I18="","",_data!I18)</f>
         <v/>
       </c>
-      <c r="K20" s="59" t="str">
+      <c r="K20" s="61" t="str">
         <f>IF(_data!J18="","",_data!J18)</f>
         <v/>
       </c>
-      <c r="L20" s="59" t="str">
+      <c r="L20" s="61" t="str">
         <f>IF(_data!K18="","",_data!K18)</f>
         <v/>
       </c>
-      <c r="M20" s="59" t="str">
+      <c r="M20" s="61" t="str">
         <f>IF(_data!L18="","",_data!L18)</f>
         <v/>
       </c>
-      <c r="N20" s="59" t="str">
+      <c r="N20" s="60" t="str">
         <f>IF(_data!M18="","",_data!M18)</f>
         <v/>
       </c>
-      <c r="O20" s="59" t="str">
+      <c r="O20" s="60" t="str">
         <f>IF(_data!N18="","",_data!N18)</f>
         <v/>
       </c>
-      <c r="P20" s="59" t="str">
+      <c r="P20" s="60" t="str">
         <f>IF(_data!O18="","",_data!O18)</f>
         <v/>
       </c>
-      <c r="Q20" s="59" t="str">
+      <c r="Q20" s="60" t="str">
         <f>IF(_data!P18="","",_data!P18)</f>
         <v/>
       </c>
-      <c r="R20" s="59" t="str">
+      <c r="R20" s="60" t="str">
         <f>IF(_data!Q18="","",_data!Q18)</f>
         <v/>
       </c>
-      <c r="S20" s="59" t="str">
+      <c r="S20" s="60" t="str">
         <f>IF(_data!R18="","",_data!R18)</f>
         <v/>
       </c>
-      <c r="T20" s="59" t="str">
+      <c r="T20" s="60" t="str">
         <f>IF(_data!S18="","",_data!S18)</f>
         <v/>
       </c>
-      <c r="U20" s="59" t="str">
+      <c r="U20" s="60" t="str">
         <f>IF(_data!T18="","",_data!T18)</f>
         <v/>
       </c>
-      <c r="V20" s="59" t="str">
+      <c r="V20" s="60" t="str">
         <f>IF(_data!U18="","",_data!U18)</f>
         <v/>
       </c>
-      <c r="W20" s="59" t="str">
+      <c r="W20" s="60" t="str">
         <f>IF(_data!V18="","",_data!V18)</f>
         <v/>
       </c>
-      <c r="X20" s="59" t="str">
+      <c r="X20" s="60" t="str">
         <f>IF(_data!W18="","",_data!W18)</f>
         <v/>
       </c>
-      <c r="Y20" s="59" t="str">
+      <c r="Y20" s="60" t="str">
         <f>IF(_data!X18="","",_data!X18)</f>
         <v/>
       </c>
-      <c r="Z20" s="59" t="str">
+      <c r="Z20" s="60" t="str">
         <f>IF(_data!Y18="","",_data!Y18)</f>
         <v/>
       </c>
-      <c r="AA20" s="59" t="str">
+      <c r="AA20" s="60" t="str">
         <f>IF(_data!Z18="","",_data!Z18)</f>
         <v/>
       </c>
-      <c r="AB20" s="59" t="str">
+      <c r="AB20" s="60" t="str">
         <f>IF(_data!AA18="","",_data!AA18)</f>
         <v/>
       </c>
-      <c r="AC20" s="59" t="str">
+      <c r="AC20" s="60" t="str">
         <f>IF(_data!AB18="","",_data!AB18)</f>
         <v/>
       </c>
-      <c r="AD20" s="59" t="str">
+      <c r="AD20" s="60" t="str">
         <f>IF(_data!AC18="","",_data!AC18)</f>
         <v/>
       </c>
-      <c r="AE20" s="59" t="str">
+      <c r="AE20" s="60" t="str">
         <f>IF(_data!AD18="","",_data!AD18)</f>
         <v/>
       </c>
-      <c r="AF20" s="59" t="str">
+      <c r="AF20" s="60" t="str">
         <f>IF(_data!AE18="","",_data!AE18)</f>
         <v/>
       </c>
-      <c r="AG20" s="59" t="str">
+      <c r="AG20" s="60" t="str">
         <f>IF(_data!AF18="","",_data!AF18)</f>
         <v/>
       </c>
-      <c r="AH20" s="59" t="str">
+      <c r="AH20" s="60" t="str">
         <f>IF(_data!AG18="","",_data!AG18)</f>
         <v/>
       </c>
-      <c r="AI20" s="59" t="str">
+      <c r="AI20" s="60" t="str">
         <f>IF(_data!AH18="","",_data!AH18)</f>
         <v/>
       </c>
-      <c r="AJ20" s="59" t="str">
+      <c r="AJ20" s="60" t="str">
         <f>IF(_data!AI18="","",_data!AI18)</f>
         <v/>
       </c>
-      <c r="AK20" s="59" t="str">
+      <c r="AK20" s="60" t="str">
         <f>IF(_data!AJ18="","",_data!AJ18)</f>
         <v/>
       </c>
-      <c r="AL20" s="59" t="str">
+      <c r="AL20" s="60" t="str">
         <f>IF(_data!AK18="","",_data!AK18)</f>
         <v/>
       </c>
-      <c r="AM20" s="59" t="str">
+      <c r="AM20" s="60" t="str">
         <f>IF(_data!AL18="","",_data!AL18)</f>
         <v/>
       </c>
-      <c r="AN20" s="59" t="str">
+      <c r="AN20" s="60" t="str">
         <f>IF(_data!AM18="","",_data!AM18)</f>
         <v/>
       </c>
-      <c r="AO20" s="59" t="str">
+      <c r="AO20" s="60" t="str">
         <f>IF(_data!AN18="","",_data!AN18)</f>
         <v/>
       </c>
-      <c r="AP20" s="59" t="str">
+      <c r="AP20" s="60" t="str">
         <f>IF(_data!AO18="","",_data!AO18)</f>
         <v/>
       </c>
-      <c r="AQ20" s="59" t="str">
+      <c r="AQ20" s="60" t="str">
         <f>IF(_data!AP18="","",_data!AP18)</f>
         <v/>
       </c>
-      <c r="AR20" s="59" t="str">
+      <c r="AR20" s="60" t="str">
         <f>IF(_data!AQ18="","",_data!AQ18)</f>
         <v/>
       </c>
-      <c r="AS20" s="59" t="str">
+      <c r="AS20" s="60" t="str">
         <f>IF(_data!AR18="","",_data!AR18)</f>
         <v/>
       </c>
-      <c r="AT20" s="59" t="str">
+      <c r="AT20" s="60" t="str">
         <f>IF(_data!AS18="","",_data!AS18)</f>
         <v/>
       </c>
-      <c r="AU20" s="59" t="str">
+      <c r="AU20" s="60" t="str">
         <f>IF(_data!AT18="","",_data!AT18)</f>
         <v/>
       </c>
-      <c r="AV20" s="59" t="str">
+      <c r="AV20" s="60" t="str">
         <f>IF(_data!AU18="","",_data!AU18)</f>
         <v/>
       </c>
-      <c r="AW20" s="59" t="str">
+      <c r="AW20" s="60" t="str">
         <f>IF(_data!AV18="","",_data!AV18)</f>
         <v/>
       </c>
-      <c r="AX20" s="59" t="str">
+      <c r="AX20" s="60" t="str">
         <f>IF(_data!AW18="","",_data!AW18)</f>
         <v/>
       </c>
-      <c r="AY20" s="59" t="str">
+      <c r="AY20" s="60" t="str">
         <f>IF(_data!AX18="","",_data!AX18)</f>
         <v/>
       </c>
@@ -23194,203 +23194,203 @@
       <c r="A21" s="55">
         <v>15</v>
       </c>
-      <c r="B21" s="59" t="str">
+      <c r="B21" s="60" t="str">
         <f>IF(_data!A19="","",_data!A19)</f>
         <v/>
       </c>
-      <c r="C21" s="59" t="str">
+      <c r="C21" s="61" t="str">
         <f>IF(_data!B19="","",_data!B19)</f>
         <v/>
       </c>
-      <c r="D21" s="59" t="str">
+      <c r="D21" s="61" t="str">
         <f>IF(_data!C19="","",_data!C19)</f>
         <v/>
       </c>
-      <c r="E21" s="59" t="str">
+      <c r="E21" s="61" t="str">
         <f>IF(_data!D19="","",_data!D19)</f>
         <v/>
       </c>
-      <c r="F21" s="59" t="str">
+      <c r="F21" s="60" t="str">
         <f>IF(_data!E19="","",_data!E19)</f>
         <v/>
       </c>
-      <c r="G21" s="59" t="str">
+      <c r="G21" s="61" t="str">
         <f>IF(_data!F19="","",_data!F19)</f>
         <v/>
       </c>
-      <c r="H21" s="59" t="str">
+      <c r="H21" s="61" t="str">
         <f>IF(_data!G19="","",_data!G19)</f>
         <v/>
       </c>
-      <c r="I21" s="59" t="str">
+      <c r="I21" s="61" t="str">
         <f>IF(_data!H19="","",_data!H19)</f>
         <v/>
       </c>
-      <c r="J21" s="59" t="str">
+      <c r="J21" s="60" t="str">
         <f>IF(_data!I19="","",_data!I19)</f>
         <v/>
       </c>
-      <c r="K21" s="59" t="str">
+      <c r="K21" s="61" t="str">
         <f>IF(_data!J19="","",_data!J19)</f>
         <v/>
       </c>
-      <c r="L21" s="59" t="str">
+      <c r="L21" s="61" t="str">
         <f>IF(_data!K19="","",_data!K19)</f>
         <v/>
       </c>
-      <c r="M21" s="59" t="str">
+      <c r="M21" s="61" t="str">
         <f>IF(_data!L19="","",_data!L19)</f>
         <v/>
       </c>
-      <c r="N21" s="59" t="str">
+      <c r="N21" s="60" t="str">
         <f>IF(_data!M19="","",_data!M19)</f>
         <v/>
       </c>
-      <c r="O21" s="59" t="str">
+      <c r="O21" s="60" t="str">
         <f>IF(_data!N19="","",_data!N19)</f>
         <v/>
       </c>
-      <c r="P21" s="59" t="str">
+      <c r="P21" s="60" t="str">
         <f>IF(_data!O19="","",_data!O19)</f>
         <v/>
       </c>
-      <c r="Q21" s="59" t="str">
+      <c r="Q21" s="60" t="str">
         <f>IF(_data!P19="","",_data!P19)</f>
         <v/>
       </c>
-      <c r="R21" s="59" t="str">
+      <c r="R21" s="60" t="str">
         <f>IF(_data!Q19="","",_data!Q19)</f>
         <v/>
       </c>
-      <c r="S21" s="59" t="str">
+      <c r="S21" s="60" t="str">
         <f>IF(_data!R19="","",_data!R19)</f>
         <v/>
       </c>
-      <c r="T21" s="59" t="str">
+      <c r="T21" s="60" t="str">
         <f>IF(_data!S19="","",_data!S19)</f>
         <v/>
       </c>
-      <c r="U21" s="59" t="str">
+      <c r="U21" s="60" t="str">
         <f>IF(_data!T19="","",_data!T19)</f>
         <v/>
       </c>
-      <c r="V21" s="59" t="str">
+      <c r="V21" s="60" t="str">
         <f>IF(_data!U19="","",_data!U19)</f>
         <v/>
       </c>
-      <c r="W21" s="59" t="str">
+      <c r="W21" s="60" t="str">
         <f>IF(_data!V19="","",_data!V19)</f>
         <v/>
       </c>
-      <c r="X21" s="59" t="str">
+      <c r="X21" s="60" t="str">
         <f>IF(_data!W19="","",_data!W19)</f>
         <v/>
       </c>
-      <c r="Y21" s="59" t="str">
+      <c r="Y21" s="60" t="str">
         <f>IF(_data!X19="","",_data!X19)</f>
         <v/>
       </c>
-      <c r="Z21" s="59" t="str">
+      <c r="Z21" s="60" t="str">
         <f>IF(_data!Y19="","",_data!Y19)</f>
         <v/>
       </c>
-      <c r="AA21" s="59" t="str">
+      <c r="AA21" s="60" t="str">
         <f>IF(_data!Z19="","",_data!Z19)</f>
         <v/>
       </c>
-      <c r="AB21" s="59" t="str">
+      <c r="AB21" s="60" t="str">
         <f>IF(_data!AA19="","",_data!AA19)</f>
         <v/>
       </c>
-      <c r="AC21" s="59" t="str">
+      <c r="AC21" s="60" t="str">
         <f>IF(_data!AB19="","",_data!AB19)</f>
         <v/>
       </c>
-      <c r="AD21" s="59" t="str">
+      <c r="AD21" s="60" t="str">
         <f>IF(_data!AC19="","",_data!AC19)</f>
         <v/>
       </c>
-      <c r="AE21" s="59" t="str">
+      <c r="AE21" s="60" t="str">
         <f>IF(_data!AD19="","",_data!AD19)</f>
         <v/>
       </c>
-      <c r="AF21" s="59" t="str">
+      <c r="AF21" s="60" t="str">
         <f>IF(_data!AE19="","",_data!AE19)</f>
         <v/>
       </c>
-      <c r="AG21" s="59" t="str">
+      <c r="AG21" s="60" t="str">
         <f>IF(_data!AF19="","",_data!AF19)</f>
         <v/>
       </c>
-      <c r="AH21" s="59" t="str">
+      <c r="AH21" s="60" t="str">
         <f>IF(_data!AG19="","",_data!AG19)</f>
         <v/>
       </c>
-      <c r="AI21" s="59" t="str">
+      <c r="AI21" s="60" t="str">
         <f>IF(_data!AH19="","",_data!AH19)</f>
         <v/>
       </c>
-      <c r="AJ21" s="59" t="str">
+      <c r="AJ21" s="60" t="str">
         <f>IF(_data!AI19="","",_data!AI19)</f>
         <v/>
       </c>
-      <c r="AK21" s="59" t="str">
+      <c r="AK21" s="60" t="str">
         <f>IF(_data!AJ19="","",_data!AJ19)</f>
         <v/>
       </c>
-      <c r="AL21" s="59" t="str">
+      <c r="AL21" s="60" t="str">
         <f>IF(_data!AK19="","",_data!AK19)</f>
         <v/>
       </c>
-      <c r="AM21" s="59" t="str">
+      <c r="AM21" s="60" t="str">
         <f>IF(_data!AL19="","",_data!AL19)</f>
         <v/>
       </c>
-      <c r="AN21" s="59" t="str">
+      <c r="AN21" s="60" t="str">
         <f>IF(_data!AM19="","",_data!AM19)</f>
         <v/>
       </c>
-      <c r="AO21" s="59" t="str">
+      <c r="AO21" s="60" t="str">
         <f>IF(_data!AN19="","",_data!AN19)</f>
         <v/>
       </c>
-      <c r="AP21" s="59" t="str">
+      <c r="AP21" s="60" t="str">
         <f>IF(_data!AO19="","",_data!AO19)</f>
         <v/>
       </c>
-      <c r="AQ21" s="59" t="str">
+      <c r="AQ21" s="60" t="str">
         <f>IF(_data!AP19="","",_data!AP19)</f>
         <v/>
       </c>
-      <c r="AR21" s="59" t="str">
+      <c r="AR21" s="60" t="str">
         <f>IF(_data!AQ19="","",_data!AQ19)</f>
         <v/>
       </c>
-      <c r="AS21" s="59" t="str">
+      <c r="AS21" s="60" t="str">
         <f>IF(_data!AR19="","",_data!AR19)</f>
         <v/>
       </c>
-      <c r="AT21" s="59" t="str">
+      <c r="AT21" s="60" t="str">
         <f>IF(_data!AS19="","",_data!AS19)</f>
         <v/>
       </c>
-      <c r="AU21" s="59" t="str">
+      <c r="AU21" s="60" t="str">
         <f>IF(_data!AT19="","",_data!AT19)</f>
         <v/>
       </c>
-      <c r="AV21" s="59" t="str">
+      <c r="AV21" s="60" t="str">
         <f>IF(_data!AU19="","",_data!AU19)</f>
         <v/>
       </c>
-      <c r="AW21" s="59" t="str">
+      <c r="AW21" s="60" t="str">
         <f>IF(_data!AV19="","",_data!AV19)</f>
         <v/>
       </c>
-      <c r="AX21" s="59" t="str">
+      <c r="AX21" s="60" t="str">
         <f>IF(_data!AW19="","",_data!AW19)</f>
         <v/>
       </c>
-      <c r="AY21" s="59" t="str">
+      <c r="AY21" s="60" t="str">
         <f>IF(_data!AX19="","",_data!AX19)</f>
         <v/>
       </c>
@@ -23403,203 +23403,203 @@
       <c r="A22" s="55">
         <v>16</v>
       </c>
-      <c r="B22" s="59" t="str">
+      <c r="B22" s="60" t="str">
         <f>IF(_data!A20="","",_data!A20)</f>
         <v/>
       </c>
-      <c r="C22" s="59" t="str">
+      <c r="C22" s="61" t="str">
         <f>IF(_data!B20="","",_data!B20)</f>
         <v/>
       </c>
-      <c r="D22" s="59" t="str">
+      <c r="D22" s="61" t="str">
         <f>IF(_data!C20="","",_data!C20)</f>
         <v/>
       </c>
-      <c r="E22" s="59" t="str">
+      <c r="E22" s="61" t="str">
         <f>IF(_data!D20="","",_data!D20)</f>
         <v/>
       </c>
-      <c r="F22" s="59" t="str">
+      <c r="F22" s="60" t="str">
         <f>IF(_data!E20="","",_data!E20)</f>
         <v/>
       </c>
-      <c r="G22" s="59" t="str">
+      <c r="G22" s="61" t="str">
         <f>IF(_data!F20="","",_data!F20)</f>
         <v/>
       </c>
-      <c r="H22" s="59" t="str">
+      <c r="H22" s="61" t="str">
         <f>IF(_data!G20="","",_data!G20)</f>
         <v/>
       </c>
-      <c r="I22" s="59" t="str">
+      <c r="I22" s="61" t="str">
         <f>IF(_data!H20="","",_data!H20)</f>
         <v/>
       </c>
-      <c r="J22" s="59" t="str">
+      <c r="J22" s="60" t="str">
         <f>IF(_data!I20="","",_data!I20)</f>
         <v/>
       </c>
-      <c r="K22" s="59" t="str">
+      <c r="K22" s="61" t="str">
         <f>IF(_data!J20="","",_data!J20)</f>
         <v/>
       </c>
-      <c r="L22" s="59" t="str">
+      <c r="L22" s="61" t="str">
         <f>IF(_data!K20="","",_data!K20)</f>
         <v/>
       </c>
-      <c r="M22" s="59" t="str">
+      <c r="M22" s="61" t="str">
         <f>IF(_data!L20="","",_data!L20)</f>
         <v/>
       </c>
-      <c r="N22" s="59" t="str">
+      <c r="N22" s="60" t="str">
         <f>IF(_data!M20="","",_data!M20)</f>
         <v/>
       </c>
-      <c r="O22" s="59" t="str">
+      <c r="O22" s="60" t="str">
         <f>IF(_data!N20="","",_data!N20)</f>
         <v/>
       </c>
-      <c r="P22" s="59" t="str">
+      <c r="P22" s="60" t="str">
         <f>IF(_data!O20="","",_data!O20)</f>
         <v/>
       </c>
-      <c r="Q22" s="59" t="str">
+      <c r="Q22" s="60" t="str">
         <f>IF(_data!P20="","",_data!P20)</f>
         <v/>
       </c>
-      <c r="R22" s="59" t="str">
+      <c r="R22" s="60" t="str">
         <f>IF(_data!Q20="","",_data!Q20)</f>
         <v/>
       </c>
-      <c r="S22" s="59" t="str">
+      <c r="S22" s="60" t="str">
         <f>IF(_data!R20="","",_data!R20)</f>
         <v/>
       </c>
-      <c r="T22" s="59" t="str">
+      <c r="T22" s="60" t="str">
         <f>IF(_data!S20="","",_data!S20)</f>
         <v/>
       </c>
-      <c r="U22" s="59" t="str">
+      <c r="U22" s="60" t="str">
         <f>IF(_data!T20="","",_data!T20)</f>
         <v/>
       </c>
-      <c r="V22" s="59" t="str">
+      <c r="V22" s="60" t="str">
         <f>IF(_data!U20="","",_data!U20)</f>
         <v/>
       </c>
-      <c r="W22" s="59" t="str">
+      <c r="W22" s="60" t="str">
         <f>IF(_data!V20="","",_data!V20)</f>
         <v/>
       </c>
-      <c r="X22" s="59" t="str">
+      <c r="X22" s="60" t="str">
         <f>IF(_data!W20="","",_data!W20)</f>
         <v/>
       </c>
-      <c r="Y22" s="59" t="str">
+      <c r="Y22" s="60" t="str">
         <f>IF(_data!X20="","",_data!X20)</f>
         <v/>
       </c>
-      <c r="Z22" s="59" t="str">
+      <c r="Z22" s="60" t="str">
         <f>IF(_data!Y20="","",_data!Y20)</f>
         <v/>
       </c>
-      <c r="AA22" s="59" t="str">
+      <c r="AA22" s="60" t="str">
         <f>IF(_data!Z20="","",_data!Z20)</f>
         <v/>
       </c>
-      <c r="AB22" s="59" t="str">
+      <c r="AB22" s="60" t="str">
         <f>IF(_data!AA20="","",_data!AA20)</f>
         <v/>
       </c>
-      <c r="AC22" s="59" t="str">
+      <c r="AC22" s="60" t="str">
         <f>IF(_data!AB20="","",_data!AB20)</f>
         <v/>
       </c>
-      <c r="AD22" s="59" t="str">
+      <c r="AD22" s="60" t="str">
         <f>IF(_data!AC20="","",_data!AC20)</f>
         <v/>
       </c>
-      <c r="AE22" s="59" t="str">
+      <c r="AE22" s="60" t="str">
         <f>IF(_data!AD20="","",_data!AD20)</f>
         <v/>
       </c>
-      <c r="AF22" s="59" t="str">
+      <c r="AF22" s="60" t="str">
         <f>IF(_data!AE20="","",_data!AE20)</f>
         <v/>
       </c>
-      <c r="AG22" s="59" t="str">
+      <c r="AG22" s="60" t="str">
         <f>IF(_data!AF20="","",_data!AF20)</f>
         <v/>
       </c>
-      <c r="AH22" s="59" t="str">
+      <c r="AH22" s="60" t="str">
         <f>IF(_data!AG20="","",_data!AG20)</f>
         <v/>
       </c>
-      <c r="AI22" s="59" t="str">
+      <c r="AI22" s="60" t="str">
         <f>IF(_data!AH20="","",_data!AH20)</f>
         <v/>
       </c>
-      <c r="AJ22" s="59" t="str">
+      <c r="AJ22" s="60" t="str">
         <f>IF(_data!AI20="","",_data!AI20)</f>
         <v/>
       </c>
-      <c r="AK22" s="59" t="str">
+      <c r="AK22" s="60" t="str">
         <f>IF(_data!AJ20="","",_data!AJ20)</f>
         <v/>
       </c>
-      <c r="AL22" s="59" t="str">
+      <c r="AL22" s="60" t="str">
         <f>IF(_data!AK20="","",_data!AK20)</f>
         <v/>
       </c>
-      <c r="AM22" s="59" t="str">
+      <c r="AM22" s="60" t="str">
         <f>IF(_data!AL20="","",_data!AL20)</f>
         <v/>
       </c>
-      <c r="AN22" s="59" t="str">
+      <c r="AN22" s="60" t="str">
         <f>IF(_data!AM20="","",_data!AM20)</f>
         <v/>
       </c>
-      <c r="AO22" s="59" t="str">
+      <c r="AO22" s="60" t="str">
         <f>IF(_data!AN20="","",_data!AN20)</f>
         <v/>
       </c>
-      <c r="AP22" s="59" t="str">
+      <c r="AP22" s="60" t="str">
         <f>IF(_data!AO20="","",_data!AO20)</f>
         <v/>
       </c>
-      <c r="AQ22" s="59" t="str">
+      <c r="AQ22" s="60" t="str">
         <f>IF(_data!AP20="","",_data!AP20)</f>
         <v/>
       </c>
-      <c r="AR22" s="59" t="str">
+      <c r="AR22" s="60" t="str">
         <f>IF(_data!AQ20="","",_data!AQ20)</f>
         <v/>
       </c>
-      <c r="AS22" s="59" t="str">
+      <c r="AS22" s="60" t="str">
         <f>IF(_data!AR20="","",_data!AR20)</f>
         <v/>
       </c>
-      <c r="AT22" s="59" t="str">
+      <c r="AT22" s="60" t="str">
         <f>IF(_data!AS20="","",_data!AS20)</f>
         <v/>
       </c>
-      <c r="AU22" s="59" t="str">
+      <c r="AU22" s="60" t="str">
         <f>IF(_data!AT20="","",_data!AT20)</f>
         <v/>
       </c>
-      <c r="AV22" s="59" t="str">
+      <c r="AV22" s="60" t="str">
         <f>IF(_data!AU20="","",_data!AU20)</f>
         <v/>
       </c>
-      <c r="AW22" s="59" t="str">
+      <c r="AW22" s="60" t="str">
         <f>IF(_data!AV20="","",_data!AV20)</f>
         <v/>
       </c>
-      <c r="AX22" s="59" t="str">
+      <c r="AX22" s="60" t="str">
         <f>IF(_data!AW20="","",_data!AW20)</f>
         <v/>
       </c>
-      <c r="AY22" s="59" t="str">
+      <c r="AY22" s="60" t="str">
         <f>IF(_data!AX20="","",_data!AX20)</f>
         <v/>
       </c>
@@ -23612,203 +23612,203 @@
       <c r="A23" s="55">
         <v>17</v>
       </c>
-      <c r="B23" s="59" t="str">
+      <c r="B23" s="60" t="str">
         <f>IF(_data!A21="","",_data!A21)</f>
         <v/>
       </c>
-      <c r="C23" s="59" t="str">
+      <c r="C23" s="61" t="str">
         <f>IF(_data!B21="","",_data!B21)</f>
         <v/>
       </c>
-      <c r="D23" s="59" t="str">
+      <c r="D23" s="61" t="str">
         <f>IF(_data!C21="","",_data!C21)</f>
         <v/>
       </c>
-      <c r="E23" s="59" t="str">
+      <c r="E23" s="61" t="str">
         <f>IF(_data!D21="","",_data!D21)</f>
         <v/>
       </c>
-      <c r="F23" s="59" t="str">
+      <c r="F23" s="60" t="str">
         <f>IF(_data!E21="","",_data!E21)</f>
         <v/>
       </c>
-      <c r="G23" s="59" t="str">
+      <c r="G23" s="61" t="str">
         <f>IF(_data!F21="","",_data!F21)</f>
         <v/>
       </c>
-      <c r="H23" s="59" t="str">
+      <c r="H23" s="61" t="str">
         <f>IF(_data!G21="","",_data!G21)</f>
         <v/>
       </c>
-      <c r="I23" s="59" t="str">
+      <c r="I23" s="61" t="str">
         <f>IF(_data!H21="","",_data!H21)</f>
         <v/>
       </c>
-      <c r="J23" s="59" t="str">
+      <c r="J23" s="60" t="str">
         <f>IF(_data!I21="","",_data!I21)</f>
         <v/>
       </c>
-      <c r="K23" s="59" t="str">
+      <c r="K23" s="61" t="str">
         <f>IF(_data!J21="","",_data!J21)</f>
         <v/>
       </c>
-      <c r="L23" s="59" t="str">
+      <c r="L23" s="61" t="str">
         <f>IF(_data!K21="","",_data!K21)</f>
         <v/>
       </c>
-      <c r="M23" s="59" t="str">
+      <c r="M23" s="61" t="str">
         <f>IF(_data!L21="","",_data!L21)</f>
         <v/>
       </c>
-      <c r="N23" s="59" t="str">
+      <c r="N23" s="60" t="str">
         <f>IF(_data!M21="","",_data!M21)</f>
         <v/>
       </c>
-      <c r="O23" s="59" t="str">
+      <c r="O23" s="60" t="str">
         <f>IF(_data!N21="","",_data!N21)</f>
         <v/>
       </c>
-      <c r="P23" s="59" t="str">
+      <c r="P23" s="60" t="str">
         <f>IF(_data!O21="","",_data!O21)</f>
         <v/>
       </c>
-      <c r="Q23" s="59" t="str">
+      <c r="Q23" s="60" t="str">
         <f>IF(_data!P21="","",_data!P21)</f>
         <v/>
       </c>
-      <c r="R23" s="59" t="str">
+      <c r="R23" s="60" t="str">
         <f>IF(_data!Q21="","",_data!Q21)</f>
         <v/>
       </c>
-      <c r="S23" s="59" t="str">
+      <c r="S23" s="60" t="str">
         <f>IF(_data!R21="","",_data!R21)</f>
         <v/>
       </c>
-      <c r="T23" s="59" t="str">
+      <c r="T23" s="60" t="str">
         <f>IF(_data!S21="","",_data!S21)</f>
         <v/>
       </c>
-      <c r="U23" s="59" t="str">
+      <c r="U23" s="60" t="str">
         <f>IF(_data!T21="","",_data!T21)</f>
         <v/>
       </c>
-      <c r="V23" s="59" t="str">
+      <c r="V23" s="60" t="str">
         <f>IF(_data!U21="","",_data!U21)</f>
         <v/>
       </c>
-      <c r="W23" s="59" t="str">
+      <c r="W23" s="60" t="str">
         <f>IF(_data!V21="","",_data!V21)</f>
         <v/>
       </c>
-      <c r="X23" s="59" t="str">
+      <c r="X23" s="60" t="str">
         <f>IF(_data!W21="","",_data!W21)</f>
         <v/>
       </c>
-      <c r="Y23" s="59" t="str">
+      <c r="Y23" s="60" t="str">
         <f>IF(_data!X21="","",_data!X21)</f>
         <v/>
       </c>
-      <c r="Z23" s="59" t="str">
+      <c r="Z23" s="60" t="str">
         <f>IF(_data!Y21="","",_data!Y21)</f>
         <v/>
       </c>
-      <c r="AA23" s="59" t="str">
+      <c r="AA23" s="60" t="str">
         <f>IF(_data!Z21="","",_data!Z21)</f>
         <v/>
       </c>
-      <c r="AB23" s="59" t="str">
+      <c r="AB23" s="60" t="str">
         <f>IF(_data!AA21="","",_data!AA21)</f>
         <v/>
       </c>
-      <c r="AC23" s="59" t="str">
+      <c r="AC23" s="60" t="str">
         <f>IF(_data!AB21="","",_data!AB21)</f>
         <v/>
       </c>
-      <c r="AD23" s="59" t="str">
+      <c r="AD23" s="60" t="str">
         <f>IF(_data!AC21="","",_data!AC21)</f>
         <v/>
       </c>
-      <c r="AE23" s="59" t="str">
+      <c r="AE23" s="60" t="str">
         <f>IF(_data!AD21="","",_data!AD21)</f>
         <v/>
       </c>
-      <c r="AF23" s="59" t="str">
+      <c r="AF23" s="60" t="str">
         <f>IF(_data!AE21="","",_data!AE21)</f>
         <v/>
       </c>
-      <c r="AG23" s="59" t="str">
+      <c r="AG23" s="60" t="str">
         <f>IF(_data!AF21="","",_data!AF21)</f>
         <v/>
       </c>
-      <c r="AH23" s="59" t="str">
+      <c r="AH23" s="60" t="str">
         <f>IF(_data!AG21="","",_data!AG21)</f>
         <v/>
       </c>
-      <c r="AI23" s="59" t="str">
+      <c r="AI23" s="60" t="str">
         <f>IF(_data!AH21="","",_data!AH21)</f>
         <v/>
       </c>
-      <c r="AJ23" s="59" t="str">
+      <c r="AJ23" s="60" t="str">
         <f>IF(_data!AI21="","",_data!AI21)</f>
         <v/>
       </c>
-      <c r="AK23" s="59" t="str">
+      <c r="AK23" s="60" t="str">
         <f>IF(_data!AJ21="","",_data!AJ21)</f>
         <v/>
       </c>
-      <c r="AL23" s="59" t="str">
+      <c r="AL23" s="60" t="str">
         <f>IF(_data!AK21="","",_data!AK21)</f>
         <v/>
       </c>
-      <c r="AM23" s="59" t="str">
+      <c r="AM23" s="60" t="str">
         <f>IF(_data!AL21="","",_data!AL21)</f>
         <v/>
       </c>
-      <c r="AN23" s="59" t="str">
+      <c r="AN23" s="60" t="str">
         <f>IF(_data!AM21="","",_data!AM21)</f>
         <v/>
       </c>
-      <c r="AO23" s="59" t="str">
+      <c r="AO23" s="60" t="str">
         <f>IF(_data!AN21="","",_data!AN21)</f>
         <v/>
       </c>
-      <c r="AP23" s="59" t="str">
+      <c r="AP23" s="60" t="str">
         <f>IF(_data!AO21="","",_data!AO21)</f>
         <v/>
       </c>
-      <c r="AQ23" s="59" t="str">
+      <c r="AQ23" s="60" t="str">
         <f>IF(_data!AP21="","",_data!AP21)</f>
         <v/>
       </c>
-      <c r="AR23" s="59" t="str">
+      <c r="AR23" s="60" t="str">
         <f>IF(_data!AQ21="","",_data!AQ21)</f>
         <v/>
       </c>
-      <c r="AS23" s="59" t="str">
+      <c r="AS23" s="60" t="str">
         <f>IF(_data!AR21="","",_data!AR21)</f>
         <v/>
       </c>
-      <c r="AT23" s="59" t="str">
+      <c r="AT23" s="60" t="str">
         <f>IF(_data!AS21="","",_data!AS21)</f>
         <v/>
       </c>
-      <c r="AU23" s="59" t="str">
+      <c r="AU23" s="60" t="str">
         <f>IF(_data!AT21="","",_data!AT21)</f>
         <v/>
       </c>
-      <c r="AV23" s="59" t="str">
+      <c r="AV23" s="60" t="str">
         <f>IF(_data!AU21="","",_data!AU21)</f>
         <v/>
       </c>
-      <c r="AW23" s="59" t="str">
+      <c r="AW23" s="60" t="str">
         <f>IF(_data!AV21="","",_data!AV21)</f>
         <v/>
       </c>
-      <c r="AX23" s="59" t="str">
+      <c r="AX23" s="60" t="str">
         <f>IF(_data!AW21="","",_data!AW21)</f>
         <v/>
       </c>
-      <c r="AY23" s="59" t="str">
+      <c r="AY23" s="60" t="str">
         <f>IF(_data!AX21="","",_data!AX21)</f>
         <v/>
       </c>
@@ -23821,203 +23821,203 @@
       <c r="A24" s="55">
         <v>18</v>
       </c>
-      <c r="B24" s="59" t="str">
+      <c r="B24" s="60" t="str">
         <f>IF(_data!A22="","",_data!A22)</f>
         <v/>
       </c>
-      <c r="C24" s="59" t="str">
+      <c r="C24" s="61" t="str">
         <f>IF(_data!B22="","",_data!B22)</f>
         <v/>
       </c>
-      <c r="D24" s="59" t="str">
+      <c r="D24" s="61" t="str">
         <f>IF(_data!C22="","",_data!C22)</f>
         <v/>
       </c>
-      <c r="E24" s="59" t="str">
+      <c r="E24" s="61" t="str">
         <f>IF(_data!D22="","",_data!D22)</f>
         <v/>
       </c>
-      <c r="F24" s="59" t="str">
+      <c r="F24" s="60" t="str">
         <f>IF(_data!E22="","",_data!E22)</f>
         <v/>
       </c>
-      <c r="G24" s="59" t="str">
+      <c r="G24" s="61" t="str">
         <f>IF(_data!F22="","",_data!F22)</f>
         <v/>
       </c>
-      <c r="H24" s="59" t="str">
+      <c r="H24" s="61" t="str">
         <f>IF(_data!G22="","",_data!G22)</f>
         <v/>
       </c>
-      <c r="I24" s="59" t="str">
+      <c r="I24" s="61" t="str">
         <f>IF(_data!H22="","",_data!H22)</f>
         <v/>
       </c>
-      <c r="J24" s="59" t="str">
+      <c r="J24" s="60" t="str">
         <f>IF(_data!I22="","",_data!I22)</f>
         <v/>
       </c>
-      <c r="K24" s="59" t="str">
+      <c r="K24" s="61" t="str">
         <f>IF(_data!J22="","",_data!J22)</f>
         <v/>
       </c>
-      <c r="L24" s="59" t="str">
+      <c r="L24" s="61" t="str">
         <f>IF(_data!K22="","",_data!K22)</f>
         <v/>
       </c>
-      <c r="M24" s="59" t="str">
+      <c r="M24" s="61" t="str">
         <f>IF(_data!L22="","",_data!L22)</f>
         <v/>
       </c>
-      <c r="N24" s="59" t="str">
+      <c r="N24" s="60" t="str">
         <f>IF(_data!M22="","",_data!M22)</f>
         <v/>
       </c>
-      <c r="O24" s="59" t="str">
+      <c r="O24" s="60" t="str">
         <f>IF(_data!N22="","",_data!N22)</f>
         <v/>
       </c>
-      <c r="P24" s="59" t="str">
+      <c r="P24" s="60" t="str">
         <f>IF(_data!O22="","",_data!O22)</f>
         <v/>
       </c>
-      <c r="Q24" s="59" t="str">
+      <c r="Q24" s="60" t="str">
         <f>IF(_data!P22="","",_data!P22)</f>
         <v/>
       </c>
-      <c r="R24" s="59" t="str">
+      <c r="R24" s="60" t="str">
         <f>IF(_data!Q22="","",_data!Q22)</f>
         <v/>
       </c>
-      <c r="S24" s="59" t="str">
+      <c r="S24" s="60" t="str">
         <f>IF(_data!R22="","",_data!R22)</f>
         <v/>
       </c>
-      <c r="T24" s="59" t="str">
+      <c r="T24" s="60" t="str">
         <f>IF(_data!S22="","",_data!S22)</f>
         <v/>
       </c>
-      <c r="U24" s="59" t="str">
+      <c r="U24" s="60" t="str">
         <f>IF(_data!T22="","",_data!T22)</f>
         <v/>
       </c>
-      <c r="V24" s="59" t="str">
+      <c r="V24" s="60" t="str">
         <f>IF(_data!U22="","",_data!U22)</f>
         <v/>
       </c>
-      <c r="W24" s="59" t="str">
+      <c r="W24" s="60" t="str">
         <f>IF(_data!V22="","",_data!V22)</f>
         <v/>
       </c>
-      <c r="X24" s="59" t="str">
+      <c r="X24" s="60" t="str">
         <f>IF(_data!W22="","",_data!W22)</f>
         <v/>
       </c>
-      <c r="Y24" s="59" t="str">
+      <c r="Y24" s="60" t="str">
         <f>IF(_data!X22="","",_data!X22)</f>
         <v/>
       </c>
-      <c r="Z24" s="59" t="str">
+      <c r="Z24" s="60" t="str">
         <f>IF(_data!Y22="","",_data!Y22)</f>
         <v/>
       </c>
-      <c r="AA24" s="59" t="str">
+      <c r="AA24" s="60" t="str">
         <f>IF(_data!Z22="","",_data!Z22)</f>
         <v/>
       </c>
-      <c r="AB24" s="59" t="str">
+      <c r="AB24" s="60" t="str">
         <f>IF(_data!AA22="","",_data!AA22)</f>
         <v/>
       </c>
-      <c r="AC24" s="59" t="str">
+      <c r="AC24" s="60" t="str">
         <f>IF(_data!AB22="","",_data!AB22)</f>
         <v/>
       </c>
-      <c r="AD24" s="59" t="str">
+      <c r="AD24" s="60" t="str">
         <f>IF(_data!AC22="","",_data!AC22)</f>
         <v/>
       </c>
-      <c r="AE24" s="59" t="str">
+      <c r="AE24" s="60" t="str">
         <f>IF(_data!AD22="","",_data!AD22)</f>
         <v/>
       </c>
-      <c r="AF24" s="59" t="str">
+      <c r="AF24" s="60" t="str">
         <f>IF(_data!AE22="","",_data!AE22)</f>
         <v/>
       </c>
-      <c r="AG24" s="59" t="str">
+      <c r="AG24" s="60" t="str">
         <f>IF(_data!AF22="","",_data!AF22)</f>
         <v/>
       </c>
-      <c r="AH24" s="59" t="str">
+      <c r="AH24" s="60" t="str">
         <f>IF(_data!AG22="","",_data!AG22)</f>
         <v/>
       </c>
-      <c r="AI24" s="59" t="str">
+      <c r="AI24" s="60" t="str">
         <f>IF(_data!AH22="","",_data!AH22)</f>
         <v/>
       </c>
-      <c r="AJ24" s="59" t="str">
+      <c r="AJ24" s="60" t="str">
         <f>IF(_data!AI22="","",_data!AI22)</f>
         <v/>
       </c>
-      <c r="AK24" s="59" t="str">
+      <c r="AK24" s="60" t="str">
         <f>IF(_data!AJ22="","",_data!AJ22)</f>
         <v/>
       </c>
-      <c r="AL24" s="59" t="str">
+      <c r="AL24" s="60" t="str">
         <f>IF(_data!AK22="","",_data!AK22)</f>
         <v/>
       </c>
-      <c r="AM24" s="59" t="str">
+      <c r="AM24" s="60" t="str">
         <f>IF(_data!AL22="","",_data!AL22)</f>
         <v/>
       </c>
-      <c r="AN24" s="59" t="str">
+      <c r="AN24" s="60" t="str">
         <f>IF(_data!AM22="","",_data!AM22)</f>
         <v/>
       </c>
-      <c r="AO24" s="59" t="str">
+      <c r="AO24" s="60" t="str">
         <f>IF(_data!AN22="","",_data!AN22)</f>
         <v/>
       </c>
-      <c r="AP24" s="59" t="str">
+      <c r="AP24" s="60" t="str">
         <f>IF(_data!AO22="","",_data!AO22)</f>
         <v/>
       </c>
-      <c r="AQ24" s="59" t="str">
+      <c r="AQ24" s="60" t="str">
         <f>IF(_data!AP22="","",_data!AP22)</f>
         <v/>
       </c>
-      <c r="AR24" s="59" t="str">
+      <c r="AR24" s="60" t="str">
         <f>IF(_data!AQ22="","",_data!AQ22)</f>
         <v/>
       </c>
-      <c r="AS24" s="59" t="str">
+      <c r="AS24" s="60" t="str">
         <f>IF(_data!AR22="","",_data!AR22)</f>
         <v/>
       </c>
-      <c r="AT24" s="59" t="str">
+      <c r="AT24" s="60" t="str">
         <f>IF(_data!AS22="","",_data!AS22)</f>
         <v/>
       </c>
-      <c r="AU24" s="59" t="str">
+      <c r="AU24" s="60" t="str">
         <f>IF(_data!AT22="","",_data!AT22)</f>
         <v/>
       </c>
-      <c r="AV24" s="59" t="str">
+      <c r="AV24" s="60" t="str">
         <f>IF(_data!AU22="","",_data!AU22)</f>
         <v/>
       </c>
-      <c r="AW24" s="59" t="str">
+      <c r="AW24" s="60" t="str">
         <f>IF(_data!AV22="","",_data!AV22)</f>
         <v/>
       </c>
-      <c r="AX24" s="59" t="str">
+      <c r="AX24" s="60" t="str">
         <f>IF(_data!AW22="","",_data!AW22)</f>
         <v/>
       </c>
-      <c r="AY24" s="59" t="str">
+      <c r="AY24" s="60" t="str">
         <f>IF(_data!AX22="","",_data!AX22)</f>
         <v/>
       </c>
@@ -24030,203 +24030,203 @@
       <c r="A25" s="55">
         <v>19</v>
       </c>
-      <c r="B25" s="59" t="str">
+      <c r="B25" s="60" t="str">
         <f>IF(_data!A23="","",_data!A23)</f>
         <v/>
       </c>
-      <c r="C25" s="59" t="str">
+      <c r="C25" s="61" t="str">
         <f>IF(_data!B23="","",_data!B23)</f>
         <v/>
       </c>
-      <c r="D25" s="59" t="str">
+      <c r="D25" s="61" t="str">
         <f>IF(_data!C23="","",_data!C23)</f>
         <v/>
       </c>
-      <c r="E25" s="59" t="str">
+      <c r="E25" s="61" t="str">
         <f>IF(_data!D23="","",_data!D23)</f>
         <v/>
       </c>
-      <c r="F25" s="59" t="str">
+      <c r="F25" s="60" t="str">
         <f>IF(_data!E23="","",_data!E23)</f>
         <v/>
       </c>
-      <c r="G25" s="59" t="str">
+      <c r="G25" s="61" t="str">
         <f>IF(_data!F23="","",_data!F23)</f>
         <v/>
       </c>
-      <c r="H25" s="59" t="str">
+      <c r="H25" s="61" t="str">
         <f>IF(_data!G23="","",_data!G23)</f>
         <v/>
       </c>
-      <c r="I25" s="59" t="str">
+      <c r="I25" s="61" t="str">
         <f>IF(_data!H23="","",_data!H23)</f>
         <v/>
       </c>
-      <c r="J25" s="59" t="str">
+      <c r="J25" s="60" t="str">
         <f>IF(_data!I23="","",_data!I23)</f>
         <v/>
       </c>
-      <c r="K25" s="59" t="str">
+      <c r="K25" s="61" t="str">
         <f>IF(_data!J23="","",_data!J23)</f>
         <v/>
       </c>
-      <c r="L25" s="59" t="str">
+      <c r="L25" s="61" t="str">
         <f>IF(_data!K23="","",_data!K23)</f>
         <v/>
       </c>
-      <c r="M25" s="59" t="str">
+      <c r="M25" s="61" t="str">
         <f>IF(_data!L23="","",_data!L23)</f>
         <v/>
       </c>
-      <c r="N25" s="59" t="str">
+      <c r="N25" s="60" t="str">
         <f>IF(_data!M23="","",_data!M23)</f>
         <v/>
       </c>
-      <c r="O25" s="59" t="str">
+      <c r="O25" s="60" t="str">
         <f>IF(_data!N23="","",_data!N23)</f>
         <v/>
       </c>
-      <c r="P25" s="59" t="str">
+      <c r="P25" s="60" t="str">
         <f>IF(_data!O23="","",_data!O23)</f>
         <v/>
       </c>
-      <c r="Q25" s="59" t="str">
+      <c r="Q25" s="60" t="str">
         <f>IF(_data!P23="","",_data!P23)</f>
         <v/>
       </c>
-      <c r="R25" s="59" t="str">
+      <c r="R25" s="60" t="str">
         <f>IF(_data!Q23="","",_data!Q23)</f>
         <v/>
       </c>
-      <c r="S25" s="59" t="str">
+      <c r="S25" s="60" t="str">
         <f>IF(_data!R23="","",_data!R23)</f>
         <v/>
       </c>
-      <c r="T25" s="59" t="str">
+      <c r="T25" s="60" t="str">
         <f>IF(_data!S23="","",_data!S23)</f>
         <v/>
       </c>
-      <c r="U25" s="59" t="str">
+      <c r="U25" s="60" t="str">
         <f>IF(_data!T23="","",_data!T23)</f>
         <v/>
       </c>
-      <c r="V25" s="59" t="str">
+      <c r="V25" s="60" t="str">
         <f>IF(_data!U23="","",_data!U23)</f>
         <v/>
       </c>
-      <c r="W25" s="59" t="str">
+      <c r="W25" s="60" t="str">
         <f>IF(_data!V23="","",_data!V23)</f>
         <v/>
       </c>
-      <c r="X25" s="59" t="str">
+      <c r="X25" s="60" t="str">
         <f>IF(_data!W23="","",_data!W23)</f>
         <v/>
       </c>
-      <c r="Y25" s="59" t="str">
+      <c r="Y25" s="60" t="str">
         <f>IF(_data!X23="","",_data!X23)</f>
         <v/>
       </c>
-      <c r="Z25" s="59" t="str">
+      <c r="Z25" s="60" t="str">
         <f>IF(_data!Y23="","",_data!Y23)</f>
         <v/>
       </c>
-      <c r="AA25" s="59" t="str">
+      <c r="AA25" s="60" t="str">
         <f>IF(_data!Z23="","",_data!Z23)</f>
         <v/>
       </c>
-      <c r="AB25" s="59" t="str">
+      <c r="AB25" s="60" t="str">
         <f>IF(_data!AA23="","",_data!AA23)</f>
         <v/>
       </c>
-      <c r="AC25" s="59" t="str">
+      <c r="AC25" s="60" t="str">
         <f>IF(_data!AB23="","",_data!AB23)</f>
         <v/>
       </c>
-      <c r="AD25" s="59" t="str">
+      <c r="AD25" s="60" t="str">
         <f>IF(_data!AC23="","",_data!AC23)</f>
         <v/>
       </c>
-      <c r="AE25" s="59" t="str">
+      <c r="AE25" s="60" t="str">
         <f>IF(_data!AD23="","",_data!AD23)</f>
         <v/>
       </c>
-      <c r="AF25" s="59" t="str">
+      <c r="AF25" s="60" t="str">
         <f>IF(_data!AE23="","",_data!AE23)</f>
         <v/>
       </c>
-      <c r="AG25" s="59" t="str">
+      <c r="AG25" s="60" t="str">
         <f>IF(_data!AF23="","",_data!AF23)</f>
         <v/>
       </c>
-      <c r="AH25" s="59" t="str">
+      <c r="AH25" s="60" t="str">
         <f>IF(_data!AG23="","",_data!AG23)</f>
         <v/>
       </c>
-      <c r="AI25" s="59" t="str">
+      <c r="AI25" s="60" t="str">
         <f>IF(_data!AH23="","",_data!AH23)</f>
         <v/>
       </c>
-      <c r="AJ25" s="59" t="str">
+      <c r="AJ25" s="60" t="str">
         <f>IF(_data!AI23="","",_data!AI23)</f>
         <v/>
       </c>
-      <c r="AK25" s="59" t="str">
+      <c r="AK25" s="60" t="str">
         <f>IF(_data!AJ23="","",_data!AJ23)</f>
         <v/>
       </c>
-      <c r="AL25" s="59" t="str">
+      <c r="AL25" s="60" t="str">
         <f>IF(_data!AK23="","",_data!AK23)</f>
         <v/>
       </c>
-      <c r="AM25" s="59" t="str">
+      <c r="AM25" s="60" t="str">
         <f>IF(_data!AL23="","",_data!AL23)</f>
         <v/>
       </c>
-      <c r="AN25" s="59" t="str">
+      <c r="AN25" s="60" t="str">
         <f>IF(_data!AM23="","",_data!AM23)</f>
         <v/>
       </c>
-      <c r="AO25" s="59" t="str">
+      <c r="AO25" s="60" t="str">
         <f>IF(_data!AN23="","",_data!AN23)</f>
         <v/>
       </c>
-      <c r="AP25" s="59" t="str">
+      <c r="AP25" s="60" t="str">
         <f>IF(_data!AO23="","",_data!AO23)</f>
         <v/>
       </c>
-      <c r="AQ25" s="59" t="str">
+      <c r="AQ25" s="60" t="str">
         <f>IF(_data!AP23="","",_data!AP23)</f>
         <v/>
       </c>
-      <c r="AR25" s="59" t="str">
+      <c r="AR25" s="60" t="str">
         <f>IF(_data!AQ23="","",_data!AQ23)</f>
         <v/>
       </c>
-      <c r="AS25" s="59" t="str">
+      <c r="AS25" s="60" t="str">
         <f>IF(_data!AR23="","",_data!AR23)</f>
         <v/>
       </c>
-      <c r="AT25" s="59" t="str">
+      <c r="AT25" s="60" t="str">
         <f>IF(_data!AS23="","",_data!AS23)</f>
         <v/>
       </c>
-      <c r="AU25" s="59" t="str">
+      <c r="AU25" s="60" t="str">
         <f>IF(_data!AT23="","",_data!AT23)</f>
         <v/>
       </c>
-      <c r="AV25" s="59" t="str">
+      <c r="AV25" s="60" t="str">
         <f>IF(_data!AU23="","",_data!AU23)</f>
         <v/>
       </c>
-      <c r="AW25" s="59" t="str">
+      <c r="AW25" s="60" t="str">
         <f>IF(_data!AV23="","",_data!AV23)</f>
         <v/>
       </c>
-      <c r="AX25" s="59" t="str">
+      <c r="AX25" s="60" t="str">
         <f>IF(_data!AW23="","",_data!AW23)</f>
         <v/>
       </c>
-      <c r="AY25" s="59" t="str">
+      <c r="AY25" s="60" t="str">
         <f>IF(_data!AX23="","",_data!AX23)</f>
         <v/>
       </c>
@@ -24239,203 +24239,203 @@
       <c r="A26" s="55">
         <v>20</v>
       </c>
-      <c r="B26" s="59" t="str">
+      <c r="B26" s="60" t="str">
         <f>IF(_data!A24="","",_data!A24)</f>
         <v/>
       </c>
-      <c r="C26" s="59" t="str">
+      <c r="C26" s="61" t="str">
         <f>IF(_data!B24="","",_data!B24)</f>
         <v/>
       </c>
-      <c r="D26" s="59" t="str">
+      <c r="D26" s="61" t="str">
         <f>IF(_data!C24="","",_data!C24)</f>
         <v/>
       </c>
-      <c r="E26" s="59" t="str">
+      <c r="E26" s="61" t="str">
         <f>IF(_data!D24="","",_data!D24)</f>
         <v/>
       </c>
-      <c r="F26" s="59" t="str">
+      <c r="F26" s="60" t="str">
         <f>IF(_data!E24="","",_data!E24)</f>
         <v/>
       </c>
-      <c r="G26" s="59" t="str">
+      <c r="G26" s="61" t="str">
         <f>IF(_data!F24="","",_data!F24)</f>
         <v/>
       </c>
-      <c r="H26" s="59" t="str">
+      <c r="H26" s="61" t="str">
         <f>IF(_data!G24="","",_data!G24)</f>
         <v/>
       </c>
-      <c r="I26" s="59" t="str">
+      <c r="I26" s="61" t="str">
         <f>IF(_data!H24="","",_data!H24)</f>
         <v/>
       </c>
-      <c r="J26" s="59" t="str">
+      <c r="J26" s="60" t="str">
         <f>IF(_data!I24="","",_data!I24)</f>
         <v/>
       </c>
-      <c r="K26" s="59" t="str">
+      <c r="K26" s="61" t="str">
         <f>IF(_data!J24="","",_data!J24)</f>
         <v/>
       </c>
-      <c r="L26" s="59" t="str">
+      <c r="L26" s="61" t="str">
         <f>IF(_data!K24="","",_data!K24)</f>
         <v/>
       </c>
-      <c r="M26" s="59" t="str">
+      <c r="M26" s="61" t="str">
         <f>IF(_data!L24="","",_data!L24)</f>
         <v/>
       </c>
-      <c r="N26" s="59" t="str">
+      <c r="N26" s="60" t="str">
         <f>IF(_data!M24="","",_data!M24)</f>
         <v/>
       </c>
-      <c r="O26" s="59" t="str">
+      <c r="O26" s="60" t="str">
         <f>IF(_data!N24="","",_data!N24)</f>
         <v/>
       </c>
-      <c r="P26" s="59" t="str">
+      <c r="P26" s="60" t="str">
         <f>IF(_data!O24="","",_data!O24)</f>
         <v/>
       </c>
-      <c r="Q26" s="59" t="str">
+      <c r="Q26" s="60" t="str">
         <f>IF(_data!P24="","",_data!P24)</f>
         <v/>
       </c>
-      <c r="R26" s="59" t="str">
+      <c r="R26" s="60" t="str">
         <f>IF(_data!Q24="","",_data!Q24)</f>
         <v/>
       </c>
-      <c r="S26" s="59" t="str">
+      <c r="S26" s="60" t="str">
         <f>IF(_data!R24="","",_data!R24)</f>
         <v/>
       </c>
-      <c r="T26" s="59" t="str">
+      <c r="T26" s="60" t="str">
         <f>IF(_data!S24="","",_data!S24)</f>
         <v/>
       </c>
-      <c r="U26" s="59" t="str">
+      <c r="U26" s="60" t="str">
         <f>IF(_data!T24="","",_data!T24)</f>
         <v/>
       </c>
-      <c r="V26" s="59" t="str">
+      <c r="V26" s="60" t="str">
         <f>IF(_data!U24="","",_data!U24)</f>
         <v/>
       </c>
-      <c r="W26" s="59" t="str">
+      <c r="W26" s="60" t="str">
         <f>IF(_data!V24="","",_data!V24)</f>
         <v/>
       </c>
-      <c r="X26" s="59" t="str">
+      <c r="X26" s="60" t="str">
         <f>IF(_data!W24="","",_data!W24)</f>
         <v/>
       </c>
-      <c r="Y26" s="59" t="str">
+      <c r="Y26" s="60" t="str">
         <f>IF(_data!X24="","",_data!X24)</f>
         <v/>
       </c>
-      <c r="Z26" s="59" t="str">
+      <c r="Z26" s="60" t="str">
         <f>IF(_data!Y24="","",_data!Y24)</f>
         <v/>
       </c>
-      <c r="AA26" s="59" t="str">
+      <c r="AA26" s="60" t="str">
         <f>IF(_data!Z24="","",_data!Z24)</f>
         <v/>
       </c>
-      <c r="AB26" s="59" t="str">
+      <c r="AB26" s="60" t="str">
         <f>IF(_data!AA24="","",_data!AA24)</f>
         <v/>
       </c>
-      <c r="AC26" s="59" t="str">
+      <c r="AC26" s="60" t="str">
         <f>IF(_data!AB24="","",_data!AB24)</f>
         <v/>
       </c>
-      <c r="AD26" s="59" t="str">
+      <c r="AD26" s="60" t="str">
         <f>IF(_data!AC24="","",_data!AC24)</f>
         <v/>
       </c>
-      <c r="AE26" s="59" t="str">
+      <c r="AE26" s="60" t="str">
         <f>IF(_data!AD24="","",_data!AD24)</f>
         <v/>
       </c>
-      <c r="AF26" s="59" t="str">
+      <c r="AF26" s="60" t="str">
         <f>IF(_data!AE24="","",_data!AE24)</f>
         <v/>
       </c>
-      <c r="AG26" s="59" t="str">
+      <c r="AG26" s="60" t="str">
         <f>IF(_data!AF24="","",_data!AF24)</f>
         <v/>
       </c>
-      <c r="AH26" s="59" t="str">
+      <c r="AH26" s="60" t="str">
         <f>IF(_data!AG24="","",_data!AG24)</f>
         <v/>
       </c>
-      <c r="AI26" s="59" t="str">
+      <c r="AI26" s="60" t="str">
         <f>IF(_data!AH24="","",_data!AH24)</f>
         <v/>
       </c>
-      <c r="AJ26" s="59" t="str">
+      <c r="AJ26" s="60" t="str">
         <f>IF(_data!AI24="","",_data!AI24)</f>
         <v/>
       </c>
-      <c r="AK26" s="59" t="str">
+      <c r="AK26" s="60" t="str">
         <f>IF(_data!AJ24="","",_data!AJ24)</f>
         <v/>
       </c>
-      <c r="AL26" s="59" t="str">
+      <c r="AL26" s="60" t="str">
         <f>IF(_data!AK24="","",_data!AK24)</f>
         <v/>
       </c>
-      <c r="AM26" s="59" t="str">
+      <c r="AM26" s="60" t="str">
         <f>IF(_data!AL24="","",_data!AL24)</f>
         <v/>
       </c>
-      <c r="AN26" s="59" t="str">
+      <c r="AN26" s="60" t="str">
         <f>IF(_data!AM24="","",_data!AM24)</f>
         <v/>
       </c>
-      <c r="AO26" s="59" t="str">
+      <c r="AO26" s="60" t="str">
         <f>IF(_data!AN24="","",_data!AN24)</f>
         <v/>
       </c>
-      <c r="AP26" s="59" t="str">
+      <c r="AP26" s="60" t="str">
         <f>IF(_data!AO24="","",_data!AO24)</f>
         <v/>
       </c>
-      <c r="AQ26" s="59" t="str">
+      <c r="AQ26" s="60" t="str">
         <f>IF(_data!AP24="","",_data!AP24)</f>
         <v/>
       </c>
-      <c r="AR26" s="59" t="str">
+      <c r="AR26" s="60" t="str">
         <f>IF(_data!AQ24="","",_data!AQ24)</f>
         <v/>
       </c>
-      <c r="AS26" s="59" t="str">
+      <c r="AS26" s="60" t="str">
         <f>IF(_data!AR24="","",_data!AR24)</f>
         <v/>
       </c>
-      <c r="AT26" s="59" t="str">
+      <c r="AT26" s="60" t="str">
         <f>IF(_data!AS24="","",_data!AS24)</f>
         <v/>
       </c>
-      <c r="AU26" s="59" t="str">
+      <c r="AU26" s="60" t="str">
         <f>IF(_data!AT24="","",_data!AT24)</f>
         <v/>
       </c>
-      <c r="AV26" s="59" t="str">
+      <c r="AV26" s="60" t="str">
         <f>IF(_data!AU24="","",_data!AU24)</f>
         <v/>
       </c>
-      <c r="AW26" s="59" t="str">
+      <c r="AW26" s="60" t="str">
         <f>IF(_data!AV24="","",_data!AV24)</f>
         <v/>
       </c>
-      <c r="AX26" s="59" t="str">
+      <c r="AX26" s="60" t="str">
         <f>IF(_data!AW24="","",_data!AW24)</f>
         <v/>
       </c>
-      <c r="AY26" s="59" t="str">
+      <c r="AY26" s="60" t="str">
         <f>IF(_data!AX24="","",_data!AX24)</f>
         <v/>
       </c>
@@ -24448,203 +24448,203 @@
       <c r="A27" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="57" t="str">
+      <c r="B27" s="58" t="str">
         <f>IF(ISERROR(AVERAGE(B17:B26)),"",AVERAGE(B17:B26))</f>
         <v/>
       </c>
-      <c r="C27" s="57" t="str">
+      <c r="C27" s="59" t="str">
         <f t="shared" ref="C27:AZ27" si="1">IF(ISERROR(AVERAGE(C17:C26)),"",AVERAGE(C17:C26))</f>
         <v/>
       </c>
-      <c r="D27" s="57" t="str">
+      <c r="D27" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E27" s="58" t="str">
+      <c r="E27" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F27" s="57" t="str">
+      <c r="F27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="57" t="str">
+      <c r="G27" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H27" s="57" t="str">
+      <c r="H27" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I27" s="58" t="str">
+      <c r="I27" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J27" s="57" t="str">
+      <c r="J27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K27" s="57" t="str">
+      <c r="K27" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L27" s="57" t="str">
+      <c r="L27" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M27" s="58" t="str">
+      <c r="M27" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N27" s="57" t="str">
+      <c r="N27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O27" s="57" t="str">
+      <c r="O27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P27" s="57" t="str">
+      <c r="P27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q27" s="57" t="str">
+      <c r="Q27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R27" s="57" t="str">
+      <c r="R27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S27" s="57" t="str">
+      <c r="S27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T27" s="57" t="str">
+      <c r="T27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U27" s="57" t="str">
+      <c r="U27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V27" s="57" t="str">
+      <c r="V27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W27" s="57" t="str">
+      <c r="W27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X27" s="57" t="str">
+      <c r="X27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y27" s="57" t="str">
+      <c r="Y27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z27" s="57" t="str">
+      <c r="Z27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA27" s="57" t="str">
+      <c r="AA27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB27" s="57" t="str">
+      <c r="AB27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC27" s="57" t="str">
+      <c r="AC27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD27" s="57" t="str">
+      <c r="AD27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE27" s="57" t="str">
+      <c r="AE27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF27" s="57" t="str">
+      <c r="AF27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG27" s="57" t="str">
+      <c r="AG27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH27" s="57" t="str">
+      <c r="AH27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI27" s="57" t="str">
+      <c r="AI27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ27" s="57" t="str">
+      <c r="AJ27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AK27" s="57" t="str">
+      <c r="AK27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AL27" s="57" t="str">
+      <c r="AL27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AM27" s="57" t="str">
+      <c r="AM27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AN27" s="57" t="str">
+      <c r="AN27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO27" s="57" t="str">
+      <c r="AO27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AP27" s="57" t="str">
+      <c r="AP27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AQ27" s="57" t="str">
+      <c r="AQ27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AR27" s="57" t="str">
+      <c r="AR27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AS27" s="57" t="str">
+      <c r="AS27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AT27" s="57" t="str">
+      <c r="AT27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AU27" s="57" t="str">
+      <c r="AU27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AV27" s="57" t="str">
+      <c r="AV27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW27" s="57" t="str">
+      <c r="AW27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AX27" s="57" t="str">
+      <c r="AX27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AY27" s="57" t="str">
+      <c r="AY27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -24657,203 +24657,203 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="59" t="str">
+      <c r="B28" s="60" t="str">
         <f>IF(_data!A26="","",_data!A26)</f>
         <v/>
       </c>
-      <c r="C28" s="59" t="str">
+      <c r="C28" s="61" t="str">
         <f>IF(_data!B26="","",_data!B26)</f>
         <v/>
       </c>
-      <c r="D28" s="59" t="str">
+      <c r="D28" s="61" t="str">
         <f>IF(_data!C26="","",_data!C26)</f>
         <v/>
       </c>
-      <c r="E28" s="59" t="str">
+      <c r="E28" s="61" t="str">
         <f>IF(_data!D26="","",_data!D26)</f>
         <v/>
       </c>
-      <c r="F28" s="59" t="str">
+      <c r="F28" s="60" t="str">
         <f>IF(_data!E26="","",_data!E26)</f>
         <v/>
       </c>
-      <c r="G28" s="59" t="str">
+      <c r="G28" s="61" t="str">
         <f>IF(_data!F26="","",_data!F26)</f>
         <v/>
       </c>
-      <c r="H28" s="59" t="str">
+      <c r="H28" s="61" t="str">
         <f>IF(_data!G26="","",_data!G26)</f>
         <v/>
       </c>
-      <c r="I28" s="59" t="str">
+      <c r="I28" s="61" t="str">
         <f>IF(_data!H26="","",_data!H26)</f>
         <v/>
       </c>
-      <c r="J28" s="59" t="str">
+      <c r="J28" s="60" t="str">
         <f>IF(_data!I26="","",_data!I26)</f>
         <v/>
       </c>
-      <c r="K28" s="59" t="str">
+      <c r="K28" s="61" t="str">
         <f>IF(_data!J26="","",_data!J26)</f>
         <v/>
       </c>
-      <c r="L28" s="59" t="str">
+      <c r="L28" s="61" t="str">
         <f>IF(_data!K26="","",_data!K26)</f>
         <v/>
       </c>
-      <c r="M28" s="59" t="str">
+      <c r="M28" s="61" t="str">
         <f>IF(_data!L26="","",_data!L26)</f>
         <v/>
       </c>
-      <c r="N28" s="59" t="str">
+      <c r="N28" s="60" t="str">
         <f>IF(_data!M26="","",_data!M26)</f>
         <v/>
       </c>
-      <c r="O28" s="59" t="str">
+      <c r="O28" s="60" t="str">
         <f>IF(_data!N26="","",_data!N26)</f>
         <v/>
       </c>
-      <c r="P28" s="59" t="str">
+      <c r="P28" s="60" t="str">
         <f>IF(_data!O26="","",_data!O26)</f>
         <v/>
       </c>
-      <c r="Q28" s="59" t="str">
+      <c r="Q28" s="60" t="str">
         <f>IF(_data!P26="","",_data!P26)</f>
         <v/>
       </c>
-      <c r="R28" s="59" t="str">
+      <c r="R28" s="60" t="str">
         <f>IF(_data!Q26="","",_data!Q26)</f>
         <v/>
       </c>
-      <c r="S28" s="59" t="str">
+      <c r="S28" s="60" t="str">
         <f>IF(_data!R26="","",_data!R26)</f>
         <v/>
       </c>
-      <c r="T28" s="59" t="str">
+      <c r="T28" s="60" t="str">
         <f>IF(_data!S26="","",_data!S26)</f>
         <v/>
       </c>
-      <c r="U28" s="59" t="str">
+      <c r="U28" s="60" t="str">
         <f>IF(_data!T26="","",_data!T26)</f>
         <v/>
       </c>
-      <c r="V28" s="59" t="str">
+      <c r="V28" s="60" t="str">
         <f>IF(_data!U26="","",_data!U26)</f>
         <v/>
       </c>
-      <c r="W28" s="59" t="str">
+      <c r="W28" s="60" t="str">
         <f>IF(_data!V26="","",_data!V26)</f>
         <v/>
       </c>
-      <c r="X28" s="59" t="str">
+      <c r="X28" s="60" t="str">
         <f>IF(_data!W26="","",_data!W26)</f>
         <v/>
       </c>
-      <c r="Y28" s="59" t="str">
+      <c r="Y28" s="60" t="str">
         <f>IF(_data!X26="","",_data!X26)</f>
         <v/>
       </c>
-      <c r="Z28" s="59" t="str">
+      <c r="Z28" s="60" t="str">
         <f>IF(_data!Y26="","",_data!Y26)</f>
         <v/>
       </c>
-      <c r="AA28" s="59" t="str">
+      <c r="AA28" s="60" t="str">
         <f>IF(_data!Z26="","",_data!Z26)</f>
         <v/>
       </c>
-      <c r="AB28" s="59" t="str">
+      <c r="AB28" s="60" t="str">
         <f>IF(_data!AA26="","",_data!AA26)</f>
         <v/>
       </c>
-      <c r="AC28" s="59" t="str">
+      <c r="AC28" s="60" t="str">
         <f>IF(_data!AB26="","",_data!AB26)</f>
         <v/>
       </c>
-      <c r="AD28" s="59" t="str">
+      <c r="AD28" s="60" t="str">
         <f>IF(_data!AC26="","",_data!AC26)</f>
         <v/>
       </c>
-      <c r="AE28" s="59" t="str">
+      <c r="AE28" s="60" t="str">
         <f>IF(_data!AD26="","",_data!AD26)</f>
         <v/>
       </c>
-      <c r="AF28" s="59" t="str">
+      <c r="AF28" s="60" t="str">
         <f>IF(_data!AE26="","",_data!AE26)</f>
         <v/>
       </c>
-      <c r="AG28" s="59" t="str">
+      <c r="AG28" s="60" t="str">
         <f>IF(_data!AF26="","",_data!AF26)</f>
         <v/>
       </c>
-      <c r="AH28" s="59" t="str">
+      <c r="AH28" s="60" t="str">
         <f>IF(_data!AG26="","",_data!AG26)</f>
         <v/>
       </c>
-      <c r="AI28" s="59" t="str">
+      <c r="AI28" s="60" t="str">
         <f>IF(_data!AH26="","",_data!AH26)</f>
         <v/>
       </c>
-      <c r="AJ28" s="59" t="str">
+      <c r="AJ28" s="60" t="str">
         <f>IF(_data!AI26="","",_data!AI26)</f>
         <v/>
       </c>
-      <c r="AK28" s="59" t="str">
+      <c r="AK28" s="60" t="str">
         <f>IF(_data!AJ26="","",_data!AJ26)</f>
         <v/>
       </c>
-      <c r="AL28" s="59" t="str">
+      <c r="AL28" s="60" t="str">
         <f>IF(_data!AK26="","",_data!AK26)</f>
         <v/>
       </c>
-      <c r="AM28" s="59" t="str">
+      <c r="AM28" s="60" t="str">
         <f>IF(_data!AL26="","",_data!AL26)</f>
         <v/>
       </c>
-      <c r="AN28" s="59" t="str">
+      <c r="AN28" s="60" t="str">
         <f>IF(_data!AM26="","",_data!AM26)</f>
         <v/>
       </c>
-      <c r="AO28" s="59" t="str">
+      <c r="AO28" s="60" t="str">
         <f>IF(_data!AN26="","",_data!AN26)</f>
         <v/>
       </c>
-      <c r="AP28" s="59" t="str">
+      <c r="AP28" s="60" t="str">
         <f>IF(_data!AO26="","",_data!AO26)</f>
         <v/>
       </c>
-      <c r="AQ28" s="59" t="str">
+      <c r="AQ28" s="60" t="str">
         <f>IF(_data!AP26="","",_data!AP26)</f>
         <v/>
       </c>
-      <c r="AR28" s="59" t="str">
+      <c r="AR28" s="60" t="str">
         <f>IF(_data!AQ26="","",_data!AQ26)</f>
         <v/>
       </c>
-      <c r="AS28" s="59" t="str">
+      <c r="AS28" s="60" t="str">
         <f>IF(_data!AR26="","",_data!AR26)</f>
         <v/>
       </c>
-      <c r="AT28" s="59" t="str">
+      <c r="AT28" s="60" t="str">
         <f>IF(_data!AS26="","",_data!AS26)</f>
         <v/>
       </c>
-      <c r="AU28" s="59" t="str">
+      <c r="AU28" s="60" t="str">
         <f>IF(_data!AT26="","",_data!AT26)</f>
         <v/>
       </c>
-      <c r="AV28" s="59" t="str">
+      <c r="AV28" s="60" t="str">
         <f>IF(_data!AU26="","",_data!AU26)</f>
         <v/>
       </c>
-      <c r="AW28" s="59" t="str">
+      <c r="AW28" s="60" t="str">
         <f>IF(_data!AV26="","",_data!AV26)</f>
         <v/>
       </c>
-      <c r="AX28" s="59" t="str">
+      <c r="AX28" s="60" t="str">
         <f>IF(_data!AW26="","",_data!AW26)</f>
         <v/>
       </c>
-      <c r="AY28" s="59" t="str">
+      <c r="AY28" s="60" t="str">
         <f>IF(_data!AX26="","",_data!AX26)</f>
         <v/>
       </c>
@@ -24866,203 +24866,203 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="59" t="str">
+      <c r="B29" s="60" t="str">
         <f>IF(_data!A27="","",_data!A27)</f>
         <v/>
       </c>
-      <c r="C29" s="59" t="str">
+      <c r="C29" s="61" t="str">
         <f>IF(_data!B27="","",_data!B27)</f>
         <v/>
       </c>
-      <c r="D29" s="59" t="str">
+      <c r="D29" s="61" t="str">
         <f>IF(_data!C27="","",_data!C27)</f>
         <v/>
       </c>
-      <c r="E29" s="59" t="str">
+      <c r="E29" s="61" t="str">
         <f>IF(_data!D27="","",_data!D27)</f>
         <v/>
       </c>
-      <c r="F29" s="59" t="str">
+      <c r="F29" s="60" t="str">
         <f>IF(_data!E27="","",_data!E27)</f>
         <v/>
       </c>
-      <c r="G29" s="59" t="str">
+      <c r="G29" s="61" t="str">
         <f>IF(_data!F27="","",_data!F27)</f>
         <v/>
       </c>
-      <c r="H29" s="59" t="str">
+      <c r="H29" s="61" t="str">
         <f>IF(_data!G27="","",_data!G27)</f>
         <v/>
       </c>
-      <c r="I29" s="59" t="str">
+      <c r="I29" s="61" t="str">
         <f>IF(_data!H27="","",_data!H27)</f>
         <v/>
       </c>
-      <c r="J29" s="59" t="str">
+      <c r="J29" s="60" t="str">
         <f>IF(_data!I27="","",_data!I27)</f>
         <v/>
       </c>
-      <c r="K29" s="59" t="str">
+      <c r="K29" s="61" t="str">
         <f>IF(_data!J27="","",_data!J27)</f>
         <v/>
       </c>
-      <c r="L29" s="59" t="str">
+      <c r="L29" s="61" t="str">
         <f>IF(_data!K27="","",_data!K27)</f>
         <v/>
       </c>
-      <c r="M29" s="59" t="str">
+      <c r="M29" s="61" t="str">
         <f>IF(_data!L27="","",_data!L27)</f>
         <v/>
       </c>
-      <c r="N29" s="59" t="str">
+      <c r="N29" s="60" t="str">
         <f>IF(_data!M27="","",_data!M27)</f>
         <v/>
       </c>
-      <c r="O29" s="59" t="str">
+      <c r="O29" s="60" t="str">
         <f>IF(_data!N27="","",_data!N27)</f>
         <v/>
       </c>
-      <c r="P29" s="59" t="str">
+      <c r="P29" s="60" t="str">
         <f>IF(_data!O27="","",_data!O27)</f>
         <v/>
       </c>
-      <c r="Q29" s="59" t="str">
+      <c r="Q29" s="60" t="str">
         <f>IF(_data!P27="","",_data!P27)</f>
         <v/>
       </c>
-      <c r="R29" s="59" t="str">
+      <c r="R29" s="60" t="str">
         <f>IF(_data!Q27="","",_data!Q27)</f>
         <v/>
       </c>
-      <c r="S29" s="59" t="str">
+      <c r="S29" s="60" t="str">
         <f>IF(_data!R27="","",_data!R27)</f>
         <v/>
       </c>
-      <c r="T29" s="59" t="str">
+      <c r="T29" s="60" t="str">
         <f>IF(_data!S27="","",_data!S27)</f>
         <v/>
       </c>
-      <c r="U29" s="59" t="str">
+      <c r="U29" s="60" t="str">
         <f>IF(_data!T27="","",_data!T27)</f>
         <v/>
       </c>
-      <c r="V29" s="59" t="str">
+      <c r="V29" s="60" t="str">
         <f>IF(_data!U27="","",_data!U27)</f>
         <v/>
       </c>
-      <c r="W29" s="59" t="str">
+      <c r="W29" s="60" t="str">
         <f>IF(_data!V27="","",_data!V27)</f>
         <v/>
       </c>
-      <c r="X29" s="59" t="str">
+      <c r="X29" s="60" t="str">
         <f>IF(_data!W27="","",_data!W27)</f>
         <v/>
       </c>
-      <c r="Y29" s="59" t="str">
+      <c r="Y29" s="60" t="str">
         <f>IF(_data!X27="","",_data!X27)</f>
         <v/>
       </c>
-      <c r="Z29" s="59" t="str">
+      <c r="Z29" s="60" t="str">
         <f>IF(_data!Y27="","",_data!Y27)</f>
         <v/>
       </c>
-      <c r="AA29" s="59" t="str">
+      <c r="AA29" s="60" t="str">
         <f>IF(_data!Z27="","",_data!Z27)</f>
         <v/>
       </c>
-      <c r="AB29" s="59" t="str">
+      <c r="AB29" s="60" t="str">
         <f>IF(_data!AA27="","",_data!AA27)</f>
         <v/>
       </c>
-      <c r="AC29" s="59" t="str">
+      <c r="AC29" s="60" t="str">
         <f>IF(_data!AB27="","",_data!AB27)</f>
         <v/>
       </c>
-      <c r="AD29" s="59" t="str">
+      <c r="AD29" s="60" t="str">
         <f>IF(_data!AC27="","",_data!AC27)</f>
         <v/>
       </c>
-      <c r="AE29" s="59" t="str">
+      <c r="AE29" s="60" t="str">
         <f>IF(_data!AD27="","",_data!AD27)</f>
         <v/>
       </c>
-      <c r="AF29" s="59" t="str">
+      <c r="AF29" s="60" t="str">
         <f>IF(_data!AE27="","",_data!AE27)</f>
         <v/>
       </c>
-      <c r="AG29" s="59" t="str">
+      <c r="AG29" s="60" t="str">
         <f>IF(_data!AF27="","",_data!AF27)</f>
         <v/>
       </c>
-      <c r="AH29" s="59" t="str">
+      <c r="AH29" s="60" t="str">
         <f>IF(_data!AG27="","",_data!AG27)</f>
         <v/>
       </c>
-      <c r="AI29" s="59" t="str">
+      <c r="AI29" s="60" t="str">
         <f>IF(_data!AH27="","",_data!AH27)</f>
         <v/>
       </c>
-      <c r="AJ29" s="59" t="str">
+      <c r="AJ29" s="60" t="str">
         <f>IF(_data!AI27="","",_data!AI27)</f>
         <v/>
       </c>
-      <c r="AK29" s="59" t="str">
+      <c r="AK29" s="60" t="str">
         <f>IF(_data!AJ27="","",_data!AJ27)</f>
         <v/>
       </c>
-      <c r="AL29" s="59" t="str">
+      <c r="AL29" s="60" t="str">
         <f>IF(_data!AK27="","",_data!AK27)</f>
         <v/>
       </c>
-      <c r="AM29" s="59" t="str">
+      <c r="AM29" s="60" t="str">
         <f>IF(_data!AL27="","",_data!AL27)</f>
         <v/>
       </c>
-      <c r="AN29" s="59" t="str">
+      <c r="AN29" s="60" t="str">
         <f>IF(_data!AM27="","",_data!AM27)</f>
         <v/>
       </c>
-      <c r="AO29" s="59" t="str">
+      <c r="AO29" s="60" t="str">
         <f>IF(_data!AN27="","",_data!AN27)</f>
         <v/>
       </c>
-      <c r="AP29" s="59" t="str">
+      <c r="AP29" s="60" t="str">
         <f>IF(_data!AO27="","",_data!AO27)</f>
         <v/>
       </c>
-      <c r="AQ29" s="59" t="str">
+      <c r="AQ29" s="60" t="str">
         <f>IF(_data!AP27="","",_data!AP27)</f>
         <v/>
       </c>
-      <c r="AR29" s="59" t="str">
+      <c r="AR29" s="60" t="str">
         <f>IF(_data!AQ27="","",_data!AQ27)</f>
         <v/>
       </c>
-      <c r="AS29" s="59" t="str">
+      <c r="AS29" s="60" t="str">
         <f>IF(_data!AR27="","",_data!AR27)</f>
         <v/>
       </c>
-      <c r="AT29" s="59" t="str">
+      <c r="AT29" s="60" t="str">
         <f>IF(_data!AS27="","",_data!AS27)</f>
         <v/>
       </c>
-      <c r="AU29" s="59" t="str">
+      <c r="AU29" s="60" t="str">
         <f>IF(_data!AT27="","",_data!AT27)</f>
         <v/>
       </c>
-      <c r="AV29" s="59" t="str">
+      <c r="AV29" s="60" t="str">
         <f>IF(_data!AU27="","",_data!AU27)</f>
         <v/>
       </c>
-      <c r="AW29" s="59" t="str">
+      <c r="AW29" s="60" t="str">
         <f>IF(_data!AV27="","",_data!AV27)</f>
         <v/>
       </c>
-      <c r="AX29" s="59" t="str">
+      <c r="AX29" s="60" t="str">
         <f>IF(_data!AW27="","",_data!AW27)</f>
         <v/>
       </c>
-      <c r="AY29" s="59" t="str">
+      <c r="AY29" s="60" t="str">
         <f>IF(_data!AX27="","",_data!AX27)</f>
         <v/>
       </c>
@@ -25075,203 +25075,203 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="59" t="str">
+      <c r="B30" s="60" t="str">
         <f>IF(_data!A28="","",_data!A28)</f>
         <v/>
       </c>
-      <c r="C30" s="59" t="str">
+      <c r="C30" s="61" t="str">
         <f>IF(_data!B28="","",_data!B28)</f>
         <v/>
       </c>
-      <c r="D30" s="59" t="str">
+      <c r="D30" s="61" t="str">
         <f>IF(_data!C28="","",_data!C28)</f>
         <v/>
       </c>
-      <c r="E30" s="59" t="str">
+      <c r="E30" s="61" t="str">
         <f>IF(_data!D28="","",_data!D28)</f>
         <v/>
       </c>
-      <c r="F30" s="59" t="str">
+      <c r="F30" s="60" t="str">
         <f>IF(_data!E28="","",_data!E28)</f>
         <v/>
       </c>
-      <c r="G30" s="59" t="str">
+      <c r="G30" s="61" t="str">
         <f>IF(_data!F28="","",_data!F28)</f>
         <v/>
       </c>
-      <c r="H30" s="59" t="str">
+      <c r="H30" s="61" t="str">
         <f>IF(_data!G28="","",_data!G28)</f>
         <v/>
       </c>
-      <c r="I30" s="59" t="str">
+      <c r="I30" s="61" t="str">
         <f>IF(_data!H28="","",_data!H28)</f>
         <v/>
       </c>
-      <c r="J30" s="59" t="str">
+      <c r="J30" s="60" t="str">
         <f>IF(_data!I28="","",_data!I28)</f>
         <v/>
       </c>
-      <c r="K30" s="59" t="str">
+      <c r="K30" s="61" t="str">
         <f>IF(_data!J28="","",_data!J28)</f>
         <v/>
       </c>
-      <c r="L30" s="59" t="str">
+      <c r="L30" s="61" t="str">
         <f>IF(_data!K28="","",_data!K28)</f>
         <v/>
       </c>
-      <c r="M30" s="59" t="str">
+      <c r="M30" s="61" t="str">
         <f>IF(_data!L28="","",_data!L28)</f>
         <v/>
       </c>
-      <c r="N30" s="59" t="str">
+      <c r="N30" s="60" t="str">
         <f>IF(_data!M28="","",_data!M28)</f>
         <v/>
       </c>
-      <c r="O30" s="59" t="str">
+      <c r="O30" s="60" t="str">
         <f>IF(_data!N28="","",_data!N28)</f>
         <v/>
       </c>
-      <c r="P30" s="59" t="str">
+      <c r="P30" s="60" t="str">
         <f>IF(_data!O28="","",_data!O28)</f>
         <v/>
       </c>
-      <c r="Q30" s="59" t="str">
+      <c r="Q30" s="60" t="str">
         <f>IF(_data!P28="","",_data!P28)</f>
         <v/>
       </c>
-      <c r="R30" s="59" t="str">
+      <c r="R30" s="60" t="str">
         <f>IF(_data!Q28="","",_data!Q28)</f>
         <v/>
       </c>
-      <c r="S30" s="59" t="str">
+      <c r="S30" s="60" t="str">
         <f>IF(_data!R28="","",_data!R28)</f>
         <v/>
       </c>
-      <c r="T30" s="59" t="str">
+      <c r="T30" s="60" t="str">
         <f>IF(_data!S28="","",_data!S28)</f>
         <v/>
       </c>
-      <c r="U30" s="59" t="str">
+      <c r="U30" s="60" t="str">
         <f>IF(_data!T28="","",_data!T28)</f>
         <v/>
       </c>
-      <c r="V30" s="59" t="str">
+      <c r="V30" s="60" t="str">
         <f>IF(_data!U28="","",_data!U28)</f>
         <v/>
       </c>
-      <c r="W30" s="59" t="str">
+      <c r="W30" s="60" t="str">
         <f>IF(_data!V28="","",_data!V28)</f>
         <v/>
       </c>
-      <c r="X30" s="59" t="str">
+      <c r="X30" s="60" t="str">
         <f>IF(_data!W28="","",_data!W28)</f>
         <v/>
       </c>
-      <c r="Y30" s="59" t="str">
+      <c r="Y30" s="60" t="str">
         <f>IF(_data!X28="","",_data!X28)</f>
         <v/>
       </c>
-      <c r="Z30" s="59" t="str">
+      <c r="Z30" s="60" t="str">
         <f>IF(_data!Y28="","",_data!Y28)</f>
         <v/>
       </c>
-      <c r="AA30" s="59" t="str">
+      <c r="AA30" s="60" t="str">
         <f>IF(_data!Z28="","",_data!Z28)</f>
         <v/>
       </c>
-      <c r="AB30" s="59" t="str">
+      <c r="AB30" s="60" t="str">
         <f>IF(_data!AA28="","",_data!AA28)</f>
         <v/>
       </c>
-      <c r="AC30" s="59" t="str">
+      <c r="AC30" s="60" t="str">
         <f>IF(_data!AB28="","",_data!AB28)</f>
         <v/>
       </c>
-      <c r="AD30" s="59" t="str">
+      <c r="AD30" s="60" t="str">
         <f>IF(_data!AC28="","",_data!AC28)</f>
         <v/>
       </c>
-      <c r="AE30" s="59" t="str">
+      <c r="AE30" s="60" t="str">
         <f>IF(_data!AD28="","",_data!AD28)</f>
         <v/>
       </c>
-      <c r="AF30" s="59" t="str">
+      <c r="AF30" s="60" t="str">
         <f>IF(_data!AE28="","",_data!AE28)</f>
         <v/>
       </c>
-      <c r="AG30" s="59" t="str">
+      <c r="AG30" s="60" t="str">
         <f>IF(_data!AF28="","",_data!AF28)</f>
         <v/>
       </c>
-      <c r="AH30" s="59" t="str">
+      <c r="AH30" s="60" t="str">
         <f>IF(_data!AG28="","",_data!AG28)</f>
         <v/>
       </c>
-      <c r="AI30" s="59" t="str">
+      <c r="AI30" s="60" t="str">
         <f>IF(_data!AH28="","",_data!AH28)</f>
         <v/>
       </c>
-      <c r="AJ30" s="59" t="str">
+      <c r="AJ30" s="60" t="str">
         <f>IF(_data!AI28="","",_data!AI28)</f>
         <v/>
       </c>
-      <c r="AK30" s="59" t="str">
+      <c r="AK30" s="60" t="str">
         <f>IF(_data!AJ28="","",_data!AJ28)</f>
         <v/>
       </c>
-      <c r="AL30" s="59" t="str">
+      <c r="AL30" s="60" t="str">
         <f>IF(_data!AK28="","",_data!AK28)</f>
         <v/>
       </c>
-      <c r="AM30" s="59" t="str">
+      <c r="AM30" s="60" t="str">
         <f>IF(_data!AL28="","",_data!AL28)</f>
         <v/>
       </c>
-      <c r="AN30" s="59" t="str">
+      <c r="AN30" s="60" t="str">
         <f>IF(_data!AM28="","",_data!AM28)</f>
         <v/>
       </c>
-      <c r="AO30" s="59" t="str">
+      <c r="AO30" s="60" t="str">
         <f>IF(_data!AN28="","",_data!AN28)</f>
         <v/>
       </c>
-      <c r="AP30" s="59" t="str">
+      <c r="AP30" s="60" t="str">
         <f>IF(_data!AO28="","",_data!AO28)</f>
         <v/>
       </c>
-      <c r="AQ30" s="59" t="str">
+      <c r="AQ30" s="60" t="str">
         <f>IF(_data!AP28="","",_data!AP28)</f>
         <v/>
       </c>
-      <c r="AR30" s="59" t="str">
+      <c r="AR30" s="60" t="str">
         <f>IF(_data!AQ28="","",_data!AQ28)</f>
         <v/>
       </c>
-      <c r="AS30" s="59" t="str">
+      <c r="AS30" s="60" t="str">
         <f>IF(_data!AR28="","",_data!AR28)</f>
         <v/>
       </c>
-      <c r="AT30" s="59" t="str">
+      <c r="AT30" s="60" t="str">
         <f>IF(_data!AS28="","",_data!AS28)</f>
         <v/>
       </c>
-      <c r="AU30" s="59" t="str">
+      <c r="AU30" s="60" t="str">
         <f>IF(_data!AT28="","",_data!AT28)</f>
         <v/>
       </c>
-      <c r="AV30" s="59" t="str">
+      <c r="AV30" s="60" t="str">
         <f>IF(_data!AU28="","",_data!AU28)</f>
         <v/>
       </c>
-      <c r="AW30" s="59" t="str">
+      <c r="AW30" s="60" t="str">
         <f>IF(_data!AV28="","",_data!AV28)</f>
         <v/>
       </c>
-      <c r="AX30" s="59" t="str">
+      <c r="AX30" s="60" t="str">
         <f>IF(_data!AW28="","",_data!AW28)</f>
         <v/>
       </c>
-      <c r="AY30" s="59" t="str">
+      <c r="AY30" s="60" t="str">
         <f>IF(_data!AX28="","",_data!AX28)</f>
         <v/>
       </c>
@@ -25284,203 +25284,203 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="59" t="str">
+      <c r="B31" s="60" t="str">
         <f>IF(_data!A29="","",_data!A29)</f>
         <v/>
       </c>
-      <c r="C31" s="59" t="str">
+      <c r="C31" s="61" t="str">
         <f>IF(_data!B29="","",_data!B29)</f>
         <v/>
       </c>
-      <c r="D31" s="59" t="str">
+      <c r="D31" s="61" t="str">
         <f>IF(_data!C29="","",_data!C29)</f>
         <v/>
       </c>
-      <c r="E31" s="59" t="str">
+      <c r="E31" s="61" t="str">
         <f>IF(_data!D29="","",_data!D29)</f>
         <v/>
       </c>
-      <c r="F31" s="59" t="str">
+      <c r="F31" s="60" t="str">
         <f>IF(_data!E29="","",_data!E29)</f>
         <v/>
       </c>
-      <c r="G31" s="59" t="str">
+      <c r="G31" s="61" t="str">
         <f>IF(_data!F29="","",_data!F29)</f>
         <v/>
       </c>
-      <c r="H31" s="59" t="str">
+      <c r="H31" s="61" t="str">
         <f>IF(_data!G29="","",_data!G29)</f>
         <v/>
       </c>
-      <c r="I31" s="59" t="str">
+      <c r="I31" s="61" t="str">
         <f>IF(_data!H29="","",_data!H29)</f>
         <v/>
       </c>
-      <c r="J31" s="59" t="str">
+      <c r="J31" s="60" t="str">
         <f>IF(_data!I29="","",_data!I29)</f>
         <v/>
       </c>
-      <c r="K31" s="59" t="str">
+      <c r="K31" s="61" t="str">
         <f>IF(_data!J29="","",_data!J29)</f>
         <v/>
       </c>
-      <c r="L31" s="59" t="str">
+      <c r="L31" s="61" t="str">
         <f>IF(_data!K29="","",_data!K29)</f>
         <v/>
       </c>
-      <c r="M31" s="59" t="str">
+      <c r="M31" s="61" t="str">
         <f>IF(_data!L29="","",_data!L29)</f>
         <v/>
       </c>
-      <c r="N31" s="59" t="str">
+      <c r="N31" s="60" t="str">
         <f>IF(_data!M29="","",_data!M29)</f>
         <v/>
       </c>
-      <c r="O31" s="59" t="str">
+      <c r="O31" s="60" t="str">
         <f>IF(_data!N29="","",_data!N29)</f>
         <v/>
       </c>
-      <c r="P31" s="59" t="str">
+      <c r="P31" s="60" t="str">
         <f>IF(_data!O29="","",_data!O29)</f>
         <v/>
       </c>
-      <c r="Q31" s="59" t="str">
+      <c r="Q31" s="60" t="str">
         <f>IF(_data!P29="","",_data!P29)</f>
         <v/>
       </c>
-      <c r="R31" s="59" t="str">
+      <c r="R31" s="60" t="str">
         <f>IF(_data!Q29="","",_data!Q29)</f>
         <v/>
       </c>
-      <c r="S31" s="59" t="str">
+      <c r="S31" s="60" t="str">
         <f>IF(_data!R29="","",_data!R29)</f>
         <v/>
       </c>
-      <c r="T31" s="59" t="str">
+      <c r="T31" s="60" t="str">
         <f>IF(_data!S29="","",_data!S29)</f>
         <v/>
       </c>
-      <c r="U31" s="59" t="str">
+      <c r="U31" s="60" t="str">
         <f>IF(_data!T29="","",_data!T29)</f>
         <v/>
       </c>
-      <c r="V31" s="59" t="str">
+      <c r="V31" s="60" t="str">
         <f>IF(_data!U29="","",_data!U29)</f>
         <v/>
       </c>
-      <c r="W31" s="59" t="str">
+      <c r="W31" s="60" t="str">
         <f>IF(_data!V29="","",_data!V29)</f>
         <v/>
       </c>
-      <c r="X31" s="59" t="str">
+      <c r="X31" s="60" t="str">
         <f>IF(_data!W29="","",_data!W29)</f>
         <v/>
       </c>
-      <c r="Y31" s="59" t="str">
+      <c r="Y31" s="60" t="str">
         <f>IF(_data!X29="","",_data!X29)</f>
         <v/>
       </c>
-      <c r="Z31" s="59" t="str">
+      <c r="Z31" s="60" t="str">
         <f>IF(_data!Y29="","",_data!Y29)</f>
         <v/>
       </c>
-      <c r="AA31" s="59" t="str">
+      <c r="AA31" s="60" t="str">
         <f>IF(_data!Z29="","",_data!Z29)</f>
         <v/>
       </c>
-      <c r="AB31" s="59" t="str">
+      <c r="AB31" s="60" t="str">
         <f>IF(_data!AA29="","",_data!AA29)</f>
         <v/>
       </c>
-      <c r="AC31" s="59" t="str">
+      <c r="AC31" s="60" t="str">
         <f>IF(_data!AB29="","",_data!AB29)</f>
         <v/>
       </c>
-      <c r="AD31" s="59" t="str">
+      <c r="AD31" s="60" t="str">
         <f>IF(_data!AC29="","",_data!AC29)</f>
         <v/>
       </c>
-      <c r="AE31" s="59" t="str">
+      <c r="AE31" s="60" t="str">
         <f>IF(_data!AD29="","",_data!AD29)</f>
         <v/>
       </c>
-      <c r="AF31" s="59" t="str">
+      <c r="AF31" s="60" t="str">
         <f>IF(_data!AE29="","",_data!AE29)</f>
         <v/>
       </c>
-      <c r="AG31" s="59" t="str">
+      <c r="AG31" s="60" t="str">
         <f>IF(_data!AF29="","",_data!AF29)</f>
         <v/>
       </c>
-      <c r="AH31" s="59" t="str">
+      <c r="AH31" s="60" t="str">
         <f>IF(_data!AG29="","",_data!AG29)</f>
         <v/>
       </c>
-      <c r="AI31" s="59" t="str">
+      <c r="AI31" s="60" t="str">
         <f>IF(_data!AH29="","",_data!AH29)</f>
         <v/>
       </c>
-      <c r="AJ31" s="59" t="str">
+      <c r="AJ31" s="60" t="str">
         <f>IF(_data!AI29="","",_data!AI29)</f>
         <v/>
       </c>
-      <c r="AK31" s="59" t="str">
+      <c r="AK31" s="60" t="str">
         <f>IF(_data!AJ29="","",_data!AJ29)</f>
         <v/>
       </c>
-      <c r="AL31" s="59" t="str">
+      <c r="AL31" s="60" t="str">
         <f>IF(_data!AK29="","",_data!AK29)</f>
         <v/>
       </c>
-      <c r="AM31" s="59" t="str">
+      <c r="AM31" s="60" t="str">
         <f>IF(_data!AL29="","",_data!AL29)</f>
         <v/>
       </c>
-      <c r="AN31" s="59" t="str">
+      <c r="AN31" s="60" t="str">
         <f>IF(_data!AM29="","",_data!AM29)</f>
         <v/>
       </c>
-      <c r="AO31" s="59" t="str">
+      <c r="AO31" s="60" t="str">
         <f>IF(_data!AN29="","",_data!AN29)</f>
         <v/>
       </c>
-      <c r="AP31" s="59" t="str">
+      <c r="AP31" s="60" t="str">
         <f>IF(_data!AO29="","",_data!AO29)</f>
         <v/>
       </c>
-      <c r="AQ31" s="59" t="str">
+      <c r="AQ31" s="60" t="str">
         <f>IF(_data!AP29="","",_data!AP29)</f>
         <v/>
       </c>
-      <c r="AR31" s="59" t="str">
+      <c r="AR31" s="60" t="str">
         <f>IF(_data!AQ29="","",_data!AQ29)</f>
         <v/>
       </c>
-      <c r="AS31" s="59" t="str">
+      <c r="AS31" s="60" t="str">
         <f>IF(_data!AR29="","",_data!AR29)</f>
         <v/>
       </c>
-      <c r="AT31" s="59" t="str">
+      <c r="AT31" s="60" t="str">
         <f>IF(_data!AS29="","",_data!AS29)</f>
         <v/>
       </c>
-      <c r="AU31" s="59" t="str">
+      <c r="AU31" s="60" t="str">
         <f>IF(_data!AT29="","",_data!AT29)</f>
         <v/>
       </c>
-      <c r="AV31" s="59" t="str">
+      <c r="AV31" s="60" t="str">
         <f>IF(_data!AU29="","",_data!AU29)</f>
         <v/>
       </c>
-      <c r="AW31" s="59" t="str">
+      <c r="AW31" s="60" t="str">
         <f>IF(_data!AV29="","",_data!AV29)</f>
         <v/>
       </c>
-      <c r="AX31" s="59" t="str">
+      <c r="AX31" s="60" t="str">
         <f>IF(_data!AW29="","",_data!AW29)</f>
         <v/>
       </c>
-      <c r="AY31" s="59" t="str">
+      <c r="AY31" s="60" t="str">
         <f>IF(_data!AX29="","",_data!AX29)</f>
         <v/>
       </c>
@@ -25493,203 +25493,203 @@
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="59" t="str">
+      <c r="B32" s="60" t="str">
         <f>IF(_data!A30="","",_data!A30)</f>
         <v/>
       </c>
-      <c r="C32" s="59" t="str">
+      <c r="C32" s="61" t="str">
         <f>IF(_data!B30="","",_data!B30)</f>
         <v/>
       </c>
-      <c r="D32" s="59" t="str">
+      <c r="D32" s="61" t="str">
         <f>IF(_data!C30="","",_data!C30)</f>
         <v/>
       </c>
-      <c r="E32" s="59" t="str">
+      <c r="E32" s="61" t="str">
         <f>IF(_data!D30="","",_data!D30)</f>
         <v/>
       </c>
-      <c r="F32" s="59" t="str">
+      <c r="F32" s="60" t="str">
         <f>IF(_data!E30="","",_data!E30)</f>
         <v/>
       </c>
-      <c r="G32" s="59" t="str">
+      <c r="G32" s="61" t="str">
         <f>IF(_data!F30="","",_data!F30)</f>
         <v/>
       </c>
-      <c r="H32" s="59" t="str">
+      <c r="H32" s="61" t="str">
         <f>IF(_data!G30="","",_data!G30)</f>
         <v/>
       </c>
-      <c r="I32" s="59" t="str">
+      <c r="I32" s="61" t="str">
         <f>IF(_data!H30="","",_data!H30)</f>
         <v/>
       </c>
-      <c r="J32" s="59" t="str">
+      <c r="J32" s="60" t="str">
         <f>IF(_data!I30="","",_data!I30)</f>
         <v/>
       </c>
-      <c r="K32" s="59" t="str">
+      <c r="K32" s="61" t="str">
         <f>IF(_data!J30="","",_data!J30)</f>
         <v/>
       </c>
-      <c r="L32" s="59" t="str">
+      <c r="L32" s="61" t="str">
         <f>IF(_data!K30="","",_data!K30)</f>
         <v/>
       </c>
-      <c r="M32" s="59" t="str">
+      <c r="M32" s="61" t="str">
         <f>IF(_data!L30="","",_data!L30)</f>
         <v/>
       </c>
-      <c r="N32" s="59" t="str">
+      <c r="N32" s="60" t="str">
         <f>IF(_data!M30="","",_data!M30)</f>
         <v/>
       </c>
-      <c r="O32" s="59" t="str">
+      <c r="O32" s="60" t="str">
         <f>IF(_data!N30="","",_data!N30)</f>
         <v/>
       </c>
-      <c r="P32" s="59" t="str">
+      <c r="P32" s="60" t="str">
         <f>IF(_data!O30="","",_data!O30)</f>
         <v/>
       </c>
-      <c r="Q32" s="59" t="str">
+      <c r="Q32" s="60" t="str">
         <f>IF(_data!P30="","",_data!P30)</f>
         <v/>
       </c>
-      <c r="R32" s="59" t="str">
+      <c r="R32" s="60" t="str">
         <f>IF(_data!Q30="","",_data!Q30)</f>
         <v/>
       </c>
-      <c r="S32" s="59" t="str">
+      <c r="S32" s="60" t="str">
         <f>IF(_data!R30="","",_data!R30)</f>
         <v/>
       </c>
-      <c r="T32" s="59" t="str">
+      <c r="T32" s="60" t="str">
         <f>IF(_data!S30="","",_data!S30)</f>
         <v/>
       </c>
-      <c r="U32" s="59" t="str">
+      <c r="U32" s="60" t="str">
         <f>IF(_data!T30="","",_data!T30)</f>
         <v/>
       </c>
-      <c r="V32" s="59" t="str">
+      <c r="V32" s="60" t="str">
         <f>IF(_data!U30="","",_data!U30)</f>
         <v/>
       </c>
-      <c r="W32" s="59" t="str">
+      <c r="W32" s="60" t="str">
         <f>IF(_data!V30="","",_data!V30)</f>
         <v/>
       </c>
-      <c r="X32" s="59" t="str">
+      <c r="X32" s="60" t="str">
         <f>IF(_data!W30="","",_data!W30)</f>
         <v/>
       </c>
-      <c r="Y32" s="59" t="str">
+      <c r="Y32" s="60" t="str">
         <f>IF(_data!X30="","",_data!X30)</f>
         <v/>
       </c>
-      <c r="Z32" s="59" t="str">
+      <c r="Z32" s="60" t="str">
         <f>IF(_data!Y30="","",_data!Y30)</f>
         <v/>
       </c>
-      <c r="AA32" s="59" t="str">
+      <c r="AA32" s="60" t="str">
         <f>IF(_data!Z30="","",_data!Z30)</f>
         <v/>
       </c>
-      <c r="AB32" s="59" t="str">
+      <c r="AB32" s="60" t="str">
         <f>IF(_data!AA30="","",_data!AA30)</f>
         <v/>
       </c>
-      <c r="AC32" s="59" t="str">
+      <c r="AC32" s="60" t="str">
         <f>IF(_data!AB30="","",_data!AB30)</f>
         <v/>
       </c>
-      <c r="AD32" s="59" t="str">
+      <c r="AD32" s="60" t="str">
         <f>IF(_data!AC30="","",_data!AC30)</f>
         <v/>
       </c>
-      <c r="AE32" s="59" t="str">
+      <c r="AE32" s="60" t="str">
         <f>IF(_data!AD30="","",_data!AD30)</f>
         <v/>
       </c>
-      <c r="AF32" s="59" t="str">
+      <c r="AF32" s="60" t="str">
         <f>IF(_data!AE30="","",_data!AE30)</f>
         <v/>
       </c>
-      <c r="AG32" s="59" t="str">
+      <c r="AG32" s="60" t="str">
         <f>IF(_data!AF30="","",_data!AF30)</f>
         <v/>
       </c>
-      <c r="AH32" s="59" t="str">
+      <c r="AH32" s="60" t="str">
         <f>IF(_data!AG30="","",_data!AG30)</f>
         <v/>
       </c>
-      <c r="AI32" s="59" t="str">
+      <c r="AI32" s="60" t="str">
         <f>IF(_data!AH30="","",_data!AH30)</f>
         <v/>
       </c>
-      <c r="AJ32" s="59" t="str">
+      <c r="AJ32" s="60" t="str">
         <f>IF(_data!AI30="","",_data!AI30)</f>
         <v/>
       </c>
-      <c r="AK32" s="59" t="str">
+      <c r="AK32" s="60" t="str">
         <f>IF(_data!AJ30="","",_data!AJ30)</f>
         <v/>
       </c>
-      <c r="AL32" s="59" t="str">
+      <c r="AL32" s="60" t="str">
         <f>IF(_data!AK30="","",_data!AK30)</f>
         <v/>
       </c>
-      <c r="AM32" s="59" t="str">
+      <c r="AM32" s="60" t="str">
         <f>IF(_data!AL30="","",_data!AL30)</f>
         <v/>
       </c>
-      <c r="AN32" s="59" t="str">
+      <c r="AN32" s="60" t="str">
         <f>IF(_data!AM30="","",_data!AM30)</f>
         <v/>
       </c>
-      <c r="AO32" s="59" t="str">
+      <c r="AO32" s="60" t="str">
         <f>IF(_data!AN30="","",_data!AN30)</f>
         <v/>
       </c>
-      <c r="AP32" s="59" t="str">
+      <c r="AP32" s="60" t="str">
         <f>IF(_data!AO30="","",_data!AO30)</f>
         <v/>
       </c>
-      <c r="AQ32" s="59" t="str">
+      <c r="AQ32" s="60" t="str">
         <f>IF(_data!AP30="","",_data!AP30)</f>
         <v/>
       </c>
-      <c r="AR32" s="59" t="str">
+      <c r="AR32" s="60" t="str">
         <f>IF(_data!AQ30="","",_data!AQ30)</f>
         <v/>
       </c>
-      <c r="AS32" s="59" t="str">
+      <c r="AS32" s="60" t="str">
         <f>IF(_data!AR30="","",_data!AR30)</f>
         <v/>
       </c>
-      <c r="AT32" s="59" t="str">
+      <c r="AT32" s="60" t="str">
         <f>IF(_data!AS30="","",_data!AS30)</f>
         <v/>
       </c>
-      <c r="AU32" s="59" t="str">
+      <c r="AU32" s="60" t="str">
         <f>IF(_data!AT30="","",_data!AT30)</f>
         <v/>
       </c>
-      <c r="AV32" s="59" t="str">
+      <c r="AV32" s="60" t="str">
         <f>IF(_data!AU30="","",_data!AU30)</f>
         <v/>
       </c>
-      <c r="AW32" s="59" t="str">
+      <c r="AW32" s="60" t="str">
         <f>IF(_data!AV30="","",_data!AV30)</f>
         <v/>
       </c>
-      <c r="AX32" s="59" t="str">
+      <c r="AX32" s="60" t="str">
         <f>IF(_data!AW30="","",_data!AW30)</f>
         <v/>
       </c>
-      <c r="AY32" s="59" t="str">
+      <c r="AY32" s="60" t="str">
         <f>IF(_data!AX30="","",_data!AX30)</f>
         <v/>
       </c>
@@ -25702,203 +25702,203 @@
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="59" t="str">
+      <c r="B33" s="60" t="str">
         <f>IF(_data!A31="","",_data!A31)</f>
         <v/>
       </c>
-      <c r="C33" s="59" t="str">
+      <c r="C33" s="61" t="str">
         <f>IF(_data!B31="","",_data!B31)</f>
         <v/>
       </c>
-      <c r="D33" s="59" t="str">
+      <c r="D33" s="61" t="str">
         <f>IF(_data!C31="","",_data!C31)</f>
         <v/>
       </c>
-      <c r="E33" s="59" t="str">
+      <c r="E33" s="61" t="str">
         <f>IF(_data!D31="","",_data!D31)</f>
         <v/>
       </c>
-      <c r="F33" s="59" t="str">
+      <c r="F33" s="60" t="str">
         <f>IF(_data!E31="","",_data!E31)</f>
         <v/>
       </c>
-      <c r="G33" s="59" t="str">
+      <c r="G33" s="61" t="str">
         <f>IF(_data!F31="","",_data!F31)</f>
         <v/>
       </c>
-      <c r="H33" s="59" t="str">
+      <c r="H33" s="61" t="str">
         <f>IF(_data!G31="","",_data!G31)</f>
         <v/>
       </c>
-      <c r="I33" s="59" t="str">
+      <c r="I33" s="61" t="str">
         <f>IF(_data!H31="","",_data!H31)</f>
         <v/>
       </c>
-      <c r="J33" s="59" t="str">
+      <c r="J33" s="60" t="str">
         <f>IF(_data!I31="","",_data!I31)</f>
         <v/>
       </c>
-      <c r="K33" s="59" t="str">
+      <c r="K33" s="61" t="str">
         <f>IF(_data!J31="","",_data!J31)</f>
         <v/>
       </c>
-      <c r="L33" s="59" t="str">
+      <c r="L33" s="61" t="str">
         <f>IF(_data!K31="","",_data!K31)</f>
         <v/>
       </c>
-      <c r="M33" s="59" t="str">
+      <c r="M33" s="61" t="str">
         <f>IF(_data!L31="","",_data!L31)</f>
         <v/>
       </c>
-      <c r="N33" s="59" t="str">
+      <c r="N33" s="60" t="str">
         <f>IF(_data!M31="","",_data!M31)</f>
         <v/>
       </c>
-      <c r="O33" s="59" t="str">
+      <c r="O33" s="60" t="str">
         <f>IF(_data!N31="","",_data!N31)</f>
         <v/>
       </c>
-      <c r="P33" s="59" t="str">
+      <c r="P33" s="60" t="str">
         <f>IF(_data!O31="","",_data!O31)</f>
         <v/>
       </c>
-      <c r="Q33" s="59" t="str">
+      <c r="Q33" s="60" t="str">
         <f>IF(_data!P31="","",_data!P31)</f>
         <v/>
       </c>
-      <c r="R33" s="59" t="str">
+      <c r="R33" s="60" t="str">
         <f>IF(_data!Q31="","",_data!Q31)</f>
         <v/>
       </c>
-      <c r="S33" s="59" t="str">
+      <c r="S33" s="60" t="str">
         <f>IF(_data!R31="","",_data!R31)</f>
         <v/>
       </c>
-      <c r="T33" s="59" t="str">
+      <c r="T33" s="60" t="str">
         <f>IF(_data!S31="","",_data!S31)</f>
         <v/>
       </c>
-      <c r="U33" s="59" t="str">
+      <c r="U33" s="60" t="str">
         <f>IF(_data!T31="","",_data!T31)</f>
         <v/>
       </c>
-      <c r="V33" s="59" t="str">
+      <c r="V33" s="60" t="str">
         <f>IF(_data!U31="","",_data!U31)</f>
         <v/>
       </c>
-      <c r="W33" s="59" t="str">
+      <c r="W33" s="60" t="str">
         <f>IF(_data!V31="","",_data!V31)</f>
         <v/>
       </c>
-      <c r="X33" s="59" t="str">
+      <c r="X33" s="60" t="str">
         <f>IF(_data!W31="","",_data!W31)</f>
         <v/>
       </c>
-      <c r="Y33" s="59" t="str">
+      <c r="Y33" s="60" t="str">
         <f>IF(_data!X31="","",_data!X31)</f>
         <v/>
       </c>
-      <c r="Z33" s="59" t="str">
+      <c r="Z33" s="60" t="str">
         <f>IF(_data!Y31="","",_data!Y31)</f>
         <v/>
       </c>
-      <c r="AA33" s="59" t="str">
+      <c r="AA33" s="60" t="str">
         <f>IF(_data!Z31="","",_data!Z31)</f>
         <v/>
       </c>
-      <c r="AB33" s="59" t="str">
+      <c r="AB33" s="60" t="str">
         <f>IF(_data!AA31="","",_data!AA31)</f>
         <v/>
       </c>
-      <c r="AC33" s="59" t="str">
+      <c r="AC33" s="60" t="str">
         <f>IF(_data!AB31="","",_data!AB31)</f>
         <v/>
       </c>
-      <c r="AD33" s="59" t="str">
+      <c r="AD33" s="60" t="str">
         <f>IF(_data!AC31="","",_data!AC31)</f>
         <v/>
       </c>
-      <c r="AE33" s="59" t="str">
+      <c r="AE33" s="60" t="str">
         <f>IF(_data!AD31="","",_data!AD31)</f>
         <v/>
       </c>
-      <c r="AF33" s="59" t="str">
+      <c r="AF33" s="60" t="str">
         <f>IF(_data!AE31="","",_data!AE31)</f>
         <v/>
       </c>
-      <c r="AG33" s="59" t="str">
+      <c r="AG33" s="60" t="str">
         <f>IF(_data!AF31="","",_data!AF31)</f>
         <v/>
       </c>
-      <c r="AH33" s="59" t="str">
+      <c r="AH33" s="60" t="str">
         <f>IF(_data!AG31="","",_data!AG31)</f>
         <v/>
       </c>
-      <c r="AI33" s="59" t="str">
+      <c r="AI33" s="60" t="str">
         <f>IF(_data!AH31="","",_data!AH31)</f>
         <v/>
       </c>
-      <c r="AJ33" s="59" t="str">
+      <c r="AJ33" s="60" t="str">
         <f>IF(_data!AI31="","",_data!AI31)</f>
         <v/>
       </c>
-      <c r="AK33" s="59" t="str">
+      <c r="AK33" s="60" t="str">
         <f>IF(_data!AJ31="","",_data!AJ31)</f>
         <v/>
       </c>
-      <c r="AL33" s="59" t="str">
+      <c r="AL33" s="60" t="str">
         <f>IF(_data!AK31="","",_data!AK31)</f>
         <v/>
       </c>
-      <c r="AM33" s="59" t="str">
+      <c r="AM33" s="60" t="str">
         <f>IF(_data!AL31="","",_data!AL31)</f>
         <v/>
       </c>
-      <c r="AN33" s="59" t="str">
+      <c r="AN33" s="60" t="str">
         <f>IF(_data!AM31="","",_data!AM31)</f>
         <v/>
       </c>
-      <c r="AO33" s="59" t="str">
+      <c r="AO33" s="60" t="str">
         <f>IF(_data!AN31="","",_data!AN31)</f>
         <v/>
       </c>
-      <c r="AP33" s="59" t="str">
+      <c r="AP33" s="60" t="str">
         <f>IF(_data!AO31="","",_data!AO31)</f>
         <v/>
       </c>
-      <c r="AQ33" s="59" t="str">
+      <c r="AQ33" s="60" t="str">
         <f>IF(_data!AP31="","",_data!AP31)</f>
         <v/>
       </c>
-      <c r="AR33" s="59" t="str">
+      <c r="AR33" s="60" t="str">
         <f>IF(_data!AQ31="","",_data!AQ31)</f>
         <v/>
       </c>
-      <c r="AS33" s="59" t="str">
+      <c r="AS33" s="60" t="str">
         <f>IF(_data!AR31="","",_data!AR31)</f>
         <v/>
       </c>
-      <c r="AT33" s="59" t="str">
+      <c r="AT33" s="60" t="str">
         <f>IF(_data!AS31="","",_data!AS31)</f>
         <v/>
       </c>
-      <c r="AU33" s="59" t="str">
+      <c r="AU33" s="60" t="str">
         <f>IF(_data!AT31="","",_data!AT31)</f>
         <v/>
       </c>
-      <c r="AV33" s="59" t="str">
+      <c r="AV33" s="60" t="str">
         <f>IF(_data!AU31="","",_data!AU31)</f>
         <v/>
       </c>
-      <c r="AW33" s="59" t="str">
+      <c r="AW33" s="60" t="str">
         <f>IF(_data!AV31="","",_data!AV31)</f>
         <v/>
       </c>
-      <c r="AX33" s="59" t="str">
+      <c r="AX33" s="60" t="str">
         <f>IF(_data!AW31="","",_data!AW31)</f>
         <v/>
       </c>
-      <c r="AY33" s="59" t="str">
+      <c r="AY33" s="60" t="str">
         <f>IF(_data!AX31="","",_data!AX31)</f>
         <v/>
       </c>
@@ -25911,203 +25911,203 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="59" t="str">
+      <c r="B34" s="60" t="str">
         <f>IF(_data!A32="","",_data!A32)</f>
         <v/>
       </c>
-      <c r="C34" s="59" t="str">
+      <c r="C34" s="61" t="str">
         <f>IF(_data!B32="","",_data!B32)</f>
         <v/>
       </c>
-      <c r="D34" s="59" t="str">
+      <c r="D34" s="61" t="str">
         <f>IF(_data!C32="","",_data!C32)</f>
         <v/>
       </c>
-      <c r="E34" s="59" t="str">
+      <c r="E34" s="61" t="str">
         <f>IF(_data!D32="","",_data!D32)</f>
         <v/>
       </c>
-      <c r="F34" s="59" t="str">
+      <c r="F34" s="60" t="str">
         <f>IF(_data!E32="","",_data!E32)</f>
         <v/>
       </c>
-      <c r="G34" s="59" t="str">
+      <c r="G34" s="61" t="str">
         <f>IF(_data!F32="","",_data!F32)</f>
         <v/>
       </c>
-      <c r="H34" s="59" t="str">
+      <c r="H34" s="61" t="str">
         <f>IF(_data!G32="","",_data!G32)</f>
         <v/>
       </c>
-      <c r="I34" s="59" t="str">
+      <c r="I34" s="61" t="str">
         <f>IF(_data!H32="","",_data!H32)</f>
         <v/>
       </c>
-      <c r="J34" s="59" t="str">
+      <c r="J34" s="60" t="str">
         <f>IF(_data!I32="","",_data!I32)</f>
         <v/>
       </c>
-      <c r="K34" s="59" t="str">
+      <c r="K34" s="61" t="str">
         <f>IF(_data!J32="","",_data!J32)</f>
         <v/>
       </c>
-      <c r="L34" s="59" t="str">
+      <c r="L34" s="61" t="str">
         <f>IF(_data!K32="","",_data!K32)</f>
         <v/>
       </c>
-      <c r="M34" s="59" t="str">
+      <c r="M34" s="61" t="str">
         <f>IF(_data!L32="","",_data!L32)</f>
         <v/>
       </c>
-      <c r="N34" s="59" t="str">
+      <c r="N34" s="60" t="str">
         <f>IF(_data!M32="","",_data!M32)</f>
         <v/>
       </c>
-      <c r="O34" s="59" t="str">
+      <c r="O34" s="60" t="str">
         <f>IF(_data!N32="","",_data!N32)</f>
         <v/>
       </c>
-      <c r="P34" s="59" t="str">
+      <c r="P34" s="60" t="str">
         <f>IF(_data!O32="","",_data!O32)</f>
         <v/>
       </c>
-      <c r="Q34" s="59" t="str">
+      <c r="Q34" s="60" t="str">
         <f>IF(_data!P32="","",_data!P32)</f>
         <v/>
       </c>
-      <c r="R34" s="59" t="str">
+      <c r="R34" s="60" t="str">
         <f>IF(_data!Q32="","",_data!Q32)</f>
         <v/>
       </c>
-      <c r="S34" s="59" t="str">
+      <c r="S34" s="60" t="str">
         <f>IF(_data!R32="","",_data!R32)</f>
         <v/>
       </c>
-      <c r="T34" s="59" t="str">
+      <c r="T34" s="60" t="str">
         <f>IF(_data!S32="","",_data!S32)</f>
         <v/>
       </c>
-      <c r="U34" s="59" t="str">
+      <c r="U34" s="60" t="str">
         <f>IF(_data!T32="","",_data!T32)</f>
         <v/>
       </c>
-      <c r="V34" s="59" t="str">
+      <c r="V34" s="60" t="str">
         <f>IF(_data!U32="","",_data!U32)</f>
         <v/>
       </c>
-      <c r="W34" s="59" t="str">
+      <c r="W34" s="60" t="str">
         <f>IF(_data!V32="","",_data!V32)</f>
         <v/>
       </c>
-      <c r="X34" s="59" t="str">
+      <c r="X34" s="60" t="str">
         <f>IF(_data!W32="","",_data!W32)</f>
         <v/>
       </c>
-      <c r="Y34" s="59" t="str">
+      <c r="Y34" s="60" t="str">
         <f>IF(_data!X32="","",_data!X32)</f>
         <v/>
       </c>
-      <c r="Z34" s="59" t="str">
+      <c r="Z34" s="60" t="str">
         <f>IF(_data!Y32="","",_data!Y32)</f>
         <v/>
       </c>
-      <c r="AA34" s="59" t="str">
+      <c r="AA34" s="60" t="str">
         <f>IF(_data!Z32="","",_data!Z32)</f>
         <v/>
       </c>
-      <c r="AB34" s="59" t="str">
+      <c r="AB34" s="60" t="str">
         <f>IF(_data!AA32="","",_data!AA32)</f>
         <v/>
       </c>
-      <c r="AC34" s="59" t="str">
+      <c r="AC34" s="60" t="str">
         <f>IF(_data!AB32="","",_data!AB32)</f>
         <v/>
       </c>
-      <c r="AD34" s="59" t="str">
+      <c r="AD34" s="60" t="str">
         <f>IF(_data!AC32="","",_data!AC32)</f>
         <v/>
       </c>
-      <c r="AE34" s="59" t="str">
+      <c r="AE34" s="60" t="str">
         <f>IF(_data!AD32="","",_data!AD32)</f>
         <v/>
       </c>
-      <c r="AF34" s="59" t="str">
+      <c r="AF34" s="60" t="str">
         <f>IF(_data!AE32="","",_data!AE32)</f>
         <v/>
       </c>
-      <c r="AG34" s="59" t="str">
+      <c r="AG34" s="60" t="str">
         <f>IF(_data!AF32="","",_data!AF32)</f>
         <v/>
       </c>
-      <c r="AH34" s="59" t="str">
+      <c r="AH34" s="60" t="str">
         <f>IF(_data!AG32="","",_data!AG32)</f>
         <v/>
       </c>
-      <c r="AI34" s="59" t="str">
+      <c r="AI34" s="60" t="str">
         <f>IF(_data!AH32="","",_data!AH32)</f>
         <v/>
       </c>
-      <c r="AJ34" s="59" t="str">
+      <c r="AJ34" s="60" t="str">
         <f>IF(_data!AI32="","",_data!AI32)</f>
         <v/>
       </c>
-      <c r="AK34" s="59" t="str">
+      <c r="AK34" s="60" t="str">
         <f>IF(_data!AJ32="","",_data!AJ32)</f>
         <v/>
       </c>
-      <c r="AL34" s="59" t="str">
+      <c r="AL34" s="60" t="str">
         <f>IF(_data!AK32="","",_data!AK32)</f>
         <v/>
       </c>
-      <c r="AM34" s="59" t="str">
+      <c r="AM34" s="60" t="str">
         <f>IF(_data!AL32="","",_data!AL32)</f>
         <v/>
       </c>
-      <c r="AN34" s="59" t="str">
+      <c r="AN34" s="60" t="str">
         <f>IF(_data!AM32="","",_data!AM32)</f>
         <v/>
       </c>
-      <c r="AO34" s="59" t="str">
+      <c r="AO34" s="60" t="str">
         <f>IF(_data!AN32="","",_data!AN32)</f>
         <v/>
       </c>
-      <c r="AP34" s="59" t="str">
+      <c r="AP34" s="60" t="str">
         <f>IF(_data!AO32="","",_data!AO32)</f>
         <v/>
       </c>
-      <c r="AQ34" s="59" t="str">
+      <c r="AQ34" s="60" t="str">
         <f>IF(_data!AP32="","",_data!AP32)</f>
         <v/>
       </c>
-      <c r="AR34" s="59" t="str">
+      <c r="AR34" s="60" t="str">
         <f>IF(_data!AQ32="","",_data!AQ32)</f>
         <v/>
       </c>
-      <c r="AS34" s="59" t="str">
+      <c r="AS34" s="60" t="str">
         <f>IF(_data!AR32="","",_data!AR32)</f>
         <v/>
       </c>
-      <c r="AT34" s="59" t="str">
+      <c r="AT34" s="60" t="str">
         <f>IF(_data!AS32="","",_data!AS32)</f>
         <v/>
       </c>
-      <c r="AU34" s="59" t="str">
+      <c r="AU34" s="60" t="str">
         <f>IF(_data!AT32="","",_data!AT32)</f>
         <v/>
       </c>
-      <c r="AV34" s="59" t="str">
+      <c r="AV34" s="60" t="str">
         <f>IF(_data!AU32="","",_data!AU32)</f>
         <v/>
       </c>
-      <c r="AW34" s="59" t="str">
+      <c r="AW34" s="60" t="str">
         <f>IF(_data!AV32="","",_data!AV32)</f>
         <v/>
       </c>
-      <c r="AX34" s="59" t="str">
+      <c r="AX34" s="60" t="str">
         <f>IF(_data!AW32="","",_data!AW32)</f>
         <v/>
       </c>
-      <c r="AY34" s="59" t="str">
+      <c r="AY34" s="60" t="str">
         <f>IF(_data!AX32="","",_data!AX32)</f>
         <v/>
       </c>
@@ -26120,203 +26120,203 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="59" t="str">
+      <c r="B35" s="60" t="str">
         <f>IF(_data!A33="","",_data!A33)</f>
         <v/>
       </c>
-      <c r="C35" s="59" t="str">
+      <c r="C35" s="61" t="str">
         <f>IF(_data!B33="","",_data!B33)</f>
         <v/>
       </c>
-      <c r="D35" s="59" t="str">
+      <c r="D35" s="61" t="str">
         <f>IF(_data!C33="","",_data!C33)</f>
         <v/>
       </c>
-      <c r="E35" s="59" t="str">
+      <c r="E35" s="61" t="str">
         <f>IF(_data!D33="","",_data!D33)</f>
         <v/>
       </c>
-      <c r="F35" s="59" t="str">
+      <c r="F35" s="60" t="str">
         <f>IF(_data!E33="","",_data!E33)</f>
         <v/>
       </c>
-      <c r="G35" s="59" t="str">
+      <c r="G35" s="61" t="str">
         <f>IF(_data!F33="","",_data!F33)</f>
         <v/>
       </c>
-      <c r="H35" s="59" t="str">
+      <c r="H35" s="61" t="str">
         <f>IF(_data!G33="","",_data!G33)</f>
         <v/>
       </c>
-      <c r="I35" s="59" t="str">
+      <c r="I35" s="61" t="str">
         <f>IF(_data!H33="","",_data!H33)</f>
         <v/>
       </c>
-      <c r="J35" s="59" t="str">
+      <c r="J35" s="60" t="str">
         <f>IF(_data!I33="","",_data!I33)</f>
         <v/>
       </c>
-      <c r="K35" s="59" t="str">
+      <c r="K35" s="61" t="str">
         <f>IF(_data!J33="","",_data!J33)</f>
         <v/>
       </c>
-      <c r="L35" s="59" t="str">
+      <c r="L35" s="61" t="str">
         <f>IF(_data!K33="","",_data!K33)</f>
         <v/>
       </c>
-      <c r="M35" s="59" t="str">
+      <c r="M35" s="61" t="str">
         <f>IF(_data!L33="","",_data!L33)</f>
         <v/>
       </c>
-      <c r="N35" s="59" t="str">
+      <c r="N35" s="60" t="str">
         <f>IF(_data!M33="","",_data!M33)</f>
         <v/>
       </c>
-      <c r="O35" s="59" t="str">
+      <c r="O35" s="60" t="str">
         <f>IF(_data!N33="","",_data!N33)</f>
         <v/>
       </c>
-      <c r="P35" s="59" t="str">
+      <c r="P35" s="60" t="str">
         <f>IF(_data!O33="","",_data!O33)</f>
         <v/>
       </c>
-      <c r="Q35" s="59" t="str">
+      <c r="Q35" s="60" t="str">
         <f>IF(_data!P33="","",_data!P33)</f>
         <v/>
       </c>
-      <c r="R35" s="59" t="str">
+      <c r="R35" s="60" t="str">
         <f>IF(_data!Q33="","",_data!Q33)</f>
         <v/>
       </c>
-      <c r="S35" s="59" t="str">
+      <c r="S35" s="60" t="str">
         <f>IF(_data!R33="","",_data!R33)</f>
         <v/>
       </c>
-      <c r="T35" s="59" t="str">
+      <c r="T35" s="60" t="str">
         <f>IF(_data!S33="","",_data!S33)</f>
         <v/>
       </c>
-      <c r="U35" s="59" t="str">
+      <c r="U35" s="60" t="str">
         <f>IF(_data!T33="","",_data!T33)</f>
         <v/>
       </c>
-      <c r="V35" s="59" t="str">
+      <c r="V35" s="60" t="str">
         <f>IF(_data!U33="","",_data!U33)</f>
         <v/>
       </c>
-      <c r="W35" s="59" t="str">
+      <c r="W35" s="60" t="str">
         <f>IF(_data!V33="","",_data!V33)</f>
         <v/>
       </c>
-      <c r="X35" s="59" t="str">
+      <c r="X35" s="60" t="str">
         <f>IF(_data!W33="","",_data!W33)</f>
         <v/>
       </c>
-      <c r="Y35" s="59" t="str">
+      <c r="Y35" s="60" t="str">
         <f>IF(_data!X33="","",_data!X33)</f>
         <v/>
       </c>
-      <c r="Z35" s="59" t="str">
+      <c r="Z35" s="60" t="str">
         <f>IF(_data!Y33="","",_data!Y33)</f>
         <v/>
       </c>
-      <c r="AA35" s="59" t="str">
+      <c r="AA35" s="60" t="str">
         <f>IF(_data!Z33="","",_data!Z33)</f>
         <v/>
       </c>
-      <c r="AB35" s="59" t="str">
+      <c r="AB35" s="60" t="str">
         <f>IF(_data!AA33="","",_data!AA33)</f>
         <v/>
       </c>
-      <c r="AC35" s="59" t="str">
+      <c r="AC35" s="60" t="str">
         <f>IF(_data!AB33="","",_data!AB33)</f>
         <v/>
       </c>
-      <c r="AD35" s="59" t="str">
+      <c r="AD35" s="60" t="str">
         <f>IF(_data!AC33="","",_data!AC33)</f>
         <v/>
       </c>
-      <c r="AE35" s="59" t="str">
+      <c r="AE35" s="60" t="str">
         <f>IF(_data!AD33="","",_data!AD33)</f>
         <v/>
       </c>
-      <c r="AF35" s="59" t="str">
+      <c r="AF35" s="60" t="str">
         <f>IF(_data!AE33="","",_data!AE33)</f>
         <v/>
       </c>
-      <c r="AG35" s="59" t="str">
+      <c r="AG35" s="60" t="str">
         <f>IF(_data!AF33="","",_data!AF33)</f>
         <v/>
       </c>
-      <c r="AH35" s="59" t="str">
+      <c r="AH35" s="60" t="str">
         <f>IF(_data!AG33="","",_data!AG33)</f>
         <v/>
       </c>
-      <c r="AI35" s="59" t="str">
+      <c r="AI35" s="60" t="str">
         <f>IF(_data!AH33="","",_data!AH33)</f>
         <v/>
       </c>
-      <c r="AJ35" s="59" t="str">
+      <c r="AJ35" s="60" t="str">
         <f>IF(_data!AI33="","",_data!AI33)</f>
         <v/>
       </c>
-      <c r="AK35" s="59" t="str">
+      <c r="AK35" s="60" t="str">
         <f>IF(_data!AJ33="","",_data!AJ33)</f>
         <v/>
       </c>
-      <c r="AL35" s="59" t="str">
+      <c r="AL35" s="60" t="str">
         <f>IF(_data!AK33="","",_data!AK33)</f>
         <v/>
       </c>
-      <c r="AM35" s="59" t="str">
+      <c r="AM35" s="60" t="str">
         <f>IF(_data!AL33="","",_data!AL33)</f>
         <v/>
       </c>
-      <c r="AN35" s="59" t="str">
+      <c r="AN35" s="60" t="str">
         <f>IF(_data!AM33="","",_data!AM33)</f>
         <v/>
       </c>
-      <c r="AO35" s="59" t="str">
+      <c r="AO35" s="60" t="str">
         <f>IF(_data!AN33="","",_data!AN33)</f>
         <v/>
       </c>
-      <c r="AP35" s="59" t="str">
+      <c r="AP35" s="60" t="str">
         <f>IF(_data!AO33="","",_data!AO33)</f>
         <v/>
       </c>
-      <c r="AQ35" s="59" t="str">
+      <c r="AQ35" s="60" t="str">
         <f>IF(_data!AP33="","",_data!AP33)</f>
         <v/>
       </c>
-      <c r="AR35" s="59" t="str">
+      <c r="AR35" s="60" t="str">
         <f>IF(_data!AQ33="","",_data!AQ33)</f>
         <v/>
       </c>
-      <c r="AS35" s="59" t="str">
+      <c r="AS35" s="60" t="str">
         <f>IF(_data!AR33="","",_data!AR33)</f>
         <v/>
       </c>
-      <c r="AT35" s="59" t="str">
+      <c r="AT35" s="60" t="str">
         <f>IF(_data!AS33="","",_data!AS33)</f>
         <v/>
       </c>
-      <c r="AU35" s="59" t="str">
+      <c r="AU35" s="60" t="str">
         <f>IF(_data!AT33="","",_data!AT33)</f>
         <v/>
       </c>
-      <c r="AV35" s="59" t="str">
+      <c r="AV35" s="60" t="str">
         <f>IF(_data!AU33="","",_data!AU33)</f>
         <v/>
       </c>
-      <c r="AW35" s="59" t="str">
+      <c r="AW35" s="60" t="str">
         <f>IF(_data!AV33="","",_data!AV33)</f>
         <v/>
       </c>
-      <c r="AX35" s="59" t="str">
+      <c r="AX35" s="60" t="str">
         <f>IF(_data!AW33="","",_data!AW33)</f>
         <v/>
       </c>
-      <c r="AY35" s="59" t="str">
+      <c r="AY35" s="60" t="str">
         <f>IF(_data!AX33="","",_data!AX33)</f>
         <v/>
       </c>
@@ -26329,203 +26329,203 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="59" t="str">
+      <c r="B36" s="60" t="str">
         <f>IF(_data!A34="","",_data!A34)</f>
         <v/>
       </c>
-      <c r="C36" s="59" t="str">
+      <c r="C36" s="61" t="str">
         <f>IF(_data!B34="","",_data!B34)</f>
         <v/>
       </c>
-      <c r="D36" s="59" t="str">
+      <c r="D36" s="61" t="str">
         <f>IF(_data!C34="","",_data!C34)</f>
         <v/>
       </c>
-      <c r="E36" s="59" t="str">
+      <c r="E36" s="61" t="str">
         <f>IF(_data!D34="","",_data!D34)</f>
         <v/>
       </c>
-      <c r="F36" s="59" t="str">
+      <c r="F36" s="60" t="str">
         <f>IF(_data!E34="","",_data!E34)</f>
         <v/>
       </c>
-      <c r="G36" s="59" t="str">
+      <c r="G36" s="61" t="str">
         <f>IF(_data!F34="","",_data!F34)</f>
         <v/>
       </c>
-      <c r="H36" s="59" t="str">
+      <c r="H36" s="61" t="str">
         <f>IF(_data!G34="","",_data!G34)</f>
         <v/>
       </c>
-      <c r="I36" s="59" t="str">
+      <c r="I36" s="61" t="str">
         <f>IF(_data!H34="","",_data!H34)</f>
         <v/>
       </c>
-      <c r="J36" s="59" t="str">
+      <c r="J36" s="60" t="str">
         <f>IF(_data!I34="","",_data!I34)</f>
         <v/>
       </c>
-      <c r="K36" s="59" t="str">
+      <c r="K36" s="61" t="str">
         <f>IF(_data!J34="","",_data!J34)</f>
         <v/>
       </c>
-      <c r="L36" s="59" t="str">
+      <c r="L36" s="61" t="str">
         <f>IF(_data!K34="","",_data!K34)</f>
         <v/>
       </c>
-      <c r="M36" s="59" t="str">
+      <c r="M36" s="61" t="str">
         <f>IF(_data!L34="","",_data!L34)</f>
         <v/>
       </c>
-      <c r="N36" s="59" t="str">
+      <c r="N36" s="60" t="str">
         <f>IF(_data!M34="","",_data!M34)</f>
         <v/>
       </c>
-      <c r="O36" s="59" t="str">
+      <c r="O36" s="60" t="str">
         <f>IF(_data!N34="","",_data!N34)</f>
         <v/>
       </c>
-      <c r="P36" s="59" t="str">
+      <c r="P36" s="60" t="str">
         <f>IF(_data!O34="","",_data!O34)</f>
         <v/>
       </c>
-      <c r="Q36" s="59" t="str">
+      <c r="Q36" s="60" t="str">
         <f>IF(_data!P34="","",_data!P34)</f>
         <v/>
       </c>
-      <c r="R36" s="59" t="str">
+      <c r="R36" s="60" t="str">
         <f>IF(_data!Q34="","",_data!Q34)</f>
         <v/>
       </c>
-      <c r="S36" s="59" t="str">
+      <c r="S36" s="60" t="str">
         <f>IF(_data!R34="","",_data!R34)</f>
         <v/>
       </c>
-      <c r="T36" s="59" t="str">
+      <c r="T36" s="60" t="str">
         <f>IF(_data!S34="","",_data!S34)</f>
         <v/>
       </c>
-      <c r="U36" s="59" t="str">
+      <c r="U36" s="60" t="str">
         <f>IF(_data!T34="","",_data!T34)</f>
         <v/>
       </c>
-      <c r="V36" s="59" t="str">
+      <c r="V36" s="60" t="str">
         <f>IF(_data!U34="","",_data!U34)</f>
         <v/>
       </c>
-      <c r="W36" s="59" t="str">
+      <c r="W36" s="60" t="str">
         <f>IF(_data!V34="","",_data!V34)</f>
         <v/>
       </c>
-      <c r="X36" s="59" t="str">
+      <c r="X36" s="60" t="str">
         <f>IF(_data!W34="","",_data!W34)</f>
         <v/>
       </c>
-      <c r="Y36" s="59" t="str">
+      <c r="Y36" s="60" t="str">
         <f>IF(_data!X34="","",_data!X34)</f>
         <v/>
       </c>
-      <c r="Z36" s="59" t="str">
+      <c r="Z36" s="60" t="str">
         <f>IF(_data!Y34="","",_data!Y34)</f>
         <v/>
       </c>
-      <c r="AA36" s="59" t="str">
+      <c r="AA36" s="60" t="str">
         <f>IF(_data!Z34="","",_data!Z34)</f>
         <v/>
       </c>
-      <c r="AB36" s="59" t="str">
+      <c r="AB36" s="60" t="str">
         <f>IF(_data!AA34="","",_data!AA34)</f>
         <v/>
       </c>
-      <c r="AC36" s="59" t="str">
+      <c r="AC36" s="60" t="str">
         <f>IF(_data!AB34="","",_data!AB34)</f>
         <v/>
       </c>
-      <c r="AD36" s="59" t="str">
+      <c r="AD36" s="60" t="str">
         <f>IF(_data!AC34="","",_data!AC34)</f>
         <v/>
       </c>
-      <c r="AE36" s="59" t="str">
+      <c r="AE36" s="60" t="str">
         <f>IF(_data!AD34="","",_data!AD34)</f>
         <v/>
       </c>
-      <c r="AF36" s="59" t="str">
+      <c r="AF36" s="60" t="str">
         <f>IF(_data!AE34="","",_data!AE34)</f>
         <v/>
       </c>
-      <c r="AG36" s="59" t="str">
+      <c r="AG36" s="60" t="str">
         <f>IF(_data!AF34="","",_data!AF34)</f>
         <v/>
       </c>
-      <c r="AH36" s="59" t="str">
+      <c r="AH36" s="60" t="str">
         <f>IF(_data!AG34="","",_data!AG34)</f>
         <v/>
       </c>
-      <c r="AI36" s="59" t="str">
+      <c r="AI36" s="60" t="str">
         <f>IF(_data!AH34="","",_data!AH34)</f>
         <v/>
       </c>
-      <c r="AJ36" s="59" t="str">
+      <c r="AJ36" s="60" t="str">
         <f>IF(_data!AI34="","",_data!AI34)</f>
         <v/>
       </c>
-      <c r="AK36" s="59" t="str">
+      <c r="AK36" s="60" t="str">
         <f>IF(_data!AJ34="","",_data!AJ34)</f>
         <v/>
       </c>
-      <c r="AL36" s="59" t="str">
+      <c r="AL36" s="60" t="str">
         <f>IF(_data!AK34="","",_data!AK34)</f>
         <v/>
       </c>
-      <c r="AM36" s="59" t="str">
+      <c r="AM36" s="60" t="str">
         <f>IF(_data!AL34="","",_data!AL34)</f>
         <v/>
       </c>
-      <c r="AN36" s="59" t="str">
+      <c r="AN36" s="60" t="str">
         <f>IF(_data!AM34="","",_data!AM34)</f>
         <v/>
       </c>
-      <c r="AO36" s="59" t="str">
+      <c r="AO36" s="60" t="str">
         <f>IF(_data!AN34="","",_data!AN34)</f>
         <v/>
       </c>
-      <c r="AP36" s="59" t="str">
+      <c r="AP36" s="60" t="str">
         <f>IF(_data!AO34="","",_data!AO34)</f>
         <v/>
       </c>
-      <c r="AQ36" s="59" t="str">
+      <c r="AQ36" s="60" t="str">
         <f>IF(_data!AP34="","",_data!AP34)</f>
         <v/>
       </c>
-      <c r="AR36" s="59" t="str">
+      <c r="AR36" s="60" t="str">
         <f>IF(_data!AQ34="","",_data!AQ34)</f>
         <v/>
       </c>
-      <c r="AS36" s="59" t="str">
+      <c r="AS36" s="60" t="str">
         <f>IF(_data!AR34="","",_data!AR34)</f>
         <v/>
       </c>
-      <c r="AT36" s="59" t="str">
+      <c r="AT36" s="60" t="str">
         <f>IF(_data!AS34="","",_data!AS34)</f>
         <v/>
       </c>
-      <c r="AU36" s="59" t="str">
+      <c r="AU36" s="60" t="str">
         <f>IF(_data!AT34="","",_data!AT34)</f>
         <v/>
       </c>
-      <c r="AV36" s="59" t="str">
+      <c r="AV36" s="60" t="str">
         <f>IF(_data!AU34="","",_data!AU34)</f>
         <v/>
       </c>
-      <c r="AW36" s="59" t="str">
+      <c r="AW36" s="60" t="str">
         <f>IF(_data!AV34="","",_data!AV34)</f>
         <v/>
       </c>
-      <c r="AX36" s="59" t="str">
+      <c r="AX36" s="60" t="str">
         <f>IF(_data!AW34="","",_data!AW34)</f>
         <v/>
       </c>
-      <c r="AY36" s="59" t="str">
+      <c r="AY36" s="60" t="str">
         <f>IF(_data!AX34="","",_data!AX34)</f>
         <v/>
       </c>
@@ -26538,203 +26538,203 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="59" t="str">
+      <c r="B37" s="60" t="str">
         <f>IF(_data!A35="","",_data!A35)</f>
         <v/>
       </c>
-      <c r="C37" s="59" t="str">
+      <c r="C37" s="61" t="str">
         <f>IF(_data!B35="","",_data!B35)</f>
         <v/>
       </c>
-      <c r="D37" s="59" t="str">
+      <c r="D37" s="61" t="str">
         <f>IF(_data!C35="","",_data!C35)</f>
         <v/>
       </c>
-      <c r="E37" s="59" t="str">
+      <c r="E37" s="61" t="str">
         <f>IF(_data!D35="","",_data!D35)</f>
         <v/>
       </c>
-      <c r="F37" s="59" t="str">
+      <c r="F37" s="60" t="str">
         <f>IF(_data!E35="","",_data!E35)</f>
         <v/>
       </c>
-      <c r="G37" s="59" t="str">
+      <c r="G37" s="61" t="str">
         <f>IF(_data!F35="","",_data!F35)</f>
         <v/>
       </c>
-      <c r="H37" s="59" t="str">
+      <c r="H37" s="61" t="str">
         <f>IF(_data!G35="","",_data!G35)</f>
         <v/>
       </c>
-      <c r="I37" s="59" t="str">
+      <c r="I37" s="61" t="str">
         <f>IF(_data!H35="","",_data!H35)</f>
         <v/>
       </c>
-      <c r="J37" s="59" t="str">
+      <c r="J37" s="60" t="str">
         <f>IF(_data!I35="","",_data!I35)</f>
         <v/>
       </c>
-      <c r="K37" s="59" t="str">
+      <c r="K37" s="61" t="str">
         <f>IF(_data!J35="","",_data!J35)</f>
         <v/>
       </c>
-      <c r="L37" s="59" t="str">
+      <c r="L37" s="61" t="str">
         <f>IF(_data!K35="","",_data!K35)</f>
         <v/>
       </c>
-      <c r="M37" s="59" t="str">
+      <c r="M37" s="61" t="str">
         <f>IF(_data!L35="","",_data!L35)</f>
         <v/>
       </c>
-      <c r="N37" s="59" t="str">
+      <c r="N37" s="60" t="str">
         <f>IF(_data!M35="","",_data!M35)</f>
         <v/>
       </c>
-      <c r="O37" s="59" t="str">
+      <c r="O37" s="60" t="str">
         <f>IF(_data!N35="","",_data!N35)</f>
         <v/>
       </c>
-      <c r="P37" s="59" t="str">
+      <c r="P37" s="60" t="str">
         <f>IF(_data!O35="","",_data!O35)</f>
         <v/>
       </c>
-      <c r="Q37" s="59" t="str">
+      <c r="Q37" s="60" t="str">
         <f>IF(_data!P35="","",_data!P35)</f>
         <v/>
       </c>
-      <c r="R37" s="59" t="str">
+      <c r="R37" s="60" t="str">
         <f>IF(_data!Q35="","",_data!Q35)</f>
         <v/>
       </c>
-      <c r="S37" s="59" t="str">
+      <c r="S37" s="60" t="str">
         <f>IF(_data!R35="","",_data!R35)</f>
         <v/>
       </c>
-      <c r="T37" s="59" t="str">
+      <c r="T37" s="60" t="str">
         <f>IF(_data!S35="","",_data!S35)</f>
         <v/>
       </c>
-      <c r="U37" s="59" t="str">
+      <c r="U37" s="60" t="str">
         <f>IF(_data!T35="","",_data!T35)</f>
         <v/>
       </c>
-      <c r="V37" s="59" t="str">
+      <c r="V37" s="60" t="str">
         <f>IF(_data!U35="","",_data!U35)</f>
         <v/>
       </c>
-      <c r="W37" s="59" t="str">
+      <c r="W37" s="60" t="str">
         <f>IF(_data!V35="","",_data!V35)</f>
         <v/>
       </c>
-      <c r="X37" s="59" t="str">
+      <c r="X37" s="60" t="str">
         <f>IF(_data!W35="","",_data!W35)</f>
         <v/>
       </c>
-      <c r="Y37" s="59" t="str">
+      <c r="Y37" s="60" t="str">
         <f>IF(_data!X35="","",_data!X35)</f>
         <v/>
       </c>
-      <c r="Z37" s="59" t="str">
+      <c r="Z37" s="60" t="str">
         <f>IF(_data!Y35="","",_data!Y35)</f>
         <v/>
       </c>
-      <c r="AA37" s="59" t="str">
+      <c r="AA37" s="60" t="str">
         <f>IF(_data!Z35="","",_data!Z35)</f>
         <v/>
       </c>
-      <c r="AB37" s="59" t="str">
+      <c r="AB37" s="60" t="str">
         <f>IF(_data!AA35="","",_data!AA35)</f>
         <v/>
       </c>
-      <c r="AC37" s="59" t="str">
+      <c r="AC37" s="60" t="str">
         <f>IF(_data!AB35="","",_data!AB35)</f>
         <v/>
       </c>
-      <c r="AD37" s="59" t="str">
+      <c r="AD37" s="60" t="str">
         <f>IF(_data!AC35="","",_data!AC35)</f>
         <v/>
       </c>
-      <c r="AE37" s="59" t="str">
+      <c r="AE37" s="60" t="str">
         <f>IF(_data!AD35="","",_data!AD35)</f>
         <v/>
       </c>
-      <c r="AF37" s="59" t="str">
+      <c r="AF37" s="60" t="str">
         <f>IF(_data!AE35="","",_data!AE35)</f>
         <v/>
       </c>
-      <c r="AG37" s="59" t="str">
+      <c r="AG37" s="60" t="str">
         <f>IF(_data!AF35="","",_data!AF35)</f>
         <v/>
       </c>
-      <c r="AH37" s="59" t="str">
+      <c r="AH37" s="60" t="str">
         <f>IF(_data!AG35="","",_data!AG35)</f>
         <v/>
       </c>
-      <c r="AI37" s="59" t="str">
+      <c r="AI37" s="60" t="str">
         <f>IF(_data!AH35="","",_data!AH35)</f>
         <v/>
       </c>
-      <c r="AJ37" s="59" t="str">
+      <c r="AJ37" s="60" t="str">
         <f>IF(_data!AI35="","",_data!AI35)</f>
         <v/>
       </c>
-      <c r="AK37" s="59" t="str">
+      <c r="AK37" s="60" t="str">
         <f>IF(_data!AJ35="","",_data!AJ35)</f>
         <v/>
       </c>
-      <c r="AL37" s="59" t="str">
+      <c r="AL37" s="60" t="str">
         <f>IF(_data!AK35="","",_data!AK35)</f>
         <v/>
       </c>
-      <c r="AM37" s="59" t="str">
+      <c r="AM37" s="60" t="str">
         <f>IF(_data!AL35="","",_data!AL35)</f>
         <v/>
       </c>
-      <c r="AN37" s="59" t="str">
+      <c r="AN37" s="60" t="str">
         <f>IF(_data!AM35="","",_data!AM35)</f>
         <v/>
       </c>
-      <c r="AO37" s="59" t="str">
+      <c r="AO37" s="60" t="str">
         <f>IF(_data!AN35="","",_data!AN35)</f>
         <v/>
       </c>
-      <c r="AP37" s="59" t="str">
+      <c r="AP37" s="60" t="str">
         <f>IF(_data!AO35="","",_data!AO35)</f>
         <v/>
       </c>
-      <c r="AQ37" s="59" t="str">
+      <c r="AQ37" s="60" t="str">
         <f>IF(_data!AP35="","",_data!AP35)</f>
         <v/>
       </c>
-      <c r="AR37" s="59" t="str">
+      <c r="AR37" s="60" t="str">
         <f>IF(_data!AQ35="","",_data!AQ35)</f>
         <v/>
       </c>
-      <c r="AS37" s="59" t="str">
+      <c r="AS37" s="60" t="str">
         <f>IF(_data!AR35="","",_data!AR35)</f>
         <v/>
       </c>
-      <c r="AT37" s="59" t="str">
+      <c r="AT37" s="60" t="str">
         <f>IF(_data!AS35="","",_data!AS35)</f>
         <v/>
       </c>
-      <c r="AU37" s="59" t="str">
+      <c r="AU37" s="60" t="str">
         <f>IF(_data!AT35="","",_data!AT35)</f>
         <v/>
       </c>
-      <c r="AV37" s="59" t="str">
+      <c r="AV37" s="60" t="str">
         <f>IF(_data!AU35="","",_data!AU35)</f>
         <v/>
       </c>
-      <c r="AW37" s="59" t="str">
+      <c r="AW37" s="60" t="str">
         <f>IF(_data!AV35="","",_data!AV35)</f>
         <v/>
       </c>
-      <c r="AX37" s="59" t="str">
+      <c r="AX37" s="60" t="str">
         <f>IF(_data!AW35="","",_data!AW35)</f>
         <v/>
       </c>
-      <c r="AY37" s="59" t="str">
+      <c r="AY37" s="60" t="str">
         <f>IF(_data!AX35="","",_data!AX35)</f>
         <v/>
       </c>
@@ -26747,203 +26747,203 @@
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="59" t="str">
+      <c r="B38" s="60" t="str">
         <f>IF(_data!A36="","",_data!A36)</f>
         <v/>
       </c>
-      <c r="C38" s="59" t="str">
+      <c r="C38" s="61" t="str">
         <f>IF(_data!B36="","",_data!B36)</f>
         <v/>
       </c>
-      <c r="D38" s="59" t="str">
+      <c r="D38" s="61" t="str">
         <f>IF(_data!C36="","",_data!C36)</f>
         <v/>
       </c>
-      <c r="E38" s="59" t="str">
+      <c r="E38" s="61" t="str">
         <f>IF(_data!D36="","",_data!D36)</f>
         <v/>
       </c>
-      <c r="F38" s="59" t="str">
+      <c r="F38" s="60" t="str">
         <f>IF(_data!E36="","",_data!E36)</f>
         <v/>
       </c>
-      <c r="G38" s="59" t="str">
+      <c r="G38" s="61" t="str">
         <f>IF(_data!F36="","",_data!F36)</f>
         <v/>
       </c>
-      <c r="H38" s="59" t="str">
+      <c r="H38" s="61" t="str">
         <f>IF(_data!G36="","",_data!G36)</f>
         <v/>
       </c>
-      <c r="I38" s="59" t="str">
+      <c r="I38" s="61" t="str">
         <f>IF(_data!H36="","",_data!H36)</f>
         <v/>
       </c>
-      <c r="J38" s="59" t="str">
+      <c r="J38" s="60" t="str">
         <f>IF(_data!I36="","",_data!I36)</f>
         <v/>
       </c>
-      <c r="K38" s="59" t="str">
+      <c r="K38" s="61" t="str">
         <f>IF(_data!J36="","",_data!J36)</f>
         <v/>
       </c>
-      <c r="L38" s="59" t="str">
+      <c r="L38" s="61" t="str">
         <f>IF(_data!K36="","",_data!K36)</f>
         <v/>
       </c>
-      <c r="M38" s="59" t="str">
+      <c r="M38" s="61" t="str">
         <f>IF(_data!L36="","",_data!L36)</f>
         <v/>
       </c>
-      <c r="N38" s="59" t="str">
+      <c r="N38" s="60" t="str">
         <f>IF(_data!M36="","",_data!M36)</f>
         <v/>
       </c>
-      <c r="O38" s="59" t="str">
+      <c r="O38" s="60" t="str">
         <f>IF(_data!N36="","",_data!N36)</f>
         <v/>
       </c>
-      <c r="P38" s="59" t="str">
+      <c r="P38" s="60" t="str">
         <f>IF(_data!O36="","",_data!O36)</f>
         <v/>
       </c>
-      <c r="Q38" s="59" t="str">
+      <c r="Q38" s="60" t="str">
         <f>IF(_data!P36="","",_data!P36)</f>
         <v/>
       </c>
-      <c r="R38" s="59" t="str">
+      <c r="R38" s="60" t="str">
         <f>IF(_data!Q36="","",_data!Q36)</f>
         <v/>
       </c>
-      <c r="S38" s="59" t="str">
+      <c r="S38" s="60" t="str">
         <f>IF(_data!R36="","",_data!R36)</f>
         <v/>
       </c>
-      <c r="T38" s="59" t="str">
+      <c r="T38" s="60" t="str">
         <f>IF(_data!S36="","",_data!S36)</f>
         <v/>
       </c>
-      <c r="U38" s="59" t="str">
+      <c r="U38" s="60" t="str">
         <f>IF(_data!T36="","",_data!T36)</f>
         <v/>
       </c>
-      <c r="V38" s="59" t="str">
+      <c r="V38" s="60" t="str">
         <f>IF(_data!U36="","",_data!U36)</f>
         <v/>
       </c>
-      <c r="W38" s="59" t="str">
+      <c r="W38" s="60" t="str">
         <f>IF(_data!V36="","",_data!V36)</f>
         <v/>
       </c>
-      <c r="X38" s="59" t="str">
+      <c r="X38" s="60" t="str">
         <f>IF(_data!W36="","",_data!W36)</f>
         <v/>
       </c>
-      <c r="Y38" s="59" t="str">
+      <c r="Y38" s="60" t="str">
         <f>IF(_data!X36="","",_data!X36)</f>
         <v/>
       </c>
-      <c r="Z38" s="59" t="str">
+      <c r="Z38" s="60" t="str">
         <f>IF(_data!Y36="","",_data!Y36)</f>
         <v/>
       </c>
-      <c r="AA38" s="59" t="str">
+      <c r="AA38" s="60" t="str">
         <f>IF(_data!Z36="","",_data!Z36)</f>
         <v/>
       </c>
-      <c r="AB38" s="59" t="str">
+      <c r="AB38" s="60" t="str">
         <f>IF(_data!AA36="","",_data!AA36)</f>
         <v/>
       </c>
-      <c r="AC38" s="59" t="str">
+      <c r="AC38" s="60" t="str">
         <f>IF(_data!AB36="","",_data!AB36)</f>
         <v/>
       </c>
-      <c r="AD38" s="59" t="str">
+      <c r="AD38" s="60" t="str">
         <f>IF(_data!AC36="","",_data!AC36)</f>
         <v/>
       </c>
-      <c r="AE38" s="59" t="str">
+      <c r="AE38" s="60" t="str">
         <f>IF(_data!AD36="","",_data!AD36)</f>
         <v/>
       </c>
-      <c r="AF38" s="59" t="str">
+      <c r="AF38" s="60" t="str">
         <f>IF(_data!AE36="","",_data!AE36)</f>
         <v/>
       </c>
-      <c r="AG38" s="59" t="str">
+      <c r="AG38" s="60" t="str">
         <f>IF(_data!AF36="","",_data!AF36)</f>
         <v/>
       </c>
-      <c r="AH38" s="59" t="str">
+      <c r="AH38" s="60" t="str">
         <f>IF(_data!AG36="","",_data!AG36)</f>
         <v/>
       </c>
-      <c r="AI38" s="59" t="str">
+      <c r="AI38" s="60" t="str">
         <f>IF(_data!AH36="","",_data!AH36)</f>
         <v/>
       </c>
-      <c r="AJ38" s="59" t="str">
+      <c r="AJ38" s="60" t="str">
         <f>IF(_data!AI36="","",_data!AI36)</f>
         <v/>
       </c>
-      <c r="AK38" s="59" t="str">
+      <c r="AK38" s="60" t="str">
         <f>IF(_data!AJ36="","",_data!AJ36)</f>
         <v/>
       </c>
-      <c r="AL38" s="59" t="str">
+      <c r="AL38" s="60" t="str">
         <f>IF(_data!AK36="","",_data!AK36)</f>
         <v/>
       </c>
-      <c r="AM38" s="59" t="str">
+      <c r="AM38" s="60" t="str">
         <f>IF(_data!AL36="","",_data!AL36)</f>
         <v/>
       </c>
-      <c r="AN38" s="59" t="str">
+      <c r="AN38" s="60" t="str">
         <f>IF(_data!AM36="","",_data!AM36)</f>
         <v/>
       </c>
-      <c r="AO38" s="59" t="str">
+      <c r="AO38" s="60" t="str">
         <f>IF(_data!AN36="","",_data!AN36)</f>
         <v/>
       </c>
-      <c r="AP38" s="59" t="str">
+      <c r="AP38" s="60" t="str">
         <f>IF(_data!AO36="","",_data!AO36)</f>
         <v/>
       </c>
-      <c r="AQ38" s="59" t="str">
+      <c r="AQ38" s="60" t="str">
         <f>IF(_data!AP36="","",_data!AP36)</f>
         <v/>
       </c>
-      <c r="AR38" s="59" t="str">
+      <c r="AR38" s="60" t="str">
         <f>IF(_data!AQ36="","",_data!AQ36)</f>
         <v/>
       </c>
-      <c r="AS38" s="59" t="str">
+      <c r="AS38" s="60" t="str">
         <f>IF(_data!AR36="","",_data!AR36)</f>
         <v/>
       </c>
-      <c r="AT38" s="59" t="str">
+      <c r="AT38" s="60" t="str">
         <f>IF(_data!AS36="","",_data!AS36)</f>
         <v/>
       </c>
-      <c r="AU38" s="59" t="str">
+      <c r="AU38" s="60" t="str">
         <f>IF(_data!AT36="","",_data!AT36)</f>
         <v/>
       </c>
-      <c r="AV38" s="59" t="str">
+      <c r="AV38" s="60" t="str">
         <f>IF(_data!AU36="","",_data!AU36)</f>
         <v/>
       </c>
-      <c r="AW38" s="59" t="str">
+      <c r="AW38" s="60" t="str">
         <f>IF(_data!AV36="","",_data!AV36)</f>
         <v/>
       </c>
-      <c r="AX38" s="59" t="str">
+      <c r="AX38" s="60" t="str">
         <f>IF(_data!AW36="","",_data!AW36)</f>
         <v/>
       </c>
-      <c r="AY38" s="59" t="str">
+      <c r="AY38" s="60" t="str">
         <f>IF(_data!AX36="","",_data!AX36)</f>
         <v/>
       </c>
@@ -26956,203 +26956,203 @@
       <c r="A39" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="57" t="str">
+      <c r="B39" s="58" t="str">
         <f>IF(ISERROR(AVERAGE(B28:B38)),"",AVERAGE(B28:B38))</f>
         <v/>
       </c>
-      <c r="C39" s="60" t="str">
+      <c r="C39" s="59" t="str">
         <f t="shared" ref="C39:AZ39" si="2">IF(ISERROR(AVERAGE(C28:C38)),"",AVERAGE(C28:C38))</f>
         <v/>
       </c>
-      <c r="D39" s="60" t="str">
+      <c r="D39" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E39" s="58" t="str">
+      <c r="E39" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F39" s="57" t="str">
+      <c r="F39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G39" s="60" t="str">
+      <c r="G39" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H39" s="60" t="str">
+      <c r="H39" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="58" t="str">
+      <c r="I39" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J39" s="57" t="str">
+      <c r="J39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K39" s="60" t="str">
+      <c r="K39" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L39" s="60" t="str">
+      <c r="L39" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M39" s="58" t="str">
+      <c r="M39" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N39" s="57" t="str">
+      <c r="N39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O39" s="57" t="str">
+      <c r="O39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P39" s="57" t="str">
+      <c r="P39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q39" s="57" t="str">
+      <c r="Q39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R39" s="57" t="str">
+      <c r="R39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S39" s="57" t="str">
+      <c r="S39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T39" s="57" t="str">
+      <c r="T39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U39" s="57" t="str">
+      <c r="U39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V39" s="57" t="str">
+      <c r="V39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W39" s="57" t="str">
+      <c r="W39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X39" s="57" t="str">
+      <c r="X39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y39" s="57" t="str">
+      <c r="Y39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z39" s="57" t="str">
+      <c r="Z39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA39" s="57" t="str">
+      <c r="AA39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB39" s="57" t="str">
+      <c r="AB39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC39" s="57" t="str">
+      <c r="AC39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD39" s="57" t="str">
+      <c r="AD39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AE39" s="57" t="str">
+      <c r="AE39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF39" s="57" t="str">
+      <c r="AF39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG39" s="57" t="str">
+      <c r="AG39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AH39" s="57" t="str">
+      <c r="AH39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI39" s="57" t="str">
+      <c r="AI39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AJ39" s="57" t="str">
+      <c r="AJ39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AK39" s="57" t="str">
+      <c r="AK39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL39" s="57" t="str">
+      <c r="AL39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AM39" s="57" t="str">
+      <c r="AM39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AN39" s="57" t="str">
+      <c r="AN39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AO39" s="57" t="str">
+      <c r="AO39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP39" s="57" t="str">
+      <c r="AP39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AQ39" s="57" t="str">
+      <c r="AQ39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AR39" s="57" t="str">
+      <c r="AR39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AS39" s="57" t="str">
+      <c r="AS39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AT39" s="57" t="str">
+      <c r="AT39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AU39" s="57" t="str">
+      <c r="AU39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV39" s="57" t="str">
+      <c r="AV39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AW39" s="57" t="str">
+      <c r="AW39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX39" s="57" t="str">
+      <c r="AX39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AY39" s="57" t="str">
+      <c r="AY39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -27162,18 +27162,18 @@
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:52">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="62" t="str">
+      <c r="B40" s="63" t="str">
         <f>IF(ISERROR(AVERAGE(B6:B15,B17:B26,B28:B38)),"",AVERAGE(B6:B15,B17:B26,B28:B38))</f>
         <v/>
       </c>
-      <c r="C40" s="63" t="str">
+      <c r="C40" s="64" t="str">
         <f>IF(ISERROR(AVERAGE(C6:C15,C17:C26,C28:C38)),"",AVERAGE(C6:C15,C17:C26,C28:C38))</f>
         <v/>
       </c>
-      <c r="D40" s="63" t="str">
+      <c r="D40" s="64" t="str">
         <f>IF(ISERROR(AVERAGE(D6:D15,D17:D26,D28:D38)),"",AVERAGE(D6:D15,D17:D26,D28:D38))</f>
         <v/>
       </c>
@@ -27181,15 +27181,15 @@
         <f t="shared" ref="E40:AZ40" si="3">IF(ISERROR(AVERAGE(E6:E15,E17:E26,E28:E38)),"",AVERAGE(E6:E15,E17:E26,E28:E38))</f>
         <v/>
       </c>
-      <c r="F40" s="62" t="str">
+      <c r="F40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G40" s="63" t="str">
+      <c r="G40" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H40" s="63" t="str">
+      <c r="H40" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27197,15 +27197,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J40" s="62" t="str">
+      <c r="J40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K40" s="63" t="str">
+      <c r="K40" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L40" s="63" t="str">
+      <c r="L40" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27213,155 +27213,155 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N40" s="62" t="str">
+      <c r="N40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O40" s="62" t="str">
+      <c r="O40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P40" s="62" t="str">
+      <c r="P40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q40" s="62" t="str">
+      <c r="Q40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R40" s="62" t="str">
+      <c r="R40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S40" s="62" t="str">
+      <c r="S40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T40" s="62" t="str">
+      <c r="T40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="U40" s="62" t="str">
+      <c r="U40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V40" s="62" t="str">
+      <c r="V40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W40" s="62" t="str">
+      <c r="W40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X40" s="62" t="str">
+      <c r="X40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y40" s="62" t="str">
+      <c r="Y40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z40" s="62" t="str">
+      <c r="Z40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA40" s="62" t="str">
+      <c r="AA40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB40" s="62" t="str">
+      <c r="AB40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC40" s="62" t="str">
+      <c r="AC40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD40" s="62" t="str">
+      <c r="AD40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE40" s="62" t="str">
+      <c r="AE40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF40" s="62" t="str">
+      <c r="AF40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AG40" s="62" t="str">
+      <c r="AG40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH40" s="62" t="str">
+      <c r="AH40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AI40" s="62" t="str">
+      <c r="AI40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AJ40" s="62" t="str">
+      <c r="AJ40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AK40" s="62" t="str">
+      <c r="AK40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AL40" s="62" t="str">
+      <c r="AL40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AM40" s="62" t="str">
+      <c r="AM40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AN40" s="62" t="str">
+      <c r="AN40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AO40" s="62" t="str">
+      <c r="AO40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AP40" s="62" t="str">
+      <c r="AP40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ40" s="62" t="str">
+      <c r="AQ40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR40" s="62" t="str">
+      <c r="AR40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AS40" s="62" t="str">
+      <c r="AS40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AT40" s="62" t="str">
+      <c r="AT40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AU40" s="62" t="str">
+      <c r="AU40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AV40" s="62" t="str">
+      <c r="AV40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AW40" s="62" t="str">
+      <c r="AW40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AX40" s="62" t="str">
+      <c r="AX40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY40" s="62" t="str">
+      <c r="AY40" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
